--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14897"/>
+    <workbookView windowWidth="28345" windowHeight="14297"/>
   </bookViews>
   <sheets>
-    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -26,7 +25,7 @@
     <t>英雄属性</t>
   </si>
   <si>
-    <t>HeroIndex</t>
+    <t>Id</t>
   </si>
   <si>
     <t>HeroName</t>
@@ -52,55 +51,16 @@
   <si>
     <t>亡灵法师</t>
   </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>所属进程</t>
-  </si>
-  <si>
-    <t>所属区</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>外网端口</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>SceneType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -124,60 +84,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +101,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -200,14 +131,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,46 +192,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,139 +243,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,43 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,8 +440,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,11 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,26 +526,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1048,7 @@
   <dimension ref="C3:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1181,8 +1141,6 @@
       <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="3:8">
@@ -1195,8 +1153,6 @@
       <c r="E9" s="5">
         <v>4</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="3:8">
@@ -1209,8 +1165,6 @@
       <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="3:8">
@@ -1223,8 +1177,6 @@
       <c r="E11" s="5">
         <v>6</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="3:8">
@@ -1237,8 +1189,6 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="3:5">
@@ -1439,110 +1389,6 @@
     <row r="32" spans="3:4">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelRow="5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -25,6 +25,9 @@
     <t>英雄属性</t>
   </si>
   <si>
+    <t>英雄血量</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>HeroColor</t>
+  </si>
+  <si>
+    <t>HeroHP</t>
   </si>
   <si>
     <t>int</t>
@@ -57,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -92,6 +98,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -100,129 +189,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,13 +249,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +375,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,133 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,15 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,21 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -496,17 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +500,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -540,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,16 +558,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,115 +576,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1054,7 @@
   <dimension ref="C3:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1071,35 +1077,41 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
@@ -1108,12 +1120,14 @@
         <v>100001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
@@ -1122,12 +1136,14 @@
         <v>100002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
@@ -1136,10 +1152,13 @@
         <v>100003</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -1148,10 +1167,13 @@
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -1160,10 +1182,13 @@
         <v>100005</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -1172,10 +1197,13 @@
         <v>100006</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
         <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>100</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -1184,198 +1212,252 @@
         <v>100007</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:6">
       <c r="C13" s="5">
         <v>100008</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="3:5">
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
       <c r="C14" s="5">
         <v>100009</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="3:5">
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
       <c r="C15" s="5">
         <v>100010</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="3:5">
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
       <c r="C16" s="5">
         <v>100011</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="3:5">
+      <c r="F16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" s="5">
         <v>100012</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="3:5">
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:5">
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="F19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="5">
         <v>100015</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:5">
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="5">
         <v>100016</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:5">
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="5">
         <v>100017</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:5">
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" s="5">
         <v>100018</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="3:5">
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="5">
         <v>100019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="3:5">
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="5">
         <v>100020</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="3:5">
+      <c r="F25" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="5">
         <v>100021</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:5">
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="5">
         <v>100022</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:5">
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="5">
         <v>100023</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="3:5">
+      <c r="F28" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="5">
         <v>100024</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5">
         <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="3:4">

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14297"/>
+    <workbookView windowWidth="28345" windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -28,6 +28,12 @@
     <t>英雄血量</t>
   </si>
   <si>
+    <t>攻击值</t>
+  </si>
+  <si>
+    <t>防御值</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -38,6 +44,12 @@
   </si>
   <si>
     <t>HeroHP</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defence</t>
   </si>
   <si>
     <t>int</t>
@@ -64,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -90,6 +102,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -98,17 +154,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,29 +195,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,81 +239,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -249,181 +261,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,9 +457,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +496,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,26 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,25 +552,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,19 +570,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,112 +591,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1066,7 @@
   <dimension ref="C3:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1080,47 +1092,59 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="1" ht="14.1" spans="3:8">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1128,15 +1152,19 @@
       <c r="F6" s="5">
         <v>100</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:8">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -1144,15 +1172,19 @@
       <c r="F7" s="5">
         <v>100</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1160,14 +1192,19 @@
       <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -1175,14 +1212,19 @@
       <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
@@ -1190,14 +1232,19 @@
       <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5">
         <v>6</v>
@@ -1205,14 +1252,19 @@
       <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="5">
         <v>100007</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1220,14 +1272,19 @@
       <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="3:6">
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="5">
         <v>100008</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
@@ -1235,13 +1292,19 @@
       <c r="F13" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="3:6">
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="5">
         <v>100009</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
@@ -1249,13 +1312,19 @@
       <c r="F14" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="3:6">
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="5">
         <v>100010</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
@@ -1263,13 +1332,19 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="3:6">
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="5">
         <v>100011</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5">
         <v>5</v>
@@ -1277,13 +1352,19 @@
       <c r="F16" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="3:6">
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="5">
         <v>100012</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5">
         <v>6</v>
@@ -1291,13 +1372,19 @@
       <c r="F17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1305,13 +1392,19 @@
       <c r="F18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5">
         <v>2</v>
@@ -1319,13 +1412,19 @@
       <c r="F19" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="5">
         <v>100015</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E20" s="5">
         <v>3</v>
@@ -1333,13 +1432,19 @@
       <c r="F20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="5">
         <v>100016</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E21" s="5">
         <v>4</v>
@@ -1347,13 +1452,19 @@
       <c r="F21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:6">
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="5">
         <v>100017</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" s="5">
         <v>5</v>
@@ -1361,13 +1472,19 @@
       <c r="F22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:6">
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
       <c r="C23" s="5">
         <v>100018</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" s="5">
         <v>6</v>
@@ -1375,13 +1492,19 @@
       <c r="F23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:6">
+      <c r="G23" s="5">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
       <c r="C24" s="5">
         <v>100019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1389,13 +1512,19 @@
       <c r="F24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:6">
+      <c r="G24" s="5">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
       <c r="C25" s="5">
         <v>100020</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="5">
         <v>2</v>
@@ -1403,13 +1532,19 @@
       <c r="F25" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="3:6">
+      <c r="G25" s="5">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
       <c r="C26" s="5">
         <v>100021</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26" s="5">
         <v>3</v>
@@ -1417,13 +1552,19 @@
       <c r="F26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:6">
+      <c r="G26" s="5">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
       <c r="C27" s="5">
         <v>100022</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5">
         <v>4</v>
@@ -1431,13 +1572,19 @@
       <c r="F27" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="3:6">
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
       <c r="C28" s="5">
         <v>100023</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28" s="5">
         <v>5</v>
@@ -1445,19 +1592,31 @@
       <c r="F28" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="3:6">
+      <c r="G28" s="5">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
       <c r="C29" s="5">
         <v>100024</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5">
         <v>6</v>
       </c>
       <c r="F29" s="3">
         <v>100</v>
+      </c>
+      <c r="G29" s="5">
+        <v>5</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="3:4">

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -60,25 +60,16 @@
   <si>
     <t>无敌战士</t>
   </si>
-  <si>
-    <t>孤胆英雄</t>
-  </si>
-  <si>
-    <t>恶灵骑士</t>
-  </si>
-  <si>
-    <t>亡灵法师</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -103,12 +94,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,54 +122,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +159,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -186,23 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,31 +206,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,19 +252,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,19 +366,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,139 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +443,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,6 +481,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,25 +509,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,166 +543,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1057,7 @@
   <dimension ref="C3:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H29"/>
+      <selection activeCell="C12" sqref="C12:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1260,364 +1251,148 @@
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5">
-        <v>100007</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="5">
-        <v>100008</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>100</v>
-      </c>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="5">
-        <v>100009</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="5">
-        <v>100010</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="5">
-        <v>100011</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>100</v>
-      </c>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="5">
-        <v>100012</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>2</v>
-      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="5">
-        <v>100013</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="5">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>2</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="5">
-        <v>100014</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>100</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2</v>
-      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="5">
-        <v>100015</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="5">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="5">
-        <v>100016</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>2</v>
-      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="5">
-        <v>100017</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <v>2</v>
-      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="5">
-        <v>100018</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="5">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="5">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5">
-        <v>2</v>
-      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="5">
-        <v>100019</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="5">
-        <v>5</v>
-      </c>
-      <c r="H24" s="5">
-        <v>2</v>
-      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="5">
-        <v>100020</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>100</v>
-      </c>
-      <c r="G25" s="5">
-        <v>5</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2</v>
-      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="5">
-        <v>100021</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="5">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="5">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2</v>
-      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="5">
-        <v>100022</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="5">
-        <v>5</v>
-      </c>
-      <c r="H27" s="5">
-        <v>2</v>
-      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="5">
-        <v>100023</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>100</v>
-      </c>
-      <c r="G28" s="5">
-        <v>5</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2</v>
-      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="5">
-        <v>100024</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="5">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3">
-        <v>100</v>
-      </c>
-      <c r="G29" s="5">
-        <v>5</v>
-      </c>
-      <c r="H29" s="5">
-        <v>2</v>
-      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -34,6 +34,15 @@
     <t>防御值</t>
   </si>
   <si>
+    <t>怒气值倍率</t>
+  </si>
+  <si>
+    <t>基础暴击率</t>
+  </si>
+  <si>
+    <t>攻击值倍率</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -50,6 +59,15 @@
   </si>
   <si>
     <t>Defence</t>
+  </si>
+  <si>
+    <t>AngryRate</t>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>AttackRate</t>
   </si>
   <si>
     <t>int</t>
@@ -67,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -93,61 +111,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,24 +127,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -198,14 +210,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -214,24 +241,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,19 +270,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,163 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,19 +467,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,7 +506,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -528,31 +561,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H32"/>
+  <dimension ref="C3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H29"/>
+      <selection activeCell="I6" sqref="I6:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
@@ -1070,7 +1088,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:11">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1089,53 +1107,80 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="14.1" spans="3:8">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="14.1" spans="3:11">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1149,13 +1194,22 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.1" spans="3:11">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -1169,13 +1223,22 @@
       <c r="H7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:8">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.1" spans="3:11">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1189,13 +1252,22 @@
       <c r="H8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="3:8">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.1" spans="3:11">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -1209,13 +1281,22 @@
       <c r="H9" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="3:8">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1.2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.1" spans="3:11">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
@@ -1229,13 +1310,22 @@
       <c r="H10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:8">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.1" spans="3:11">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5">
         <v>6</v>
@@ -1248,13 +1338,21 @@
       </c>
       <c r="H11" s="5">
         <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
@@ -1262,7 +1360,6 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
@@ -1270,7 +1367,6 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
@@ -1278,7 +1374,6 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
@@ -1286,7 +1381,6 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
@@ -1294,7 +1388,6 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
@@ -1302,7 +1395,6 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
@@ -1310,7 +1402,6 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
@@ -1318,7 +1409,6 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
@@ -1326,7 +1416,6 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
@@ -1334,7 +1423,6 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
@@ -1342,7 +1430,6 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
@@ -1350,7 +1437,6 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
@@ -1358,7 +1444,6 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
@@ -1366,7 +1451,6 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
@@ -1374,7 +1458,6 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
@@ -1382,7 +1465,6 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
@@ -1390,7 +1472,6 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -43,6 +43,9 @@
     <t>攻击值倍率</t>
   </si>
   <si>
+    <t>怒气值上线</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>AttackRate</t>
+  </si>
+  <si>
+    <t>TotalAngry</t>
   </si>
   <si>
     <t>int</t>
@@ -84,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -111,6 +117,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -119,21 +208,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -141,115 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,25 +276,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,43 +408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,109 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +467,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,61 +533,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +556,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K32"/>
+  <dimension ref="C3:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I11"/>
+      <selection activeCell="G6" sqref="G6:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -1088,7 +1094,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1116,71 +1122,80 @@
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:11">
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="14.1" spans="3:11">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="14.1" spans="3:12">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1189,7 +1204,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
@@ -1203,13 +1218,16 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.1" spans="3:11">
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.1" spans="3:12">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -1218,7 +1236,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
@@ -1232,13 +1250,16 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" ht="14.1" spans="3:11">
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="14.1" spans="3:12">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1247,7 +1268,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
@@ -1261,13 +1282,16 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="14.1" spans="3:11">
+      <c r="L8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="14.1" spans="3:12">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -1276,7 +1300,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <v>2</v>
@@ -1290,13 +1314,16 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="14.1" spans="3:11">
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="14.1" spans="3:12">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
@@ -1305,7 +1332,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
@@ -1319,13 +1346,16 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="14.1" spans="3:11">
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="14.1" spans="3:12">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5">
         <v>6</v>
@@ -1334,7 +1364,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
@@ -1347,6 +1377,9 @@
       </c>
       <c r="K11">
         <v>1</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:8">

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -46,6 +46,9 @@
     <t>怒气值上线</t>
   </si>
   <si>
+    <t>技能列表</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>TotalAngry</t>
   </si>
   <si>
+    <t>SkillIdList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -83,6 +89,24 @@
   </si>
   <si>
     <t>无敌战士</t>
+  </si>
+  <si>
+    <t>1000001,1000007</t>
+  </si>
+  <si>
+    <t>1000002,1000008</t>
+  </si>
+  <si>
+    <t>1000003,1000009</t>
+  </si>
+  <si>
+    <t>1000004,1000010</t>
+  </si>
+  <si>
+    <t>1000005,1000011</t>
+  </si>
+  <si>
+    <t>1000006,1000012</t>
   </si>
 </sst>
 </file>
@@ -91,9 +115,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,67 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +156,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -200,16 +231,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,30 +272,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,49 +300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,133 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +513,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,7 +548,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,42 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,137 +609,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,6 +752,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:L32"/>
+  <dimension ref="C3:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -1091,10 +1118,12 @@
     <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="16.7837837837838" style="2"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:13">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1125,77 +1154,86 @@
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="14.1" spans="3:12">
+        <v>22</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="14.1" spans="3:13">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1221,13 +1259,16 @@
       <c r="L6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.1" spans="3:12">
+      <c r="M6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.1" spans="3:13">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -1253,13 +1294,16 @@
       <c r="L7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" ht="14.1" spans="3:12">
+      <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="14.1" spans="3:13">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1285,13 +1329,16 @@
       <c r="L8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" ht="14.1" spans="3:12">
+      <c r="M8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="14.1" spans="3:13">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -1317,13 +1364,16 @@
       <c r="L9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" ht="14.1" spans="3:12">
+      <c r="M9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="14.1" spans="3:13">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
@@ -1349,13 +1399,16 @@
       <c r="L10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" ht="14.1" spans="3:12">
+      <c r="M10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="14.1" spans="3:13">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5">
         <v>6</v>
@@ -1380,6 +1433,9 @@
       </c>
       <c r="L11">
         <v>10</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="3:8">

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -142,7 +142,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +200,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -164,6 +215,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -172,7 +232,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,67 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -257,28 +279,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -300,133 +300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,48 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +491,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,11 +533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,40 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <dimension ref="C3:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -1438,82 +1438,390 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+    <row r="12" ht="14.1" spans="3:13">
+      <c r="C12" s="5">
+        <v>100007</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="14.1" spans="3:13">
+      <c r="C13" s="5">
+        <v>100008</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1.2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="14.1" spans="3:13">
+      <c r="C14" s="5">
+        <v>100009</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1.2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="14.1" spans="3:13">
+      <c r="C15" s="5">
+        <v>100010</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1.2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="14.1" spans="3:13">
+      <c r="C16" s="5">
+        <v>100011</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>100</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1.2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="14.1" spans="3:13">
+      <c r="C17" s="5">
+        <v>100012</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1.2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="14.1" spans="3:13">
+      <c r="C18" s="5">
+        <v>100013</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1.2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="14.1" spans="3:13">
+      <c r="C19" s="5">
+        <v>100014</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.2</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="14.1" spans="3:13">
+      <c r="C20" s="5">
+        <v>100015</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1.2</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="14.1" spans="3:13">
+      <c r="C21" s="5">
+        <v>100016</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1.2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="14.1" spans="3:13">
+      <c r="C22" s="5">
+        <v>100017</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1.2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14897"/>
+    <workbookView windowWidth="28345" windowHeight="14297"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -61,10 +61,10 @@
     <t>HeroHP</t>
   </si>
   <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Defence</t>
+    <t>BaseAttack</t>
+  </si>
+  <si>
+    <t>BaseDefence</t>
   </si>
   <si>
     <t>AngryRate</t>
@@ -149,14 +149,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,20 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -193,39 +264,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,48 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +300,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -312,175 +420,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,30 +491,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,6 +505,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,29 +546,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,151 +582,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <dimension ref="C3:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -1242,7 +1242,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
@@ -1277,7 +1277,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
@@ -1312,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
@@ -1347,7 +1347,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="5">
         <v>2</v>
@@ -1382,7 +1382,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
@@ -1417,7 +1417,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -142,7 +142,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,9 +193,73 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,65 +271,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,52 +284,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -300,49 +300,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,55 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,73 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,22 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,30 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +556,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -597,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <dimension ref="C3:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
         <v>5</v>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5">
         <v>5</v>
@@ -1308,8 +1308,8 @@
       <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
+      <c r="F8" s="5">
+        <v>10</v>
       </c>
       <c r="G8" s="5">
         <v>5</v>
@@ -1343,8 +1343,8 @@
       <c r="E9" s="5">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
+      <c r="F9" s="5">
+        <v>10</v>
       </c>
       <c r="G9" s="5">
         <v>5</v>
@@ -1378,8 +1378,8 @@
       <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
+      <c r="F10" s="5">
+        <v>10</v>
       </c>
       <c r="G10" s="5">
         <v>5</v>
@@ -1413,8 +1413,8 @@
       <c r="E11" s="5">
         <v>6</v>
       </c>
-      <c r="F11" s="3">
-        <v>100</v>
+      <c r="F11" s="5">
+        <v>10</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
@@ -1448,8 +1448,8 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
+      <c r="F12" s="5">
+        <v>10</v>
       </c>
       <c r="G12" s="5">
         <v>5</v>
@@ -1483,8 +1483,8 @@
       <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
-        <v>100</v>
+      <c r="F13" s="5">
+        <v>10</v>
       </c>
       <c r="G13" s="5">
         <v>5</v>
@@ -1518,8 +1518,8 @@
       <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
+      <c r="F14" s="5">
+        <v>10</v>
       </c>
       <c r="G14" s="5">
         <v>5</v>
@@ -1553,8 +1553,8 @@
       <c r="E15" s="5">
         <v>6</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
+      <c r="F15" s="5">
+        <v>10</v>
       </c>
       <c r="G15" s="5">
         <v>5</v>
@@ -1588,8 +1588,8 @@
       <c r="E16" s="5">
         <v>6</v>
       </c>
-      <c r="F16" s="3">
-        <v>100</v>
+      <c r="F16" s="5">
+        <v>10</v>
       </c>
       <c r="G16" s="5">
         <v>5</v>
@@ -1623,8 +1623,8 @@
       <c r="E17" s="5">
         <v>6</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
+      <c r="F17" s="5">
+        <v>10</v>
       </c>
       <c r="G17" s="5">
         <v>5</v>
@@ -1658,8 +1658,8 @@
       <c r="E18" s="5">
         <v>6</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
+      <c r="F18" s="5">
+        <v>10</v>
       </c>
       <c r="G18" s="5">
         <v>5</v>
@@ -1693,8 +1693,8 @@
       <c r="E19" s="5">
         <v>6</v>
       </c>
-      <c r="F19" s="3">
-        <v>100</v>
+      <c r="F19" s="5">
+        <v>10</v>
       </c>
       <c r="G19" s="5">
         <v>5</v>
@@ -1728,8 +1728,8 @@
       <c r="E20" s="5">
         <v>6</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
+      <c r="F20" s="5">
+        <v>10</v>
       </c>
       <c r="G20" s="5">
         <v>5</v>
@@ -1763,8 +1763,8 @@
       <c r="E21" s="5">
         <v>6</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
+      <c r="F21" s="5">
+        <v>10</v>
       </c>
       <c r="G21" s="5">
         <v>5</v>
@@ -1798,8 +1798,8 @@
       <c r="E22" s="5">
         <v>6</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
+      <c r="F22" s="5">
+        <v>10</v>
       </c>
       <c r="G22" s="5">
         <v>5</v>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14297"/>
+    <workbookView windowWidth="28345" windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>英雄的序号</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>无敌战士</t>
   </si>
   <si>
     <t>1000001,1000007</t>
@@ -114,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -148,15 +145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +168,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,54 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -247,23 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -272,14 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,181 +303,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +521,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -539,17 +551,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,24 +583,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -597,7 +594,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1105,7 @@
   <dimension ref="C3:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -1232,8 +1229,8 @@
       <c r="C6" s="5">
         <v>100001</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
+      <c r="D6" s="5">
+        <v>100001</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1260,15 +1257,15 @@
         <v>10</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.1" spans="3:13">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
+      <c r="D7" s="5">
+        <v>100002</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -1295,15 +1292,15 @@
         <v>10</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="14.1" spans="3:13">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
+      <c r="D8" s="5">
+        <v>100003</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1330,15 +1327,15 @@
         <v>10</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="14.1" spans="3:13">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
+      <c r="D9" s="5">
+        <v>100004</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -1365,15 +1362,15 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="14.1" spans="3:13">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
+      <c r="D10" s="5">
+        <v>100005</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
@@ -1400,18 +1397,18 @@
         <v>10</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="14.1" spans="3:13">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
+      <c r="D11" s="5">
+        <v>100006</v>
       </c>
       <c r="E11" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
         <v>10</v>
@@ -1435,18 +1432,18 @@
         <v>10</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="14.1" spans="3:13">
       <c r="C12" s="5">
         <v>100007</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
+      <c r="D12" s="5">
+        <v>100007</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="5">
         <v>10</v>
@@ -1470,18 +1467,18 @@
         <v>10</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="14.1" spans="3:13">
       <c r="C13" s="5">
         <v>100008</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
+      <c r="D13" s="5">
+        <v>100008</v>
       </c>
       <c r="E13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="5">
         <v>10</v>
@@ -1505,18 +1502,18 @@
         <v>10</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="14.1" spans="3:13">
       <c r="C14" s="5">
         <v>100009</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
+      <c r="D14" s="5">
+        <v>100009</v>
       </c>
       <c r="E14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5">
         <v>10</v>
@@ -1540,18 +1537,18 @@
         <v>10</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="14.1" spans="3:13">
       <c r="C15" s="5">
         <v>100010</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
+      <c r="D15" s="5">
+        <v>100010</v>
       </c>
       <c r="E15" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5">
         <v>10</v>
@@ -1575,18 +1572,18 @@
         <v>10</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="14.1" spans="3:13">
       <c r="C16" s="5">
         <v>100011</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
+      <c r="D16" s="5">
+        <v>100011</v>
       </c>
       <c r="E16" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <v>10</v>
@@ -1610,18 +1607,18 @@
         <v>10</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="14.1" spans="3:13">
       <c r="C17" s="5">
         <v>100012</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
+      <c r="D17" s="5">
+        <v>100012</v>
       </c>
       <c r="E17" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="5">
         <v>10</v>
@@ -1645,18 +1642,18 @@
         <v>10</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="14.1" spans="3:13">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
+      <c r="D18" s="5">
+        <v>100013</v>
       </c>
       <c r="E18" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="5">
         <v>10</v>
@@ -1680,18 +1677,18 @@
         <v>10</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="14.1" spans="3:13">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
+      <c r="D19" s="5">
+        <v>100014</v>
       </c>
       <c r="E19" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5">
         <v>10</v>
@@ -1715,18 +1712,18 @@
         <v>10</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="14.1" spans="3:13">
       <c r="C20" s="5">
         <v>100015</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
+      <c r="D20" s="5">
+        <v>100015</v>
       </c>
       <c r="E20" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="5">
         <v>10</v>
@@ -1750,18 +1747,18 @@
         <v>10</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="14.1" spans="3:13">
       <c r="C21" s="5">
         <v>100016</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>24</v>
+      <c r="D21" s="5">
+        <v>100016</v>
       </c>
       <c r="E21" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
         <v>10</v>
@@ -1785,18 +1782,18 @@
         <v>10</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="14.1" spans="3:13">
       <c r="C22" s="5">
         <v>100017</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
+      <c r="D22" s="5">
+        <v>100017</v>
       </c>
       <c r="E22" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5">
         <v>10</v>
@@ -1820,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:8">

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+  <si>
+    <t>c</t>
+  </si>
   <si>
     <t>英雄的序号</t>
   </si>
@@ -49,6 +52,9 @@
     <t>技能列表</t>
   </si>
   <si>
+    <t>英雄模型</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>SkillIdList</t>
   </si>
   <si>
+    <t>HeroMode</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -91,16 +100,31 @@
     <t>1000001,1000007</t>
   </si>
   <si>
+    <t>sj001</t>
+  </si>
+  <si>
     <t>1000002,1000008</t>
   </si>
   <si>
+    <t>sj003</t>
+  </si>
+  <si>
     <t>1000003,1000009</t>
   </si>
   <si>
+    <t>sj019</t>
+  </si>
+  <si>
     <t>1000004,1000010</t>
   </si>
   <si>
+    <t>sj030</t>
+  </si>
+  <si>
     <t>1000005,1000011</t>
+  </si>
+  <si>
+    <t>sj031</t>
   </si>
   <si>
     <t>1000006,1000012</t>
@@ -111,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -139,7 +163,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +237,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -162,114 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,19 +321,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,13 +423,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,120 +483,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -466,18 +502,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +512,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,21 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,6 +550,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,7 +584,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,27 +593,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M32"/>
+  <dimension ref="C2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -1120,112 +1144,126 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13">
+    <row r="2" spans="14:14">
+      <c r="N2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14">
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13">
+        <v>11</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="14.1" spans="3:13">
+        <v>26</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="14.1" spans="3:14">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -1257,10 +1295,13 @@
         <v>10</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.1" spans="3:13">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.1" spans="3:14">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -1292,10 +1333,13 @@
         <v>10</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="14.1" spans="3:13">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="14.1" spans="3:14">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -1327,10 +1371,13 @@
         <v>10</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" ht="14.1" spans="3:13">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="14.1" spans="3:14">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -1362,10 +1409,13 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="14.1" spans="3:13">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="14.1" spans="3:14">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -1397,10 +1447,13 @@
         <v>10</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="14.1" spans="3:13">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="14.1" spans="3:14">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -1432,10 +1485,13 @@
         <v>10</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="14.1" spans="3:14">
       <c r="C12" s="5">
         <v>100007</v>
       </c>
@@ -1467,10 +1523,13 @@
         <v>10</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="14.1" spans="3:14">
       <c r="C13" s="5">
         <v>100008</v>
       </c>
@@ -1502,10 +1561,13 @@
         <v>10</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="14.1" spans="3:14">
       <c r="C14" s="5">
         <v>100009</v>
       </c>
@@ -1537,10 +1599,13 @@
         <v>10</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="14.1" spans="3:14">
       <c r="C15" s="5">
         <v>100010</v>
       </c>
@@ -1572,10 +1637,13 @@
         <v>10</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="14.1" spans="3:14">
       <c r="C16" s="5">
         <v>100011</v>
       </c>
@@ -1607,10 +1675,13 @@
         <v>10</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="14.1" spans="3:14">
       <c r="C17" s="5">
         <v>100012</v>
       </c>
@@ -1642,10 +1713,13 @@
         <v>10</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="14.1" spans="3:14">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
@@ -1677,10 +1751,13 @@
         <v>10</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="14.1" spans="3:14">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
@@ -1712,10 +1789,13 @@
         <v>10</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="14.1" spans="3:14">
       <c r="C20" s="5">
         <v>100015</v>
       </c>
@@ -1747,10 +1827,13 @@
         <v>10</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="14.1" spans="3:14">
       <c r="C21" s="5">
         <v>100016</v>
       </c>
@@ -1782,10 +1865,13 @@
         <v>10</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" ht="14.1" spans="3:13">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="14.1" spans="3:14">
       <c r="C22" s="5">
         <v>100017</v>
       </c>
@@ -1817,15 +1903,19 @@
         <v>10</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
+        <v>37</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="14.1" spans="3:14">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
+      <c r="N23"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D7915D-F0E5-4694-8480-6D5897995522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14897"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>c</t>
   </si>
@@ -100,47 +106,39 @@
     <t>1000001,1000007</t>
   </si>
   <si>
-    <t>sj001</t>
-  </si>
-  <si>
     <t>1000002,1000008</t>
   </si>
   <si>
-    <t>sj003</t>
-  </si>
-  <si>
     <t>1000003,1000009</t>
   </si>
   <si>
-    <t>sj019</t>
-  </si>
-  <si>
     <t>1000004,1000010</t>
   </si>
   <si>
-    <t>sj030</t>
-  </si>
-  <si>
     <t>1000005,1000011</t>
   </si>
   <si>
-    <t>sj031</t>
-  </si>
-  <si>
     <t>1000006,1000012</t>
+  </si>
+  <si>
+    <t>hero001</t>
+  </si>
+  <si>
+    <t>hero002</t>
+  </si>
+  <si>
+    <t>hero003</t>
+  </si>
+  <si>
+    <t>hero001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,151 +160,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,194 +187,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -514,253 +196,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,62 +218,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1120,36 +517,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N21" sqref="N21:N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
     <col min="9" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="16.7837837837838" style="2"/>
+    <col min="13" max="13" width="16.81640625" style="2"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:14">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
       <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14">
+    <row r="3" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1187,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:14">
+    <row r="4" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14.1" spans="3:14">
+    <row r="6" spans="3:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -1297,11 +694,11 @@
       <c r="M6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.1" spans="3:14">
+      <c r="N6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -1333,13 +730,13 @@
         <v>10</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="14.1" spans="3:14">
+        <v>28</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -1371,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="14.1" spans="3:14">
+        <v>29</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -1409,13 +806,13 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
         <v>33</v>
       </c>
-      <c r="N9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="14.1" spans="3:14">
+    </row>
+    <row r="10" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -1447,13 +844,13 @@
         <v>10</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" ht="14.1" spans="3:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -1485,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" ht="14.1" spans="3:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="5">
         <v>100007</v>
       </c>
@@ -1523,13 +920,13 @@
         <v>10</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="14.1" spans="3:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="5">
         <v>100008</v>
       </c>
@@ -1561,13 +958,13 @@
         <v>10</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="14.1" spans="3:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="5">
         <v>100009</v>
       </c>
@@ -1599,13 +996,13 @@
         <v>10</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="14.1" spans="3:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="5">
         <v>100010</v>
       </c>
@@ -1637,13 +1034,13 @@
         <v>10</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" ht="14.1" spans="3:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="5">
         <v>100011</v>
       </c>
@@ -1675,13 +1072,13 @@
         <v>10</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" ht="14.1" spans="3:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="5">
         <v>100012</v>
       </c>
@@ -1713,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="14.1" spans="3:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
@@ -1751,13 +1148,13 @@
         <v>10</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="14.1" spans="3:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
@@ -1789,13 +1186,13 @@
         <v>10</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="14.1" spans="3:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="5">
         <v>100015</v>
       </c>
@@ -1827,13 +1224,13 @@
         <v>10</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="14.1" spans="3:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="5">
         <v>100016</v>
       </c>
@@ -1865,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" ht="14.1" spans="3:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C22" s="5">
         <v>100017</v>
       </c>
@@ -1903,13 +1300,13 @@
         <v>10</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" ht="14.1" spans="3:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1917,63 +1314,63 @@
       <c r="H23" s="5"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="3:8">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D7915D-F0E5-4694-8480-6D5897995522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE70AA55-0DA8-4943-AC4F-C72D9C08BE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1700" yWindow="4450" windowWidth="30920" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>c</t>
   </si>
@@ -43,15 +43,9 @@
     <t>防御值</t>
   </si>
   <si>
-    <t>怒气值倍率</t>
-  </si>
-  <si>
     <t>基础暴击率</t>
   </si>
   <si>
-    <t>攻击值倍率</t>
-  </si>
-  <si>
     <t>怒气值上线</t>
   </si>
   <si>
@@ -79,15 +73,9 @@
     <t>BaseDefence</t>
   </si>
   <si>
-    <t>AngryRate</t>
-  </si>
-  <si>
     <t>CritRate</t>
   </si>
   <si>
-    <t>AttackRate</t>
-  </si>
-  <si>
     <t>TotalAngry</t>
   </si>
   <si>
@@ -103,34 +91,89 @@
     <t>string</t>
   </si>
   <si>
-    <t>1000001,1000007</t>
-  </si>
-  <si>
-    <t>1000002,1000008</t>
-  </si>
-  <si>
-    <t>1000003,1000009</t>
-  </si>
-  <si>
-    <t>1000004,1000010</t>
-  </si>
-  <si>
-    <t>1000005,1000011</t>
-  </si>
-  <si>
-    <t>1000006,1000012</t>
+    <t>hero002</t>
+  </si>
+  <si>
+    <t>hero003</t>
   </si>
   <si>
     <t>hero001</t>
-  </si>
-  <si>
-    <t>hero002</t>
-  </si>
-  <si>
-    <t>hero003</t>
-  </si>
-  <si>
-    <t>hero001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001,1000002,1000003,1000004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击值增加倍率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddAttackRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddAngryRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气值增加倍率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000005,1000006,1000007,1000008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000009,1000010,1000011,1000012</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000017,1000018,1000019,1000020</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000021,1000022,1000023,1000024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000013,1000014,1000015,1000016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双斧鹿头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法老</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅典娜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -150,6 +193,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -157,11 +201,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -526,7 +572,7 @@
   <dimension ref="C2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:N22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -536,8 +582,11 @@
     <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="16.81640625" style="2"/>
+    <col min="9" max="9" width="17.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="15.08984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="47.7265625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -566,106 +615,106 @@
         <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="3:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
-      <c r="D6" s="5">
-        <v>100001</v>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -692,18 +741,18 @@
         <v>10</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
-      <c r="D7" s="5">
-        <v>100002</v>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -730,18 +779,18 @@
         <v>10</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
-      <c r="D8" s="5">
-        <v>100003</v>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -768,18 +817,18 @@
         <v>10</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
-      <c r="D9" s="5">
-        <v>100004</v>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -806,18 +855,18 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
-      <c r="D10" s="5">
-        <v>100005</v>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
@@ -844,18 +893,18 @@
         <v>10</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
-      <c r="D11" s="5">
-        <v>100006</v>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -882,429 +931,165 @@
         <v>10</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C12" s="5">
-        <v>100007</v>
-      </c>
-      <c r="D12" s="5">
-        <v>100007</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1.2</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>33</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" s="6"/>
+      <c r="N12"/>
     </row>
     <row r="13" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C13" s="5">
-        <v>100008</v>
-      </c>
-      <c r="D13" s="5">
-        <v>100008</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1.2</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" s="6"/>
+      <c r="N13"/>
     </row>
     <row r="14" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C14" s="5">
-        <v>100009</v>
-      </c>
-      <c r="D14" s="5">
-        <v>100009</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1.2</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>35</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14" s="6"/>
+      <c r="N14"/>
     </row>
     <row r="15" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C15" s="5">
-        <v>100010</v>
-      </c>
-      <c r="D15" s="5">
-        <v>100010</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1.2</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" t="s">
-        <v>33</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" s="6"/>
+      <c r="N15"/>
     </row>
     <row r="16" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C16" s="5">
-        <v>100011</v>
-      </c>
-      <c r="D16" s="5">
-        <v>100011</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1.2</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" s="6"/>
+      <c r="N16"/>
     </row>
     <row r="17" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C17" s="5">
-        <v>100012</v>
-      </c>
-      <c r="D17" s="5">
-        <v>100012</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1.2</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" t="s">
-        <v>35</v>
-      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17" s="6"/>
+      <c r="N17"/>
     </row>
     <row r="18" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C18" s="5">
-        <v>100013</v>
-      </c>
-      <c r="D18" s="5">
-        <v>100013</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1.2</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" t="s">
-        <v>33</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" s="6"/>
+      <c r="N18"/>
     </row>
     <row r="19" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C19" s="5">
-        <v>100014</v>
-      </c>
-      <c r="D19" s="5">
-        <v>100014</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1.2</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" t="s">
-        <v>34</v>
-      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" s="6"/>
+      <c r="N19"/>
     </row>
     <row r="20" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C20" s="5">
-        <v>100015</v>
-      </c>
-      <c r="D20" s="5">
-        <v>100015</v>
-      </c>
-      <c r="E20" s="5">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1.2</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" t="s">
-        <v>35</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" s="6"/>
+      <c r="N20"/>
     </row>
     <row r="21" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C21" s="5">
-        <v>100016</v>
-      </c>
-      <c r="D21" s="5">
-        <v>100016</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1.2</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" t="s">
-        <v>33</v>
-      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" s="6"/>
+      <c r="N21"/>
     </row>
     <row r="22" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C22" s="5">
-        <v>100017</v>
-      </c>
-      <c r="D22" s="5">
-        <v>100017</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>10</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1.2</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" t="s">
-        <v>34</v>
-      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" s="6"/>
+      <c r="N22"/>
     </row>
     <row r="23" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE70AA55-0DA8-4943-AC4F-C72D9C08BE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65180CE-69DD-49DF-8559-C24BE6176E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1700" yWindow="4450" windowWidth="30920" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="680" yWindow="680" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>c</t>
   </si>
@@ -174,6 +175,18 @@
   </si>
   <si>
     <t>雅典娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级增长公式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateLevelHP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:N32"/>
+  <dimension ref="C2:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -587,15 +600,17 @@
     <col min="11" max="11" width="15.08984375" style="2" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" customWidth="1"/>
     <col min="13" max="13" width="47.7265625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="14.6328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="27.81640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.35">
       <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:15" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -632,8 +647,11 @@
       <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="O3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -670,8 +688,11 @@
       <c r="N4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="O4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -708,8 +729,11 @@
       <c r="N5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="3:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="O5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -747,7 +771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -785,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -823,7 +847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -861,7 +885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -899,7 +923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -937,7 +961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -951,7 +975,7 @@
       <c r="M12" s="6"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -965,7 +989,7 @@
       <c r="M13" s="6"/>
       <c r="N13"/>
     </row>
-    <row r="14" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -979,7 +1003,7 @@
       <c r="M14" s="6"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -993,7 +1017,7 @@
       <c r="M15" s="6"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65180CE-69DD-49DF-8559-C24BE6176E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5118C-477D-4DE3-997C-54C5520F65B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="680" yWindow="680" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>c</t>
   </si>
@@ -187,6 +186,14 @@
   </si>
   <si>
     <t>UpdateLevelHP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroQuality</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:O32"/>
+  <dimension ref="C2:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -605,12 +612,12 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.35">
       <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:15" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -650,8 +657,11 @@
       <c r="O3" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="3:15" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="P3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -691,8 +701,11 @@
       <c r="O4" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="3:15" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="P4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -732,8 +745,11 @@
       <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="3:15" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="P5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -771,7 +787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:15" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -809,7 +825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -847,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -885,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -923,7 +939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -961,7 +977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -975,7 +991,7 @@
       <c r="M12" s="6"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -989,7 +1005,7 @@
       <c r="M13" s="6"/>
       <c r="N13"/>
     </row>
-    <row r="14" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1003,7 +1019,7 @@
       <c r="M14" s="6"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1017,7 +1033,7 @@
       <c r="M15" s="6"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5118C-477D-4DE3-997C-54C5520F65B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB8ED9C-FA17-4312-BDB1-62E01AD60C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>c</t>
   </si>
@@ -194,6 +204,44 @@
   </si>
   <si>
     <t>HeroQuality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroIconImage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_icon_hero001</t>
+  </si>
+  <si>
+    <t>hero_icon_hero002</t>
+  </si>
+  <si>
+    <t>hero_icon_hero003</t>
+  </si>
+  <si>
+    <t>hero_icon_hero005</t>
+  </si>
+  <si>
+    <t>hero_icon_hero006</t>
+  </si>
+  <si>
+    <t>hero_icon_hero007</t>
+  </si>
+  <si>
+    <t>英雄头像框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroIconFrameImage</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +333,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:P32"/>
+  <dimension ref="C2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -606,18 +660,24 @@
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="15.08984375" style="2" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="47.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.6328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="27.81640625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="13.26953125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="33.08984375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.81640625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.35">
       <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:16" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="Q2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="3:18" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -660,8 +720,14 @@
       <c r="P3" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="3:16" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="Q3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -704,8 +770,14 @@
       <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="3:16" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="Q4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -748,8 +820,14 @@
       <c r="P5" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="3:16" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -786,8 +864,12 @@
       <c r="N6" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="3:16" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="Q6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="3:18" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -824,8 +906,12 @@
       <c r="N7" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="3:18" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -862,8 +948,12 @@
       <c r="N8" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="3:18" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -900,8 +990,12 @@
       <c r="N9" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="3:18" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -938,8 +1032,12 @@
       <c r="N10" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="3:18" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -976,8 +1074,12 @@
       <c r="N11" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="3:18" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -991,7 +1093,7 @@
       <c r="M12" s="6"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:18" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1005,7 +1107,7 @@
       <c r="M13" s="6"/>
       <c r="N13"/>
     </row>
-    <row r="14" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:18" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1019,7 +1121,7 @@
       <c r="M14" s="6"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:18" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1033,7 +1135,7 @@
       <c r="M15" s="6"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="3:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:18" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB8ED9C-FA17-4312-BDB1-62E01AD60C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B495D7B-8834-485C-82F3-8CEAC2A0387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>c</t>
   </si>
@@ -242,6 +243,59 @@
   </si>
   <si>
     <t>HeroIconFrameImage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅典娜材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双斧鹿头材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法老材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#英雄材料类型1英雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2材料</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +341,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +371,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -311,10 +386,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,9 +417,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -643,15 +735,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:R32"/>
+  <dimension ref="A2:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
@@ -669,7 +761,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="3:18" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -726,8 +818,11 @@
       <c r="R3" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="3:18" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="S3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -776,8 +871,11 @@
       <c r="R4" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="3:18" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="S4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -826,8 +924,14 @@
       <c r="R5" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -868,8 +972,11 @@
         <v>53</v>
       </c>
       <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="3:18" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -910,8 +1017,11 @@
         <v>54</v>
       </c>
       <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="3:18" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -952,8 +1062,11 @@
         <v>55</v>
       </c>
       <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="3:18" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -994,8 +1107,11 @@
         <v>56</v>
       </c>
       <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="3:18" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -1036,8 +1152,11 @@
         <v>57</v>
       </c>
       <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="3:18" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -1078,92 +1197,293 @@
         <v>58</v>
       </c>
       <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="3:18" ht="15" x14ac:dyDescent="0.35">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12" s="6"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="3:18" ht="15" x14ac:dyDescent="0.35">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13" s="6"/>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="3:18" ht="15" x14ac:dyDescent="0.35">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14" s="6"/>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="3:18" ht="15" x14ac:dyDescent="0.35">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15" s="6"/>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="3:18" ht="15" x14ac:dyDescent="0.35">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16" s="6"/>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="3:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17" s="6"/>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="C12" s="10">
+        <v>100007</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11">
+        <v>10</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="C13" s="10">
+        <v>100008</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11">
+        <v>10</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="13"/>
+      <c r="S13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="C14" s="10">
+        <v>100009</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>10</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="C15" s="10">
+        <v>100010</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>10</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="13"/>
+      <c r="S15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="C16" s="10">
+        <v>100011</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4</v>
+      </c>
+      <c r="F16" s="10">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11">
+        <v>10</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="C17" s="10">
+        <v>100012</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>5</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1177,7 +1497,7 @@
       <c r="M18" s="6"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1191,7 +1511,7 @@
       <c r="M19" s="6"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1205,7 +1525,7 @@
       <c r="M20" s="6"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1219,7 +1539,7 @@
       <c r="M21" s="6"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1233,7 +1553,7 @@
       <c r="M22" s="6"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1241,57 +1561,57 @@
       <c r="H23" s="5"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B495D7B-8834-485C-82F3-8CEAC2A0387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA4490-5C63-490D-BA80-C64F228F8602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -737,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -755,7 +754,7 @@
     <col min="13" max="13" width="14.54296875" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.6328125" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.26953125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2"/>
+    <col min="16" max="16" width="34.7265625" style="2" customWidth="1"/>
     <col min="17" max="17" width="33.08984375" style="2" customWidth="1"/>
     <col min="18" max="18" width="26.81640625" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
@@ -916,7 +915,7 @@
         <v>46</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>46</v>
@@ -968,6 +967,9 @@
       <c r="N6" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
       <c r="Q6" s="8" t="s">
         <v>53</v>
       </c>
@@ -1013,6 +1015,9 @@
       <c r="N7" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
       <c r="Q7" s="8" t="s">
         <v>54</v>
       </c>
@@ -1058,6 +1063,9 @@
       <c r="N8" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
       <c r="Q8" s="8" t="s">
         <v>55</v>
       </c>
@@ -1103,6 +1111,9 @@
       <c r="N9" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
       <c r="Q9" s="8" t="s">
         <v>56</v>
       </c>
@@ -1148,6 +1159,9 @@
       <c r="N10" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
       <c r="Q10" s="8" t="s">
         <v>57</v>
       </c>
@@ -1193,6 +1207,9 @@
       <c r="N11" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
       <c r="Q11" s="8" t="s">
         <v>58</v>
       </c>
@@ -1239,7 +1256,9 @@
         <v>33</v>
       </c>
       <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="P12" s="11">
+        <v>3</v>
+      </c>
       <c r="Q12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1286,7 +1305,9 @@
         <v>25</v>
       </c>
       <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="P13" s="11">
+        <v>4</v>
+      </c>
       <c r="Q13" s="13" t="s">
         <v>53</v>
       </c>
@@ -1333,7 +1354,9 @@
         <v>23</v>
       </c>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
       <c r="Q14" s="13" t="s">
         <v>54</v>
       </c>
@@ -1380,7 +1403,9 @@
         <v>24</v>
       </c>
       <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="P15" s="11">
+        <v>2</v>
+      </c>
       <c r="Q15" s="13" t="s">
         <v>55</v>
       </c>
@@ -1427,7 +1452,9 @@
         <v>26</v>
       </c>
       <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="P16" s="11">
+        <v>3</v>
+      </c>
       <c r="Q16" s="13" t="s">
         <v>56</v>
       </c>
@@ -1474,7 +1501,9 @@
         <v>27</v>
       </c>
       <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="P17" s="11">
+        <v>4</v>
+      </c>
       <c r="Q17" s="13" t="s">
         <v>57</v>
       </c>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA4490-5C63-490D-BA80-C64F228F8602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DF812-9576-4FBB-87F9-3EEA76019E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -163,27 +163,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>双斧鹿头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓箭手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法老</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>死神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>宙斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅典娜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -296,6 +276,22 @@
       <t>2材料</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提尔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月神·阿提密斯</t>
+  </si>
+  <si>
+    <t>太阳神·拉</t>
+  </si>
+  <si>
+    <t>桑纳托斯（死神）</t>
+  </si>
+  <si>
+    <t>伊登</t>
   </si>
 </sst>
 </file>
@@ -737,7 +733,7 @@
   <dimension ref="A2:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -751,7 +747,7 @@
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="15.08984375" style="2" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="35.1796875" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.6328125" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.26953125" style="2" customWidth="1"/>
     <col min="16" max="16" width="34.7265625" style="2" customWidth="1"/>
@@ -765,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
@@ -806,19 +802,19 @@
         <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
@@ -859,19 +855,19 @@
         <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="R4" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
@@ -912,30 +908,30 @@
         <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:19" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5">
         <v>100001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -971,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="2">
@@ -983,7 +979,7 @@
         <v>100002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -1019,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="2">
@@ -1031,7 +1027,7 @@
         <v>100003</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1067,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="2">
@@ -1079,7 +1075,7 @@
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -1115,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="2">
@@ -1127,7 +1123,7 @@
         <v>100005</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
@@ -1163,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="2">
@@ -1175,7 +1171,7 @@
         <v>100006</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1211,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R11" s="9"/>
       <c r="S11" s="2">
@@ -1223,7 +1219,7 @@
         <v>100007</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -1260,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="11">
@@ -1272,7 +1268,7 @@
         <v>100008</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -1309,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="R13" s="13"/>
       <c r="S13" s="11">
@@ -1321,7 +1317,7 @@
         <v>100009</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E14" s="10">
         <v>2</v>
@@ -1358,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R14" s="13"/>
       <c r="S14" s="11">
@@ -1370,7 +1366,7 @@
         <v>100010</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E15" s="10">
         <v>3</v>
@@ -1407,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="11">
@@ -1419,7 +1415,7 @@
         <v>100011</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E16" s="10">
         <v>4</v>
@@ -1456,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="11">
@@ -1468,7 +1464,7 @@
         <v>100012</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="10">
         <v>5</v>
@@ -1505,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="11">

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DF812-9576-4FBB-87F9-3EEA76019E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEC17D-99B1-4FF4-8388-E648FCF4F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,10 +288,11 @@
     <t>太阳神·拉</t>
   </si>
   <si>
+    <t>伊登</t>
+  </si>
+  <si>
     <t>桑纳托斯（死神）</t>
-  </si>
-  <si>
-    <t>伊登</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1075,7 +1076,7 @@
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -1171,7 +1172,7 @@
         <v>100006</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEC17D-99B1-4FF4-8388-E648FCF4F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F54B1-1AE0-40D6-BBB8-FF63BA111CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>c</t>
   </si>
@@ -167,15 +167,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>升级增长公式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateLevelHP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -292,6 +284,30 @@
   </si>
   <si>
     <t>桑纳托斯（死神）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄血量成长系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPGrowthCoefficient</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击值成长系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackGrowthCoefficient</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御值成长系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenceGrowthCoefficient</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,9 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -731,41 +744,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S32"/>
+  <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J6" sqref="J6:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="15.08984375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="35.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="34.7265625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.08984375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26.81640625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="3" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="13.08984375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="15.08984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16" style="2" customWidth="1"/>
+    <col min="16" max="16" width="35.1796875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="34.7265625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.08984375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.81640625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N2" s="2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -776,49 +789,55 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="R3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:21" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -829,49 +848,55 @@
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:21" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -882,25 +907,25 @@
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>22</v>
@@ -909,217 +934,259 @@
         <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5">
         <v>100001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>50</v>
+      </c>
+      <c r="I6" s="5">
+        <v>100</v>
+      </c>
+      <c r="J6" s="5">
+        <v>100</v>
+      </c>
+      <c r="K6" s="5">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>1.2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1.2</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
       </c>
       <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5">
+        <v>100</v>
+      </c>
+      <c r="J7" s="5">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>1.2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>10</v>
       </c>
-      <c r="G7" s="5">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="P7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1.2</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
       </c>
       <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>50</v>
+      </c>
+      <c r="I8" s="5">
+        <v>100</v>
+      </c>
+      <c r="J8" s="5">
+        <v>100</v>
+      </c>
+      <c r="K8" s="5">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>1.2</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1.2</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
       </c>
       <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>50</v>
+      </c>
+      <c r="I9" s="5">
+        <v>100</v>
+      </c>
+      <c r="J9" s="5">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>1.2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>10</v>
       </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1.2</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>4</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="S9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -1130,520 +1197,586 @@
         <v>5</v>
       </c>
       <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>50</v>
+      </c>
+      <c r="I10" s="5">
+        <v>100</v>
+      </c>
+      <c r="J10" s="5">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>1.2</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1.2</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>50</v>
+      </c>
+      <c r="I11" s="5">
+        <v>100</v>
+      </c>
+      <c r="J11" s="5">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>1.2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="P11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1.2</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="S11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="9"/>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="10">
         <v>100007</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5">
+        <v>100</v>
+      </c>
+      <c r="J12" s="5">
+        <v>100</v>
+      </c>
+      <c r="K12" s="10">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
-        <v>5</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="P12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="11">
+        <v>3</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="11">
         <v>2</v>
       </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>10</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="10">
         <v>100008</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5">
+        <v>100</v>
+      </c>
+      <c r="K13" s="10">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="O13" s="11">
         <v>10</v>
       </c>
-      <c r="G13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="P13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="11">
+        <v>4</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="11">
         <v>2</v>
       </c>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="K13" s="11">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11">
-        <v>10</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="10">
         <v>100009</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5">
+        <v>100</v>
+      </c>
+      <c r="J14" s="5">
+        <v>100</v>
+      </c>
+      <c r="K14" s="10">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11">
         <v>10</v>
       </c>
-      <c r="G14" s="10">
-        <v>5</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="P14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="U14" s="11">
         <v>2</v>
       </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1</v>
-      </c>
-      <c r="L14" s="11">
-        <v>10</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="10">
         <v>100010</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="5">
+        <v>100</v>
+      </c>
+      <c r="J15" s="5">
+        <v>100</v>
+      </c>
+      <c r="K15" s="10">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11">
         <v>10</v>
       </c>
-      <c r="G15" s="10">
-        <v>5</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="P15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="11">
         <v>2</v>
       </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1</v>
-      </c>
-      <c r="L15" s="11">
-        <v>10</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11">
+      <c r="S15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="11">
         <v>2</v>
       </c>
-      <c r="Q15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="10">
         <v>100011</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="10">
         <v>4</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="5">
+        <v>100</v>
+      </c>
+      <c r="J16" s="5">
+        <v>100</v>
+      </c>
+      <c r="K16" s="10">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="11">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="P16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="11">
+        <v>3</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="11">
         <v>2</v>
       </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="L16" s="11">
-        <v>10</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="3:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="10">
         <v>100012</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="10">
         <v>5</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="5">
+        <v>100</v>
+      </c>
+      <c r="J17" s="5">
+        <v>100</v>
+      </c>
+      <c r="K17" s="10">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N17" s="11">
+        <v>1</v>
+      </c>
+      <c r="O17" s="11">
         <v>10</v>
       </c>
-      <c r="G17" s="10">
-        <v>5</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="P17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="11">
+        <v>4</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="11">
         <v>2</v>
       </c>
-      <c r="I17" s="11">
-        <v>1</v>
-      </c>
-      <c r="J17" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="K17" s="11">
-        <v>1</v>
-      </c>
-      <c r="L17" s="11">
-        <v>10</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="3:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18"/>
-      <c r="M18" s="6"/>
+      <c r="M18"/>
       <c r="N18"/>
-    </row>
-    <row r="19" spans="3:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="O18"/>
+      <c r="P18" s="6"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="3:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19"/>
-      <c r="M19" s="6"/>
+      <c r="M19"/>
       <c r="N19"/>
-    </row>
-    <row r="20" spans="3:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="O19"/>
+      <c r="P19" s="6"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="3:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20"/>
-      <c r="M20" s="6"/>
+      <c r="M20"/>
       <c r="N20"/>
-    </row>
-    <row r="21" spans="3:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="O20"/>
+      <c r="P20" s="6"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="3:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21"/>
-      <c r="M21" s="6"/>
+      <c r="M21"/>
       <c r="N21"/>
-    </row>
-    <row r="22" spans="3:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="O21"/>
+      <c r="P21" s="6"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="3:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22"/>
-      <c r="M22" s="6"/>
+      <c r="M22"/>
       <c r="N22"/>
-    </row>
-    <row r="23" spans="3:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="O22"/>
+      <c r="P22" s="6"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="3:21" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F54B1-1AE0-40D6-BBB8-FF63BA111CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323686A-1DEE-40F1-B88E-8AF82DAA038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>c</t>
   </si>
@@ -308,6 +308,14 @@
   </si>
   <si>
     <t>DefenceGrowthCoefficient</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DomineeringValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础霸气值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -744,41 +752,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="12.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="13.08984375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="15.08984375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="16" width="35.1796875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="34.7265625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="33.08984375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="26.81640625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="3" max="8" width="12.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="13.08984375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.54296875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="15.08984375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16" style="2" customWidth="1"/>
+    <col min="17" max="17" width="35.1796875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="34.7265625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="33.08984375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="26.81640625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="Q2" s="2" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -789,55 +797,58 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -848,55 +859,58 @@
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -916,7 +930,7 @@
         <v>56</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>21</v>
@@ -925,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>22</v>
@@ -934,28 +948,31 @@
         <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:21" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
@@ -969,53 +986,56 @@
         <v>1</v>
       </c>
       <c r="F6" s="5">
+        <v>300</v>
+      </c>
+      <c r="G6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>50</v>
       </c>
-      <c r="I6" s="5">
-        <v>100</v>
-      </c>
       <c r="J6" s="5">
         <v>100</v>
       </c>
       <c r="K6" s="5">
         <v>100</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>100</v>
       </c>
       <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
         <v>1.2</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="U6" s="9"/>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -1026,53 +1046,56 @@
         <v>2</v>
       </c>
       <c r="F7" s="5">
+        <v>300</v>
+      </c>
+      <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>50</v>
       </c>
-      <c r="I7" s="5">
-        <v>100</v>
-      </c>
       <c r="J7" s="5">
         <v>100</v>
       </c>
       <c r="K7" s="5">
         <v>100</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>100</v>
       </c>
       <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
         <v>1.2</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>10</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="U7" s="9"/>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -1083,53 +1106,56 @@
         <v>3</v>
       </c>
       <c r="F8" s="5">
+        <v>300</v>
+      </c>
+      <c r="G8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>50</v>
       </c>
-      <c r="I8" s="5">
-        <v>100</v>
-      </c>
       <c r="J8" s="5">
         <v>100</v>
       </c>
       <c r="K8" s="5">
         <v>100</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>100</v>
       </c>
       <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
         <v>1.2</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>10</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>3</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="T8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="U8" s="9"/>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -1140,53 +1166,56 @@
         <v>4</v>
       </c>
       <c r="F9" s="5">
+        <v>300</v>
+      </c>
+      <c r="G9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>50</v>
       </c>
-      <c r="I9" s="5">
-        <v>100</v>
-      </c>
       <c r="J9" s="5">
         <v>100</v>
       </c>
       <c r="K9" s="5">
         <v>100</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>100</v>
       </c>
       <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
         <v>1.2</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>10</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="T9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="U9" s="9"/>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -1197,53 +1226,56 @@
         <v>5</v>
       </c>
       <c r="F10" s="5">
+        <v>300</v>
+      </c>
+      <c r="G10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>50</v>
       </c>
-      <c r="I10" s="5">
-        <v>100</v>
-      </c>
       <c r="J10" s="5">
         <v>100</v>
       </c>
       <c r="K10" s="5">
         <v>100</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>100</v>
       </c>
       <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
         <v>1.2</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>10</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="U10" s="9"/>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -1254,53 +1286,56 @@
         <v>1</v>
       </c>
       <c r="F11" s="5">
+        <v>300</v>
+      </c>
+      <c r="G11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>50</v>
       </c>
-      <c r="I11" s="5">
-        <v>100</v>
-      </c>
       <c r="J11" s="5">
         <v>100</v>
       </c>
       <c r="K11" s="5">
         <v>100</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>100</v>
       </c>
       <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
         <v>1.2</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
       <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>10</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="U11" s="9"/>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="10">
         <v>100007</v>
       </c>
@@ -1313,45 +1348,46 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="5">
-        <v>100</v>
-      </c>
+      <c r="I12" s="10"/>
       <c r="J12" s="5">
         <v>100</v>
       </c>
-      <c r="K12" s="10">
-        <v>100</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12" s="11">
+      <c r="K12" s="5">
+        <v>100</v>
+      </c>
+      <c r="L12" s="10">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12" s="11">
         <v>1.2</v>
       </c>
-      <c r="N12" s="11">
-        <v>1</v>
-      </c>
       <c r="O12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
         <v>10</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="R12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="11">
+      <c r="S12" s="11">
         <v>3</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="T12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="11">
+      <c r="U12" s="13"/>
+      <c r="V12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="10">
         <v>100008</v>
       </c>
@@ -1364,45 +1400,46 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="5">
-        <v>100</v>
-      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="5">
         <v>100</v>
       </c>
-      <c r="K13" s="10">
-        <v>100</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="K13" s="5">
+        <v>100</v>
+      </c>
+      <c r="L13" s="10">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13" s="11">
         <v>1.2</v>
       </c>
-      <c r="N13" s="11">
-        <v>1</v>
-      </c>
       <c r="O13" s="11">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
         <v>10</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="R13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="11">
+      <c r="S13" s="11">
         <v>4</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="T13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="11">
+      <c r="U13" s="13"/>
+      <c r="V13" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="10">
         <v>100009</v>
       </c>
@@ -1415,45 +1452,46 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="5">
-        <v>100</v>
-      </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="5">
         <v>100</v>
       </c>
-      <c r="K14" s="10">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>100</v>
-      </c>
-      <c r="M14" s="11">
+      <c r="K14" s="5">
+        <v>100</v>
+      </c>
+      <c r="L14" s="10">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14" s="11">
         <v>1.2</v>
       </c>
-      <c r="N14" s="11">
-        <v>1</v>
-      </c>
       <c r="O14" s="11">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
         <v>10</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="11">
-        <v>1</v>
-      </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="11">
+      <c r="U14" s="13"/>
+      <c r="V14" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="10">
         <v>100010</v>
       </c>
@@ -1466,45 +1504,46 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="5">
-        <v>100</v>
-      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="5">
         <v>100</v>
       </c>
-      <c r="K15" s="10">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15" s="11">
+      <c r="K15" s="5">
+        <v>100</v>
+      </c>
+      <c r="L15" s="10">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15" s="11">
         <v>1.2</v>
       </c>
-      <c r="N15" s="11">
-        <v>1</v>
-      </c>
       <c r="O15" s="11">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
         <v>10</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="R15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <v>2</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="T15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="11">
+      <c r="U15" s="13"/>
+      <c r="V15" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="10">
         <v>100011</v>
       </c>
@@ -1517,45 +1556,46 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="5">
-        <v>100</v>
-      </c>
+      <c r="I16" s="10"/>
       <c r="J16" s="5">
         <v>100</v>
       </c>
-      <c r="K16" s="10">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16" s="11">
+      <c r="K16" s="5">
+        <v>100</v>
+      </c>
+      <c r="L16" s="10">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16" s="11">
         <v>1.2</v>
       </c>
-      <c r="N16" s="11">
-        <v>1</v>
-      </c>
       <c r="O16" s="11">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
         <v>10</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="11">
+      <c r="S16" s="11">
         <v>3</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="T16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="11">
+      <c r="U16" s="13"/>
+      <c r="V16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:21" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="10">
         <v>100012</v>
       </c>
@@ -1568,45 +1608,46 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="5">
-        <v>100</v>
-      </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="5">
         <v>100</v>
       </c>
-      <c r="K17" s="10">
-        <v>100</v>
-      </c>
-      <c r="L17">
-        <v>100</v>
-      </c>
-      <c r="M17" s="11">
+      <c r="K17" s="5">
+        <v>100</v>
+      </c>
+      <c r="L17" s="10">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17" s="11">
         <v>1.2</v>
       </c>
-      <c r="N17" s="11">
-        <v>1</v>
-      </c>
       <c r="O17" s="11">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
         <v>10</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="R17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="11">
+      <c r="S17" s="11">
         <v>4</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="T17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="11">
+      <c r="U17" s="13"/>
+      <c r="V17" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:21" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1616,14 +1657,15 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18"/>
+      <c r="L18" s="5"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18" s="6"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="3:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="P18"/>
+      <c r="Q18" s="6"/>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="3:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1633,14 +1675,15 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19"/>
+      <c r="L19" s="5"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19" s="6"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="3:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="P19"/>
+      <c r="Q19" s="6"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="3:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1650,14 +1693,15 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20"/>
+      <c r="L20" s="5"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20" s="6"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="3:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="P20"/>
+      <c r="Q20" s="6"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="3:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1667,14 +1711,15 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21"/>
+      <c r="L21" s="5"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="6"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="3:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="P21"/>
+      <c r="Q21" s="6"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="3:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1684,93 +1729,101 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22"/>
+      <c r="L22" s="5"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
-      <c r="P22" s="6"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="3:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="P22"/>
+      <c r="Q22" s="6"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="3:22" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L23" s="5"/>
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323686A-1DEE-40F1-B88E-8AF82DAA038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BAE5CA-F94C-4D49-995A-BE30B9E32AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>c</t>
   </si>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>基础霸气值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大阶数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -752,41 +760,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:V32"/>
+  <dimension ref="A2:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="12.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="13.08984375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.54296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="15.08984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16" style="2" customWidth="1"/>
-    <col min="17" max="17" width="35.1796875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.6328125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="34.7265625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="33.08984375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="26.81640625" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="3" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="13.08984375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="15.08984375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16" style="2" customWidth="1"/>
+    <col min="18" max="18" width="35.1796875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="34.7265625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="33.08984375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="26.81640625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="R2" s="2" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -794,61 +802,64 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -856,61 +867,64 @@
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -918,10 +932,10 @@
         <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>56</v>
@@ -933,7 +947,7 @@
         <v>56</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>21</v>
@@ -942,7 +956,7 @@
         <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>22</v>
@@ -951,28 +965,31 @@
         <v>22</v>
       </c>
       <c r="P5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="S5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:22" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
@@ -983,59 +1000,62 @@
         <v>64</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <v>300</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>50</v>
       </c>
-      <c r="J6" s="5">
-        <v>100</v>
-      </c>
       <c r="K6" s="5">
         <v>100</v>
       </c>
       <c r="L6" s="5">
         <v>100</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>100</v>
       </c>
       <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
         <v>1.2</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
       <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="V6" s="9"/>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -1043,59 +1063,62 @@
         <v>65</v>
       </c>
       <c r="E7" s="5">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>300</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>50</v>
       </c>
-      <c r="J7" s="5">
-        <v>100</v>
-      </c>
       <c r="K7" s="5">
         <v>100</v>
       </c>
       <c r="L7" s="5">
         <v>100</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>100</v>
       </c>
       <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
         <v>1.2</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="S7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="V7" s="9"/>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -1103,59 +1126,62 @@
         <v>66</v>
       </c>
       <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>300</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>50</v>
       </c>
-      <c r="J8" s="5">
-        <v>100</v>
-      </c>
       <c r="K8" s="5">
         <v>100</v>
       </c>
       <c r="L8" s="5">
         <v>100</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>100</v>
       </c>
       <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
         <v>1.2</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="S8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="U8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="V8" s="9"/>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -1163,59 +1189,62 @@
         <v>68</v>
       </c>
       <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
         <v>4</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>300</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>50</v>
       </c>
-      <c r="J9" s="5">
-        <v>100</v>
-      </c>
       <c r="K9" s="5">
         <v>100</v>
       </c>
       <c r="L9" s="5">
         <v>100</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>100</v>
       </c>
       <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
         <v>1.2</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
       <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>10</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="S9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>4</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="U9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="V9" s="9"/>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -1223,59 +1252,62 @@
         <v>39</v>
       </c>
       <c r="E10" s="5">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>300</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>50</v>
       </c>
-      <c r="J10" s="5">
-        <v>100</v>
-      </c>
       <c r="K10" s="5">
         <v>100</v>
       </c>
       <c r="L10" s="5">
         <v>100</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>100</v>
       </c>
       <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
         <v>1.2</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
       <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>10</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="R10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="S10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="V10" s="9"/>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -1283,371 +1315,380 @@
         <v>67</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
         <v>300</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>50</v>
       </c>
-      <c r="J11" s="5">
-        <v>100</v>
-      </c>
       <c r="K11" s="5">
         <v>100</v>
       </c>
       <c r="L11" s="5">
         <v>100</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>100</v>
       </c>
       <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
         <v>1.2</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
       <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <v>10</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="S11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="U11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.35">
+      <c r="V11" s="9"/>
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="10">
         <v>100007</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="5">
-        <v>100</v>
-      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="5">
         <v>100</v>
       </c>
-      <c r="L12" s="10">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="L12" s="5">
+        <v>100</v>
+      </c>
+      <c r="M12" s="10">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12" s="11">
         <v>1.2</v>
       </c>
-      <c r="O12" s="11">
-        <v>1</v>
-      </c>
       <c r="P12" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
         <v>10</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="11">
+      <c r="T12" s="11">
         <v>3</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="U12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="11">
+      <c r="V12" s="13"/>
+      <c r="W12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="10">
         <v>100008</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="5">
-        <v>100</v>
-      </c>
+      <c r="J13" s="10"/>
       <c r="K13" s="5">
         <v>100</v>
       </c>
-      <c r="L13" s="10">
-        <v>100</v>
-      </c>
-      <c r="M13">
-        <v>100</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="L13" s="5">
+        <v>100</v>
+      </c>
+      <c r="M13" s="10">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13" s="11">
         <v>1.2</v>
       </c>
-      <c r="O13" s="11">
-        <v>1</v>
-      </c>
       <c r="P13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11">
         <v>10</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="S13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="11">
+      <c r="T13" s="11">
         <v>4</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="U13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="11">
+      <c r="V13" s="13"/>
+      <c r="W13" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="10">
         <v>100009</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="5">
-        <v>100</v>
-      </c>
+      <c r="J14" s="10"/>
       <c r="K14" s="5">
         <v>100</v>
       </c>
-      <c r="L14" s="10">
-        <v>100</v>
-      </c>
-      <c r="M14">
-        <v>100</v>
-      </c>
-      <c r="N14" s="11">
+      <c r="L14" s="5">
+        <v>100</v>
+      </c>
+      <c r="M14" s="10">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14" s="11">
         <v>1.2</v>
       </c>
-      <c r="O14" s="11">
-        <v>1</v>
-      </c>
       <c r="P14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
         <v>10</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="R14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="11">
-        <v>1</v>
-      </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="11">
+      <c r="V14" s="13"/>
+      <c r="W14" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="10">
         <v>100010</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="5">
-        <v>100</v>
-      </c>
+      <c r="J15" s="10"/>
       <c r="K15" s="5">
         <v>100</v>
       </c>
-      <c r="L15" s="10">
-        <v>100</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="L15" s="5">
+        <v>100</v>
+      </c>
+      <c r="M15" s="10">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15" s="11">
         <v>1.2</v>
       </c>
-      <c r="O15" s="11">
-        <v>1</v>
-      </c>
       <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
         <v>10</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="R15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="11">
+      <c r="T15" s="11">
         <v>2</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="U15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="11">
+      <c r="V15" s="13"/>
+      <c r="W15" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="10">
         <v>100011</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>4</v>
       </c>
-      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="5">
-        <v>100</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="5">
         <v>100</v>
       </c>
-      <c r="L16" s="10">
-        <v>100</v>
-      </c>
-      <c r="M16">
-        <v>100</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="L16" s="5">
+        <v>100</v>
+      </c>
+      <c r="M16" s="10">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16" s="11">
         <v>1.2</v>
       </c>
-      <c r="O16" s="11">
-        <v>1</v>
-      </c>
       <c r="P16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
         <v>10</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="R16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="11">
+      <c r="T16" s="11">
         <v>3</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="U16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="11">
+      <c r="V16" s="13"/>
+      <c r="W16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:22" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="10">
         <v>100012</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="5">
-        <v>100</v>
-      </c>
+      <c r="J17" s="10"/>
       <c r="K17" s="5">
         <v>100</v>
       </c>
-      <c r="L17" s="10">
-        <v>100</v>
-      </c>
-      <c r="M17">
-        <v>100</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="L17" s="5">
+        <v>100</v>
+      </c>
+      <c r="M17" s="10">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17" s="11">
         <v>1.2</v>
       </c>
-      <c r="O17" s="11">
-        <v>1</v>
-      </c>
       <c r="P17" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11">
         <v>10</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="R17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="S17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="11">
+      <c r="T17" s="11">
         <v>4</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="U17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="13"/>
-      <c r="V17" s="11">
+      <c r="V17" s="13"/>
+      <c r="W17" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:22" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1658,14 +1699,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18"/>
+      <c r="M18" s="5"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18" s="6"/>
-      <c r="R18"/>
-    </row>
-    <row r="19" spans="3:22" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q18"/>
+      <c r="R18" s="6"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1676,14 +1718,15 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19"/>
+      <c r="M19" s="5"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19" s="6"/>
-      <c r="R19"/>
-    </row>
-    <row r="20" spans="3:22" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q19"/>
+      <c r="R19" s="6"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1694,14 +1737,15 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20"/>
+      <c r="M20" s="5"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20" s="6"/>
-      <c r="R20"/>
-    </row>
-    <row r="21" spans="3:22" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q20"/>
+      <c r="R20" s="6"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1712,14 +1756,15 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21"/>
+      <c r="M21" s="5"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" s="6"/>
-      <c r="R21"/>
-    </row>
-    <row r="22" spans="3:22" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q21"/>
+      <c r="R21" s="6"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1730,14 +1775,15 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22"/>
+      <c r="M22" s="5"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22" s="6"/>
-      <c r="R22"/>
-    </row>
-    <row r="23" spans="3:22" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q22"/>
+      <c r="R22" s="6"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1745,11 +1791,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="R23"/>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="M23" s="5"/>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1757,10 +1804,11 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1768,10 +1816,11 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1779,10 +1828,11 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1790,10 +1840,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1801,10 +1852,11 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1812,20 +1864,24 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BAE5CA-F94C-4D49-995A-BE30B9E32AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B409D-0F0C-44A4-9F35-4E8F757647D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A2:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B409D-0F0C-44A4-9F35-4E8F757647D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2607EA8E-8D84-4C55-A9AF-F499B1BB109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>c</t>
   </si>
@@ -324,6 +324,17 @@
   </si>
   <si>
     <t>MaxRank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿波罗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>Apollo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +774,7 @@
   <dimension ref="A2:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1688,24 +1699,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:23" ht="15" x14ac:dyDescent="0.35">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18" s="6"/>
-      <c r="S18"/>
+    <row r="18" spans="3:23" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="C18" s="5">
+        <v>100013</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>300</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5">
+        <v>100</v>
+      </c>
+      <c r="L18" s="5">
+        <v>100</v>
+      </c>
+      <c r="M18" s="5">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <v>1.2</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2607EA8E-8D84-4C55-A9AF-F499B1BB109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E325C-BD3D-4346-907F-F5FFB856AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>c</t>
   </si>
@@ -335,6 +335,17 @@
   </si>
   <si>
     <t>Apollo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波塞冬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>Poseidon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,6 +475,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -773,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1762,24 +1776,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:23" ht="15" x14ac:dyDescent="0.35">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19" s="6"/>
-      <c r="S19"/>
+    <row r="19" spans="3:23" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="C19" s="5">
+        <v>100014</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>300</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5">
+        <v>100</v>
+      </c>
+      <c r="L19" s="5">
+        <v>100</v>
+      </c>
+      <c r="M19" s="5">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>1.2</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19" s="9"/>
+      <c r="W19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="3:23" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E325C-BD3D-4346-907F-F5FFB856AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C86C14-B5F7-47DE-9B98-69D608F4A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>c</t>
   </si>
@@ -346,6 +346,22 @@
   </si>
   <si>
     <t>Poseidon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气值初始值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitAngry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加的怒气值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundAddAngry</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W32"/>
+  <dimension ref="A2:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -801,25 +817,25 @@
     <col min="12" max="13" width="13.08984375" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.54296875" style="2" customWidth="1"/>
     <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="15.08984375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16" style="2" customWidth="1"/>
-    <col min="18" max="18" width="35.1796875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.6328125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="34.7265625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="33.08984375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="26.81640625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="16" max="18" width="15.08984375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="20" width="35.1796875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="34.7265625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="33.08984375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="26.81640625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S2" s="2" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -863,28 +879,34 @@
         <v>29</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -928,28 +950,34 @@
         <v>30</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -993,28 +1021,34 @@
         <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
@@ -1063,24 +1097,30 @@
       <c r="Q6">
         <v>10</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8" t="s">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="X6" s="9"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -1126,24 +1166,30 @@
       <c r="Q7">
         <v>10</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>2</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -1189,24 +1235,30 @@
       <c r="Q8">
         <v>10</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="U8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>3</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="X8" s="9"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -1252,24 +1304,30 @@
       <c r="Q9">
         <v>10</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>4</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="W9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="X9" s="9"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -1315,24 +1373,30 @@
       <c r="Q10">
         <v>10</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="U10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="8" t="s">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="X10" s="9"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -1378,24 +1442,30 @@
       <c r="Q11">
         <v>10</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="U11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>2</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="W11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="X11" s="9"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="10">
         <v>100007</v>
       </c>
@@ -1428,27 +1498,33 @@
       <c r="P12" s="11">
         <v>1</v>
       </c>
-      <c r="Q12" s="11">
-        <v>10</v>
-      </c>
-      <c r="R12" s="12" t="s">
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="11">
+      <c r="V12" s="11">
         <v>3</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="W12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="11">
+      <c r="X12" s="13"/>
+      <c r="Y12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="10">
         <v>100008</v>
       </c>
@@ -1481,27 +1557,33 @@
       <c r="P13" s="11">
         <v>1</v>
       </c>
-      <c r="Q13" s="11">
-        <v>10</v>
-      </c>
-      <c r="R13" s="12" t="s">
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T13" s="11">
+      <c r="V13" s="11">
         <v>4</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="W13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="11">
+      <c r="X13" s="13"/>
+      <c r="Y13" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="10">
         <v>100009</v>
       </c>
@@ -1534,27 +1616,33 @@
       <c r="P14" s="11">
         <v>1</v>
       </c>
-      <c r="Q14" s="11">
-        <v>10</v>
-      </c>
-      <c r="R14" s="12" t="s">
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T14" s="11">
-        <v>1</v>
-      </c>
-      <c r="U14" s="13" t="s">
+      <c r="V14" s="11">
+        <v>1</v>
+      </c>
+      <c r="W14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="13"/>
-      <c r="W14" s="11">
+      <c r="X14" s="13"/>
+      <c r="Y14" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="10">
         <v>100010</v>
       </c>
@@ -1587,27 +1675,33 @@
       <c r="P15" s="11">
         <v>1</v>
       </c>
-      <c r="Q15" s="11">
-        <v>10</v>
-      </c>
-      <c r="R15" s="12" t="s">
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+      <c r="T15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="11">
+      <c r="V15" s="11">
         <v>2</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="W15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="11">
+      <c r="X15" s="13"/>
+      <c r="Y15" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="10">
         <v>100011</v>
       </c>
@@ -1640,27 +1734,33 @@
       <c r="P16" s="11">
         <v>1</v>
       </c>
-      <c r="Q16" s="11">
-        <v>10</v>
-      </c>
-      <c r="R16" s="12" t="s">
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+      <c r="T16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="11">
+      <c r="V16" s="11">
         <v>3</v>
       </c>
-      <c r="U16" s="13" t="s">
+      <c r="W16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="11">
+      <c r="X16" s="13"/>
+      <c r="Y16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:23" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="10">
         <v>100012</v>
       </c>
@@ -1693,27 +1793,33 @@
       <c r="P17" s="11">
         <v>1</v>
       </c>
-      <c r="Q17" s="11">
-        <v>10</v>
-      </c>
-      <c r="R17" s="12" t="s">
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="11">
+      <c r="V17" s="11">
         <v>4</v>
       </c>
-      <c r="U17" s="13" t="s">
+      <c r="W17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="11">
+      <c r="X17" s="13"/>
+      <c r="Y17" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:23" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:25" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
@@ -1759,24 +1865,30 @@
       <c r="Q18">
         <v>10</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="U18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>2</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="W18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="X18" s="9"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
@@ -1822,24 +1934,30 @@
       <c r="Q19">
         <v>10</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="U19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="U19" s="14" t="s">
+      <c r="W19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="X19" s="9"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1855,10 +1973,12 @@
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20" s="6"/>
+      <c r="R20"/>
       <c r="S20"/>
-    </row>
-    <row r="21" spans="3:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="T20" s="6"/>
+      <c r="U20"/>
+    </row>
+    <row r="21" spans="3:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1874,10 +1994,12 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21" s="6"/>
+      <c r="R21"/>
       <c r="S21"/>
-    </row>
-    <row r="22" spans="3:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="T21" s="6"/>
+      <c r="U21"/>
+    </row>
+    <row r="22" spans="3:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1893,10 +2015,12 @@
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22" s="6"/>
+      <c r="R22"/>
       <c r="S22"/>
-    </row>
-    <row r="23" spans="3:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="T22" s="6"/>
+      <c r="U22"/>
+    </row>
+    <row r="23" spans="3:25" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1907,9 +2031,9 @@
       <c r="J23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="S23"/>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="U23"/>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1921,7 +2045,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1933,7 +2057,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1945,7 +2069,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1957,7 +2081,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1969,7 +2093,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1981,17 +2105,17 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15260"/>
+    <workbookView windowHeight="22400"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>c</t>
   </si>
@@ -281,19 +281,34 @@
     <t>Apollo</t>
   </si>
   <si>
+    <t>hero_icon_applo</t>
+  </si>
+  <si>
     <t>波塞冬</t>
   </si>
   <si>
     <t>Poseidon</t>
   </si>
   <si>
+    <t>hero_icon_poseidon</t>
+  </si>
+  <si>
     <t>哈迪斯</t>
   </si>
   <si>
     <t>Hades</t>
   </si>
   <si>
-    <t>item_001</t>
+    <t>hero_icon_hades</t>
+  </si>
+  <si>
+    <t>卡戎</t>
+  </si>
+  <si>
+    <t>Charon</t>
+  </si>
+  <si>
+    <t>hero_icon_charon</t>
   </si>
 </sst>
 </file>
@@ -301,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -343,13 +358,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -357,38 +365,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,29 +404,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -435,7 +413,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,18 +434,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,6 +479,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="6"/>
       <name val="宋体"/>
@@ -500,120 +515,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -627,54 +690,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,6 +713,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -712,45 +742,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -771,6 +766,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -785,148 +789,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1321,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A2:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2399,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="2">
@@ -2411,7 +2426,7 @@
         <v>100014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="6">
         <v>6</v>
@@ -2462,13 +2477,13 @@
         <v>71</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V19">
         <v>2</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="2">
@@ -2480,7 +2495,7 @@
         <v>100015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E20" s="6">
         <v>6</v>
@@ -2531,38 +2546,85 @@
         <v>71</v>
       </c>
       <c r="U20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V20" s="2">
         <v>2</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="3:21">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21" s="9"/>
-      <c r="U21"/>
+    <row r="21" ht="16.8" spans="3:25">
+      <c r="C21" s="6">
+        <v>100016</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="6">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>300</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>50</v>
+      </c>
+      <c r="K21" s="6">
+        <v>100</v>
+      </c>
+      <c r="L21" s="6">
+        <v>100</v>
+      </c>
+      <c r="M21" s="6">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>1.2</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s">
+        <v>90</v>
+      </c>
+      <c r="V21" s="2">
+        <v>2</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" ht="16.8" spans="3:21">
       <c r="C22" s="6"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>c</t>
   </si>
@@ -257,24 +257,6 @@
     <t>hero_icon_hero007</t>
   </si>
   <si>
-    <t>雅典娜材料</t>
-  </si>
-  <si>
-    <t>双斧鹿头材料</t>
-  </si>
-  <si>
-    <t>弓箭手材料</t>
-  </si>
-  <si>
-    <t>法老材料</t>
-  </si>
-  <si>
-    <t>死神材料</t>
-  </si>
-  <si>
-    <t>宙斯材料</t>
-  </si>
-  <si>
     <t>阿波罗</t>
   </si>
   <si>
@@ -309,6 +291,24 @@
   </si>
   <si>
     <t>hero_icon_charon</t>
+  </si>
+  <si>
+    <t>赫斯缇雅</t>
+  </si>
+  <si>
+    <t>Hestia</t>
+  </si>
+  <si>
+    <t>item_002</t>
+  </si>
+  <si>
+    <t>莱卡翁</t>
+  </si>
+  <si>
+    <t>Lykaon</t>
+  </si>
+  <si>
+    <t>item_003</t>
   </si>
 </sst>
 </file>
@@ -317,9 +317,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -344,19 +344,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -371,9 +373,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,47 +450,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,40 +481,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,31 +509,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,25 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,121 +647,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,8 +706,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +734,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,7 +772,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,190 +800,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,23 +964,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1334,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Y32"/>
+  <dimension ref="A2:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="B12" sqref="$A12:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1636,7 +1626,7 @@
       <c r="S6">
         <v>100</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="U6" s="5" t="s">
@@ -1645,10 +1635,10 @@
       <c r="V6">
         <v>1</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X6" s="12"/>
+      <c r="X6" s="9"/>
       <c r="Y6" s="2">
         <v>1</v>
       </c>
@@ -1705,7 +1695,7 @@
       <c r="S7">
         <v>100</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="U7" s="5" t="s">
@@ -1714,10 +1704,10 @@
       <c r="V7">
         <v>2</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="12"/>
+      <c r="X7" s="9"/>
       <c r="Y7" s="2">
         <v>1</v>
       </c>
@@ -1774,7 +1764,7 @@
       <c r="S8">
         <v>100</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="U8" s="5" t="s">
@@ -1783,10 +1773,10 @@
       <c r="V8">
         <v>3</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="12"/>
+      <c r="X8" s="9"/>
       <c r="Y8" s="2">
         <v>1</v>
       </c>
@@ -1843,7 +1833,7 @@
       <c r="S9">
         <v>100</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="U9" s="5" t="s">
@@ -1852,10 +1842,10 @@
       <c r="V9">
         <v>4</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="X9" s="12"/>
+      <c r="X9" s="9"/>
       <c r="Y9" s="2">
         <v>1</v>
       </c>
@@ -1912,7 +1902,7 @@
       <c r="S10">
         <v>100</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="U10" s="5" t="s">
@@ -1921,10 +1911,10 @@
       <c r="V10">
         <v>1</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="X10" s="12"/>
+      <c r="X10" s="9"/>
       <c r="Y10" s="2">
         <v>1</v>
       </c>
@@ -1981,7 +1971,7 @@
       <c r="S11">
         <v>100</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="7" t="s">
         <v>71</v>
       </c>
       <c r="U11" s="5" t="s">
@@ -1990,45 +1980,55 @@
       <c r="V11">
         <v>2</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="12"/>
+      <c r="X11" s="9"/>
       <c r="Y11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="16.8" spans="3:25">
       <c r="C12" s="6">
-        <v>100007</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>100013</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>300</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>50</v>
+      </c>
       <c r="K12" s="6">
         <v>100</v>
       </c>
       <c r="L12" s="6">
         <v>100</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>100</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12">
         <v>1.2</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12">
@@ -2040,54 +2040,64 @@
       <c r="S12">
         <v>100</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="V12" s="8">
-        <v>3</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="8">
+      <c r="U12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12">
         <v>2</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="16.8" spans="3:25">
       <c r="C13" s="6">
-        <v>100008</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+        <v>100014</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>300</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>50</v>
+      </c>
       <c r="K13" s="6">
         <v>100</v>
       </c>
       <c r="L13" s="6">
         <v>100</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>100</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13">
         <v>1.2</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
@@ -2099,54 +2109,64 @@
       <c r="S13">
         <v>100</v>
       </c>
-      <c r="T13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="8">
-        <v>4</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="8">
+      <c r="T13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V13">
         <v>2</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="16.8" spans="3:25">
       <c r="C14" s="6">
-        <v>100009</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+        <v>100015</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>300</v>
+      </c>
+      <c r="H14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>50</v>
+      </c>
       <c r="K14" s="6">
         <v>100</v>
       </c>
       <c r="L14" s="6">
         <v>100</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>100</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14">
         <v>1.2</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14">
@@ -2158,54 +2178,63 @@
       <c r="S14">
         <v>100</v>
       </c>
-      <c r="T14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="8">
-        <v>1</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="8">
+      <c r="T14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V14" s="2">
         <v>2</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.8" spans="3:25">
       <c r="C15" s="6">
-        <v>100010</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
+        <v>100016</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>300</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6">
+        <v>50</v>
+      </c>
       <c r="K15" s="6">
         <v>100</v>
       </c>
       <c r="L15" s="6">
         <v>100</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>100</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15">
         <v>1.2</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15">
@@ -2217,54 +2246,63 @@
       <c r="S15">
         <v>100</v>
       </c>
-      <c r="T15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="V15" s="8">
+      <c r="T15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" s="2">
         <v>2</v>
       </c>
-      <c r="W15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="8">
-        <v>2</v>
+      <c r="W15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="16.8" spans="3:25">
       <c r="C16" s="6">
-        <v>100011</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>4</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+        <v>100017</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>300</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>50</v>
+      </c>
       <c r="K16" s="6">
         <v>100</v>
       </c>
       <c r="L16" s="6">
         <v>100</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>100</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16">
         <v>1.2</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
@@ -2276,54 +2314,63 @@
       <c r="S16">
         <v>100</v>
       </c>
-      <c r="T16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V16" s="8">
-        <v>3</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="8">
+      <c r="T16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="2">
         <v>2</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="16.8" spans="3:25">
       <c r="C17" s="6">
-        <v>100012</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7">
+        <v>100018</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6">
         <v>5</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="G17" s="6">
+        <v>300</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>50</v>
+      </c>
       <c r="K17" s="6">
         <v>100</v>
       </c>
       <c r="L17" s="6">
         <v>100</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>100</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17">
         <v>1.2</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17">
@@ -2335,298 +2382,71 @@
       <c r="S17">
         <v>100</v>
       </c>
-      <c r="T17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="V17" s="8">
-        <v>4</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="8">
+      <c r="T17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s">
+        <v>90</v>
+      </c>
+      <c r="V17" s="2">
         <v>2</v>
       </c>
+      <c r="W17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" ht="16.8" spans="3:25">
-      <c r="C18" s="6">
-        <v>100013</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="6">
-        <v>6</v>
-      </c>
-      <c r="F18" s="6">
-        <v>5</v>
-      </c>
-      <c r="G18" s="6">
-        <v>300</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="6">
-        <v>3</v>
-      </c>
-      <c r="J18" s="6">
-        <v>50</v>
-      </c>
-      <c r="K18" s="6">
-        <v>100</v>
-      </c>
-      <c r="L18" s="6">
-        <v>100</v>
-      </c>
-      <c r="M18" s="6">
-        <v>100</v>
-      </c>
-      <c r="N18">
-        <v>100</v>
-      </c>
-      <c r="O18">
-        <v>1.2</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-      <c r="R18">
-        <v>10</v>
-      </c>
-      <c r="S18">
-        <v>100</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+    <row r="18" spans="3:13">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
-    <row r="19" ht="16.8" spans="3:25">
-      <c r="C19" s="6">
-        <v>100014</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="6">
-        <v>6</v>
-      </c>
-      <c r="F19" s="6">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6">
-        <v>300</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2</v>
-      </c>
-      <c r="I19" s="6">
-        <v>3</v>
-      </c>
-      <c r="J19" s="6">
-        <v>50</v>
-      </c>
-      <c r="K19" s="6">
-        <v>100</v>
-      </c>
-      <c r="L19" s="6">
-        <v>100</v>
-      </c>
-      <c r="M19" s="6">
-        <v>100</v>
-      </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-      <c r="O19">
-        <v>1.2</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-      <c r="R19">
-        <v>10</v>
-      </c>
-      <c r="S19">
-        <v>100</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+    <row r="19" spans="3:13">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
-    <row r="20" ht="16.8" spans="3:25">
-      <c r="C20" s="6">
-        <v>100015</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="6">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6">
-        <v>300</v>
-      </c>
-      <c r="H20" s="6">
-        <v>2</v>
-      </c>
-      <c r="I20" s="6">
-        <v>3</v>
-      </c>
-      <c r="J20" s="6">
-        <v>50</v>
-      </c>
-      <c r="K20" s="6">
-        <v>100</v>
-      </c>
-      <c r="L20" s="6">
-        <v>100</v>
-      </c>
-      <c r="M20" s="6">
-        <v>100</v>
-      </c>
-      <c r="N20">
-        <v>100</v>
-      </c>
-      <c r="O20">
-        <v>1.2</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-      <c r="R20">
-        <v>10</v>
-      </c>
-      <c r="S20">
-        <v>100</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U20" t="s">
-        <v>87</v>
-      </c>
-      <c r="V20" s="2">
-        <v>2</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+    <row r="20" spans="3:13">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
-    <row r="21" ht="16.8" spans="3:25">
-      <c r="C21" s="6">
-        <v>100016</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="6">
-        <v>6</v>
-      </c>
-      <c r="F21" s="6">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6">
-        <v>300</v>
-      </c>
-      <c r="H21" s="6">
-        <v>2</v>
-      </c>
-      <c r="I21" s="6">
-        <v>3</v>
-      </c>
-      <c r="J21" s="6">
-        <v>50</v>
-      </c>
-      <c r="K21" s="6">
-        <v>100</v>
-      </c>
-      <c r="L21" s="6">
-        <v>100</v>
-      </c>
-      <c r="M21" s="6">
-        <v>100</v>
-      </c>
-      <c r="N21">
-        <v>100</v>
-      </c>
-      <c r="O21">
-        <v>1.2</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-      <c r="R21">
-        <v>10</v>
-      </c>
-      <c r="S21">
-        <v>100</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U21" t="s">
-        <v>90</v>
-      </c>
-      <c r="V21" s="2">
-        <v>2</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+    <row r="21" spans="3:13">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
-    <row r="22" ht="16.8" spans="3:21">
+    <row r="22" spans="3:13">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2635,19 +2455,10 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22" s="9"/>
-      <c r="U22"/>
     </row>
-    <row r="23" ht="16.8" spans="3:21">
+    <row r="23" spans="3:13">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2658,94 +2469,21 @@
       <c r="J23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="U23"/>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:5">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:5">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:5">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>c</t>
   </si>
@@ -22,6 +22,12 @@
     <t>英雄的序号</t>
   </si>
   <si>
+    <t>英雄英文名</t>
+  </si>
+  <si>
+    <t>英雄头像</t>
+  </si>
+  <si>
     <t>英雄名字</t>
   </si>
   <si>
@@ -79,9 +85,6 @@
     <t>英雄品质</t>
   </si>
   <si>
-    <t>英雄头像</t>
-  </si>
-  <si>
     <t>英雄头像框</t>
   </si>
   <si>
@@ -91,6 +94,12 @@
     <t>Id</t>
   </si>
   <si>
+    <t>HeroEnName</t>
+  </si>
+  <si>
+    <t>HeroIconImage</t>
+  </si>
+  <si>
     <t>HeroName</t>
   </si>
   <si>
@@ -148,9 +157,6 @@
     <t>HeroQuality</t>
   </si>
   <si>
-    <t>HeroIconImage</t>
-  </si>
-  <si>
     <t>HeroIconFrameImage</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <r>
@@ -185,6 +194,12 @@
     </r>
   </si>
   <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>C_Hero_Tyr</t>
+  </si>
+  <si>
     <t>提尔</t>
   </si>
   <si>
@@ -194,7 +209,10 @@
     <t>hero001</t>
   </si>
   <si>
-    <t>hero_icon_hero001</t>
+    <t>Artemis</t>
+  </si>
+  <si>
+    <t>C_Hero_Artemis</t>
   </si>
   <si>
     <t>月神·阿提密斯</t>
@@ -206,7 +224,10 @@
     <t>hero002</t>
   </si>
   <si>
-    <t>hero_icon_hero002</t>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>C_Hero_Ra</t>
   </si>
   <si>
     <t>太阳神·拉</t>
@@ -218,7 +239,10 @@
     <t>hero003</t>
   </si>
   <si>
-    <t>hero_icon_hero003</t>
+    <t>Thanatos</t>
+  </si>
+  <si>
+    <t>C_Hero_Thanatos</t>
   </si>
   <si>
     <t>桑纳托斯（死神）</t>
@@ -230,7 +254,10 @@
     <t>hero005</t>
   </si>
   <si>
-    <t>hero_icon_hero005</t>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>C_Hero_Zeus</t>
   </si>
   <si>
     <t>宙斯</t>
@@ -242,7 +269,10 @@
     <t>hero006</t>
   </si>
   <si>
-    <t>hero_icon_hero006</t>
+    <t>Idun</t>
+  </si>
+  <si>
+    <t>C_Hero_Idun</t>
   </si>
   <si>
     <t>伊登</t>
@@ -254,61 +284,67 @@
     <t>hero007</t>
   </si>
   <si>
-    <t>hero_icon_hero007</t>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>C_Hero_Apollo</t>
   </si>
   <si>
     <t>阿波罗</t>
   </si>
   <si>
-    <t>Apollo</t>
-  </si>
-  <si>
-    <t>hero_icon_applo</t>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>C_Hero_Poseidon</t>
   </si>
   <si>
     <t>波塞冬</t>
   </si>
   <si>
-    <t>Poseidon</t>
-  </si>
-  <si>
-    <t>hero_icon_poseidon</t>
+    <t>Hades</t>
+  </si>
+  <si>
+    <t>C_Hero_Hades</t>
   </si>
   <si>
     <t>哈迪斯</t>
   </si>
   <si>
-    <t>Hades</t>
-  </si>
-  <si>
-    <t>hero_icon_hades</t>
+    <t>Charon</t>
+  </si>
+  <si>
+    <t>C_Hero_Charon</t>
   </si>
   <si>
     <t>卡戎</t>
   </si>
   <si>
-    <t>Charon</t>
-  </si>
-  <si>
-    <t>hero_icon_charon</t>
+    <t>Hestia</t>
+  </si>
+  <si>
+    <t>C_Hero_Hestia</t>
   </si>
   <si>
     <t>赫斯缇雅</t>
   </si>
   <si>
-    <t>Hestia</t>
-  </si>
-  <si>
-    <t>item_002</t>
+    <t>Lykaon</t>
+  </si>
+  <si>
+    <t>C_Hero_Lykaon</t>
   </si>
   <si>
     <t>莱卡翁</t>
   </si>
   <si>
-    <t>Lykaon</t>
-  </si>
-  <si>
-    <t>item_003</t>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>C_Hero_Athena</t>
+  </si>
+  <si>
+    <t>雅典娜</t>
   </si>
 </sst>
 </file>
@@ -316,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -350,6 +386,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -366,10 +409,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,40 +441,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,36 +452,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,7 +471,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,6 +501,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="6"/>
       <name val="宋体"/>
@@ -515,13 +551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,13 +635,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,121 +713,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,17 +743,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -738,17 +763,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,24 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -800,151 +812,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,16 +1000,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1324,41 +1360,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Y26"/>
+  <dimension ref="A2:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="$A12:$XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="28.6346153846154" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
-    <col min="3" max="9" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.7307692307692" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.3653846153846" style="3" customWidth="1"/>
-    <col min="12" max="13" width="13.0865384615385" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.5384615384615" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="18" width="15.0865384615385" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16" style="2" customWidth="1"/>
-    <col min="20" max="20" width="35.1826923076923" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.6346153846154" style="2" customWidth="1"/>
-    <col min="22" max="22" width="34.7307692307692" style="2" customWidth="1"/>
-    <col min="23" max="23" width="33.0865384615385" style="2" customWidth="1"/>
-    <col min="24" max="24" width="26.8173076923077" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.0865384615385" style="2" customWidth="1"/>
+    <col min="6" max="11" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.7307692307692" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="14" max="15" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.5384615384615" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="20" width="15.0865384615385" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16" style="2" customWidth="1"/>
+    <col min="22" max="22" width="35.1826923076923" style="2" customWidth="1"/>
+    <col min="23" max="23" width="14.6346153846154" style="2" customWidth="1"/>
+    <col min="24" max="24" width="34.7307692307692" style="2" customWidth="1"/>
+    <col min="25" max="25" width="26.8173076923077" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="21:23">
-      <c r="U2" s="2" t="s">
+    <row r="2" spans="5:23">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:25">
+    <row r="3" spans="3:26">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1428,1062 +1465,1174 @@
       <c r="Y3" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="Z3" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="3:25">
+    <row r="4" spans="3:26">
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="3:25">
+    <row r="5" spans="3:26">
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="17" spans="1:25">
+    <row r="6" customFormat="1" ht="17" spans="1:26">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6">
         <v>100001</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>300</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="6">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>300</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>50</v>
-      </c>
-      <c r="K6" s="6">
-        <v>100</v>
-      </c>
-      <c r="L6" s="6">
-        <v>100</v>
-      </c>
       <c r="M6" s="6">
         <v>100</v>
       </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="6">
+        <v>100</v>
+      </c>
+      <c r="O6" s="6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
         <v>1.2</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>10</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>10</v>
       </c>
-      <c r="S6">
-        <v>100</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="2">
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:25">
+    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
       <c r="C7" s="6">
         <v>100002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6">
+        <v>58</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="6">
         <v>6</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>300</v>
       </c>
       <c r="H7" s="6">
         <v>2</v>
       </c>
       <c r="I7" s="6">
+        <v>300</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="L7" s="6">
         <v>50</v>
       </c>
-      <c r="K7" s="6">
-        <v>100</v>
-      </c>
-      <c r="L7" s="6">
-        <v>100</v>
-      </c>
       <c r="M7" s="6">
         <v>100</v>
       </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="6">
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
         <v>1.2</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>10</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>10</v>
       </c>
-      <c r="S7">
-        <v>100</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V7">
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7">
         <v>2</v>
       </c>
-      <c r="W7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="2">
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="3:25">
+    <row r="8" ht="16.8" spans="3:26">
       <c r="C8" s="6">
         <v>100003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="6">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="I8" s="6">
         <v>300</v>
       </c>
-      <c r="H8" s="6">
+      <c r="J8" s="6">
         <v>2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="K8" s="6">
         <v>3</v>
       </c>
-      <c r="J8" s="6">
+      <c r="L8" s="6">
         <v>50</v>
       </c>
-      <c r="K8" s="6">
-        <v>100</v>
-      </c>
-      <c r="L8" s="6">
-        <v>100</v>
-      </c>
       <c r="M8" s="6">
         <v>100</v>
       </c>
-      <c r="N8">
-        <v>100</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="6">
+        <v>100</v>
+      </c>
+      <c r="O8" s="6">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
         <v>1.2</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>10</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>10</v>
       </c>
-      <c r="S8">
-        <v>100</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V8">
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="W8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="2">
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="16.8" spans="3:25">
+    <row r="9" ht="16.8" spans="3:26">
       <c r="C9" s="6">
         <v>100004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="6">
+        <v>68</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6">
         <v>6</v>
       </c>
-      <c r="F9" s="6">
+      <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="I9" s="6">
         <v>300</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="K9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="6">
+      <c r="L9" s="6">
         <v>50</v>
       </c>
-      <c r="K9" s="6">
-        <v>100</v>
-      </c>
-      <c r="L9" s="6">
-        <v>100</v>
-      </c>
       <c r="M9" s="6">
         <v>100</v>
       </c>
-      <c r="N9">
-        <v>100</v>
-      </c>
-      <c r="O9">
+      <c r="N9" s="6">
+        <v>100</v>
+      </c>
+      <c r="O9" s="6">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
         <v>1.2</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>10</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>10</v>
       </c>
-      <c r="S9">
-        <v>100</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9">
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9">
         <v>4</v>
       </c>
-      <c r="W9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="2">
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="3:25">
+    <row r="10" ht="16.8" spans="3:26">
       <c r="C10" s="6">
         <v>100005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="6">
+        <v>73</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="6">
         <v>6</v>
       </c>
-      <c r="F10" s="6">
+      <c r="H10" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="I10" s="6">
         <v>300</v>
       </c>
-      <c r="H10" s="6">
+      <c r="J10" s="6">
         <v>2</v>
       </c>
-      <c r="I10" s="6">
+      <c r="K10" s="6">
         <v>3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="L10" s="6">
         <v>50</v>
       </c>
-      <c r="K10" s="6">
-        <v>100</v>
-      </c>
-      <c r="L10" s="6">
-        <v>100</v>
-      </c>
       <c r="M10" s="6">
         <v>100</v>
       </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="6">
+        <v>100</v>
+      </c>
+      <c r="O10" s="6">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
         <v>1.2</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>10</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>10</v>
       </c>
-      <c r="S10">
-        <v>100</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="2">
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="16.8" spans="3:25">
+    <row r="11" ht="16.8" spans="3:26">
       <c r="C11" s="6">
         <v>100006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="6">
+        <v>78</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="6">
         <v>6</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
         <v>300</v>
       </c>
-      <c r="H11" s="6">
+      <c r="J11" s="6">
         <v>2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="K11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="6">
+      <c r="L11" s="6">
         <v>50</v>
       </c>
-      <c r="K11" s="6">
-        <v>100</v>
-      </c>
-      <c r="L11" s="6">
-        <v>100</v>
-      </c>
       <c r="M11" s="6">
         <v>100</v>
       </c>
-      <c r="N11">
-        <v>100</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="6">
+        <v>100</v>
+      </c>
+      <c r="O11" s="6">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
         <v>1.2</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <v>10</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>10</v>
       </c>
-      <c r="S11">
-        <v>100</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V11">
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X11">
         <v>2</v>
       </c>
-      <c r="W11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="2">
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="3:25">
+    <row r="12" ht="16.8" spans="3:26">
       <c r="C12" s="6">
         <v>100013</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="6">
+        <v>83</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="6">
         <v>6</v>
       </c>
-      <c r="F12" s="6">
+      <c r="H12" s="6">
         <v>5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="I12" s="6">
         <v>300</v>
       </c>
-      <c r="H12" s="6">
+      <c r="J12" s="6">
         <v>2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="K12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="6">
+      <c r="L12" s="6">
         <v>50</v>
       </c>
-      <c r="K12" s="6">
-        <v>100</v>
-      </c>
-      <c r="L12" s="6">
-        <v>100</v>
-      </c>
       <c r="M12" s="6">
         <v>100</v>
       </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-      <c r="O12">
+      <c r="N12" s="6">
+        <v>100</v>
+      </c>
+      <c r="O12" s="6">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
         <v>1.2</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <v>10</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>10</v>
       </c>
-      <c r="S12">
-        <v>100</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12">
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12">
         <v>2</v>
       </c>
-      <c r="W12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="2">
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="16.8" spans="3:25">
+    <row r="13" ht="16.8" spans="3:26">
       <c r="C13" s="6">
         <v>100014</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6">
+        <v>86</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="6">
         <v>6</v>
       </c>
-      <c r="F13" s="6">
+      <c r="H13" s="6">
         <v>5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="I13" s="6">
         <v>300</v>
       </c>
-      <c r="H13" s="6">
+      <c r="J13" s="6">
         <v>2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="K13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="L13" s="6">
         <v>50</v>
       </c>
-      <c r="K13" s="6">
-        <v>100</v>
-      </c>
-      <c r="L13" s="6">
-        <v>100</v>
-      </c>
       <c r="M13" s="6">
         <v>100</v>
       </c>
-      <c r="N13">
-        <v>100</v>
-      </c>
-      <c r="O13">
+      <c r="N13" s="6">
+        <v>100</v>
+      </c>
+      <c r="O13" s="6">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
         <v>1.2</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>10</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>10</v>
       </c>
-      <c r="S13">
-        <v>100</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="V13">
+      <c r="U13">
+        <v>100</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13">
         <v>2</v>
       </c>
-      <c r="W13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="2">
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="16.8" spans="3:25">
+    <row r="14" ht="16.8" spans="3:26">
       <c r="C14" s="6">
         <v>100015</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="6">
+        <v>89</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="6">
         <v>6</v>
       </c>
-      <c r="F14" s="6">
+      <c r="H14" s="6">
         <v>5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="I14" s="6">
         <v>300</v>
       </c>
-      <c r="H14" s="6">
+      <c r="J14" s="6">
         <v>2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="K14" s="6">
         <v>3</v>
       </c>
-      <c r="J14" s="6">
+      <c r="L14" s="6">
         <v>50</v>
       </c>
-      <c r="K14" s="6">
-        <v>100</v>
-      </c>
-      <c r="L14" s="6">
-        <v>100</v>
-      </c>
       <c r="M14" s="6">
         <v>100</v>
       </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-      <c r="O14">
+      <c r="N14" s="6">
+        <v>100</v>
+      </c>
+      <c r="O14" s="6">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
         <v>1.2</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <v>10</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>10</v>
       </c>
-      <c r="S14">
-        <v>100</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="U14">
+        <v>100</v>
+      </c>
+      <c r="V14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" t="s">
+        <v>89</v>
+      </c>
+      <c r="X14" s="2">
         <v>2</v>
       </c>
-      <c r="W14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y14" s="2">
+      <c r="Z14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="16.8" spans="3:25">
+    <row r="15" ht="16.8" spans="3:26">
       <c r="C15" s="6">
         <v>100016</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="6">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="6">
         <v>6</v>
       </c>
-      <c r="F15" s="6">
+      <c r="H15" s="6">
         <v>5</v>
       </c>
-      <c r="G15" s="6">
+      <c r="I15" s="6">
         <v>300</v>
       </c>
-      <c r="H15" s="6">
+      <c r="J15" s="6">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="K15" s="6">
         <v>3</v>
       </c>
-      <c r="J15" s="6">
+      <c r="L15" s="6">
         <v>50</v>
       </c>
-      <c r="K15" s="6">
-        <v>100</v>
-      </c>
-      <c r="L15" s="6">
-        <v>100</v>
-      </c>
       <c r="M15" s="6">
         <v>100</v>
       </c>
-      <c r="N15">
-        <v>100</v>
-      </c>
-      <c r="O15">
+      <c r="N15" s="6">
+        <v>100</v>
+      </c>
+      <c r="O15" s="6">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15">
         <v>1.2</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>10</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>10</v>
       </c>
-      <c r="S15">
-        <v>100</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U15" t="s">
-        <v>84</v>
-      </c>
-      <c r="V15" s="2">
+      <c r="U15">
+        <v>100</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W15" t="s">
+        <v>92</v>
+      </c>
+      <c r="X15" s="2">
         <v>2</v>
       </c>
-      <c r="W15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y15" s="2">
+      <c r="Z15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="3:25">
+    <row r="16" ht="16.8" spans="3:26">
       <c r="C16" s="6">
         <v>100017</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="6">
+        <v>95</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="6">
         <v>6</v>
       </c>
-      <c r="F16" s="6">
+      <c r="H16" s="6">
         <v>5</v>
       </c>
-      <c r="G16" s="6">
+      <c r="I16" s="6">
         <v>300</v>
       </c>
-      <c r="H16" s="6">
+      <c r="J16" s="6">
         <v>2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="K16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="6">
+      <c r="L16" s="6">
         <v>50</v>
       </c>
-      <c r="K16" s="6">
-        <v>100</v>
-      </c>
-      <c r="L16" s="6">
-        <v>100</v>
-      </c>
       <c r="M16" s="6">
         <v>100</v>
       </c>
-      <c r="N16">
-        <v>100</v>
-      </c>
-      <c r="O16">
+      <c r="N16" s="6">
+        <v>100</v>
+      </c>
+      <c r="O16" s="6">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
         <v>1.2</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
         <v>10</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>10</v>
       </c>
-      <c r="S16">
-        <v>100</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U16" t="s">
-        <v>87</v>
-      </c>
-      <c r="V16" s="2">
+      <c r="U16">
+        <v>100</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W16" t="s">
+        <v>95</v>
+      </c>
+      <c r="X16" s="2">
         <v>2</v>
       </c>
-      <c r="W16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y16" s="2">
+      <c r="Z16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="3:25">
+    <row r="17" ht="16.8" spans="3:26">
       <c r="C17" s="6">
         <v>100018</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="6">
+        <v>98</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6">
         <v>6</v>
       </c>
-      <c r="F17" s="6">
+      <c r="H17" s="6">
         <v>5</v>
       </c>
-      <c r="G17" s="6">
+      <c r="I17" s="6">
         <v>300</v>
       </c>
-      <c r="H17" s="6">
+      <c r="J17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="K17" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="6">
+      <c r="L17" s="6">
         <v>50</v>
       </c>
-      <c r="K17" s="6">
-        <v>100</v>
-      </c>
-      <c r="L17" s="6">
-        <v>100</v>
-      </c>
       <c r="M17" s="6">
         <v>100</v>
       </c>
-      <c r="N17">
-        <v>100</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="6">
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17">
         <v>1.2</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
         <v>10</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>10</v>
       </c>
-      <c r="S17">
-        <v>100</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V17" s="2">
+      <c r="U17">
+        <v>100</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W17" t="s">
+        <v>98</v>
+      </c>
+      <c r="X17" s="2">
         <v>2</v>
       </c>
-      <c r="W17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y17" s="2">
+      <c r="Z17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+    <row r="18" ht="16.8" spans="3:26">
+      <c r="C18" s="6">
+        <v>100019</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>300</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3</v>
+      </c>
+      <c r="L18" s="6">
+        <v>50</v>
+      </c>
+      <c r="M18" s="6">
+        <v>100</v>
+      </c>
+      <c r="N18" s="6">
+        <v>100</v>
+      </c>
+      <c r="O18" s="6">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>1.2</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>100</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s">
+        <v>101</v>
+      </c>
+      <c r="X18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:15">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:15">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:15">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:15">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:15">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:7">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:7">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:7">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>c</t>
   </si>
@@ -88,9 +88,6 @@
     <t>英雄头像框</t>
   </si>
   <si>
-    <t>材料类型</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
   </si>
   <si>
     <t>HeroIconFrameImage</t>
-  </si>
-  <si>
-    <t>MaterialType</t>
   </si>
   <si>
     <t>int</t>
@@ -379,8 +373,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,102 +404,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,6 +428,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -523,6 +509,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="6"/>
       <name val="宋体"/>
@@ -545,31 +539,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,151 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,57 +737,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +774,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -839,148 +833,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Z26"/>
+  <dimension ref="A2:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1395,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:26">
+    <row r="3" spans="3:25">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1465,173 +1459,164 @@
       <c r="Y3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="4" t="s">
+    </row>
+    <row r="4" spans="3:25">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="3:26">
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="4" t="s">
+    <row r="5" spans="3:25">
+      <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="3:26">
-      <c r="C5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="6" customFormat="1" ht="17" spans="1:25">
+      <c r="A6" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="17" spans="1:26">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C6" s="6">
         <v>100001</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="G6" s="6">
         <v>6</v>
@@ -1679,31 +1664,28 @@
         <v>100</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
+    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:25">
       <c r="C7" s="6">
         <v>100002</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
@@ -1751,31 +1733,28 @@
         <v>100</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X7">
         <v>2</v>
       </c>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" ht="16.8" spans="3:26">
+    <row r="8" ht="16.8" spans="3:25">
       <c r="C8" s="6">
         <v>100003</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="G8" s="6">
         <v>6</v>
@@ -1823,31 +1802,28 @@
         <v>100</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X8">
         <v>3</v>
       </c>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" ht="16.8" spans="3:26">
+    <row r="9" ht="16.8" spans="3:25">
       <c r="C9" s="6">
         <v>100004</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="G9" s="6">
         <v>6</v>
@@ -1895,31 +1871,28 @@
         <v>100</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X9">
         <v>4</v>
       </c>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" ht="16.8" spans="3:26">
+    <row r="10" ht="16.8" spans="3:25">
       <c r="C10" s="6">
         <v>100005</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="G10" s="6">
         <v>6</v>
@@ -1967,31 +1940,28 @@
         <v>100</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X10">
         <v>1</v>
       </c>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" ht="16.8" spans="3:26">
+    <row r="11" ht="16.8" spans="3:25">
       <c r="C11" s="6">
         <v>100006</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="G11" s="6">
         <v>6</v>
@@ -2039,31 +2009,28 @@
         <v>100</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" ht="16.8" spans="3:26">
+    <row r="12" ht="16.8" spans="3:25">
       <c r="C12" s="6">
         <v>100013</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="G12" s="6">
         <v>6</v>
@@ -2111,31 +2078,28 @@
         <v>100</v>
       </c>
       <c r="V12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="X12">
         <v>2</v>
       </c>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" ht="16.8" spans="3:26">
+    <row r="13" ht="16.8" spans="3:25">
       <c r="C13" s="6">
         <v>100014</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="G13" s="6">
         <v>6</v>
@@ -2183,31 +2147,28 @@
         <v>100</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" ht="16.8" spans="3:26">
+    <row r="14" ht="16.8" spans="3:24">
       <c r="C14" s="6">
         <v>100015</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="G14" s="6">
         <v>6</v>
@@ -2255,30 +2216,27 @@
         <v>100</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X14" s="2">
         <v>2</v>
       </c>
-      <c r="Z14" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" ht="16.8" spans="3:26">
+    <row r="15" ht="16.8" spans="3:24">
       <c r="C15" s="6">
         <v>100016</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="G15" s="6">
         <v>6</v>
@@ -2326,30 +2284,27 @@
         <v>100</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X15" s="2">
         <v>2</v>
       </c>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" ht="16.8" spans="3:26">
+    <row r="16" ht="16.8" spans="3:24">
       <c r="C16" s="6">
         <v>100017</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="G16" s="6">
         <v>6</v>
@@ -2397,30 +2352,27 @@
         <v>100</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X16" s="2">
         <v>2</v>
       </c>
-      <c r="Z16" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" ht="16.8" spans="3:26">
+    <row r="17" ht="16.8" spans="3:24">
       <c r="C17" s="6">
         <v>100018</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="G17" s="6">
         <v>6</v>
@@ -2468,30 +2420,27 @@
         <v>100</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X17" s="2">
         <v>2</v>
       </c>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="18" ht="16.8" spans="3:26">
+    <row r="18" ht="16.8" spans="3:24">
       <c r="C18" s="6">
         <v>100019</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="G18" s="6">
         <v>6</v>
@@ -2539,16 +2488,13 @@
         <v>100</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X18" s="2">
         <v>2</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:15">

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>c</t>
   </si>
@@ -340,15 +340,24 @@
   <si>
     <t>雅典娜</t>
   </si>
+  <si>
+    <t>item_001</t>
+  </si>
+  <si>
+    <t>阿尔戈斯</t>
+  </si>
+  <si>
+    <t>Argos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -373,14 +382,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -403,8 +412,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -441,60 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -510,7 +489,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -539,79 +548,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,91 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,9 +744,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,11 +794,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,169 +839,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,8 +1365,8 @@
   <sheetPr/>
   <dimension ref="A2:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2497,18 +2506,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+    <row r="19" ht="16.8" spans="3:24">
+      <c r="C19" s="6">
+        <v>100020</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>300</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3</v>
+      </c>
+      <c r="L19" s="6">
+        <v>50</v>
+      </c>
+      <c r="M19" s="6">
+        <v>100</v>
+      </c>
+      <c r="N19" s="6">
+        <v>100</v>
+      </c>
+      <c r="O19" s="6">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>1.2</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <v>100</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s">
+        <v>104</v>
+      </c>
+      <c r="X19" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="3:15">
       <c r="C20" s="6"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>c</t>
   </si>
@@ -37,6 +37,9 @@
     <t>英雄属性</t>
   </si>
   <si>
+    <t>英雄属性名称</t>
+  </si>
+  <si>
     <t>基础霸气值</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>HeroColor</t>
+  </si>
+  <si>
+    <t>HeroElementName</t>
   </si>
   <si>
     <t>DomineeringValue</t>
@@ -296,6 +302,12 @@
     <t>波塞冬</t>
   </si>
   <si>
+    <t>水，蓝色</t>
+  </si>
+  <si>
+    <t>1000025,1000026,1000027,1000028</t>
+  </si>
+  <si>
     <t>Hades</t>
   </si>
   <si>
@@ -355,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -389,9 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,16 +416,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,61 +454,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,7 +479,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,6 +524,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="6"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -554,43 +566,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,91 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,37 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,21 +774,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,9 +804,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,165 +828,174 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Y26"/>
+  <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1375,30 +1387,30 @@
     <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6346153846154" style="3" customWidth="1"/>
     <col min="5" max="5" width="33.0865384615385" style="2" customWidth="1"/>
-    <col min="6" max="11" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.7307692307692" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.3653846153846" style="3" customWidth="1"/>
-    <col min="14" max="15" width="13.0865384615385" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.5384615384615" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="20" width="15.0865384615385" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16" style="2" customWidth="1"/>
-    <col min="22" max="22" width="35.1826923076923" style="2" customWidth="1"/>
-    <col min="23" max="23" width="14.6346153846154" style="2" customWidth="1"/>
-    <col min="24" max="24" width="34.7307692307692" style="2" customWidth="1"/>
-    <col min="25" max="25" width="26.8173076923077" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="6" max="12" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.7307692307692" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="15" max="16" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.5384615384615" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2"/>
+    <col min="19" max="21" width="15.0865384615385" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16" style="2" customWidth="1"/>
+    <col min="23" max="23" width="35.1826923076923" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.6346153846154" style="2" customWidth="1"/>
+    <col min="25" max="25" width="34.7307692307692" style="2" customWidth="1"/>
+    <col min="26" max="26" width="26.8173076923077" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:23">
+    <row r="2" spans="5:24">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:25">
+    <row r="3" spans="3:26">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1468,164 +1480,173 @@
       <c r="Y3" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="Z3" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="3:25">
+    <row r="4" spans="3:26">
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="3:25">
+    <row r="5" spans="3:26">
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="17" spans="1:25">
+    <row r="6" customFormat="1" ht="17" spans="1:26">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6">
         <v>100001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" s="6">
         <v>6</v>
@@ -1633,68 +1654,69 @@
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <v>300</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>3</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>50</v>
       </c>
-      <c r="M6" s="6">
-        <v>100</v>
-      </c>
       <c r="N6" s="6">
         <v>100</v>
       </c>
       <c r="O6" s="6">
         <v>100</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <v>100</v>
       </c>
       <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
         <v>1.2</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
       <c r="T6">
         <v>10</v>
       </c>
       <c r="U6">
-        <v>100</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:25">
+    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
       <c r="C7" s="6">
         <v>100002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
@@ -1702,68 +1724,69 @@
       <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
         <v>300</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>3</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>50</v>
       </c>
-      <c r="M7" s="6">
-        <v>100</v>
-      </c>
       <c r="N7" s="6">
         <v>100</v>
       </c>
       <c r="O7" s="6">
         <v>100</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>100</v>
       </c>
       <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
         <v>1.2</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
       <c r="T7">
         <v>10</v>
       </c>
       <c r="U7">
-        <v>100</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7">
         <v>2</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
-    <row r="8" ht="16.8" spans="3:25">
+    <row r="8" ht="16.8" spans="3:26">
       <c r="C8" s="6">
         <v>100003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" s="6">
         <v>6</v>
@@ -1771,68 +1794,69 @@
       <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6">
         <v>300</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>50</v>
       </c>
-      <c r="M8" s="6">
-        <v>100</v>
-      </c>
       <c r="N8" s="6">
         <v>100</v>
       </c>
       <c r="O8" s="6">
         <v>100</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <v>100</v>
       </c>
       <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
         <v>1.2</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1</v>
       </c>
-      <c r="S8">
-        <v>10</v>
-      </c>
       <c r="T8">
         <v>10</v>
       </c>
       <c r="U8">
-        <v>100</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8">
         <v>3</v>
       </c>
-      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
-    <row r="9" ht="16.8" spans="3:25">
+    <row r="9" ht="16.8" spans="3:26">
       <c r="C9" s="6">
         <v>100004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6">
         <v>6</v>
@@ -1840,68 +1864,69 @@
       <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
         <v>300</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>50</v>
       </c>
-      <c r="M9" s="6">
-        <v>100</v>
-      </c>
       <c r="N9" s="6">
         <v>100</v>
       </c>
       <c r="O9" s="6">
         <v>100</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <v>100</v>
       </c>
       <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
         <v>1.2</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1</v>
       </c>
-      <c r="S9">
-        <v>10</v>
-      </c>
       <c r="T9">
         <v>10</v>
       </c>
       <c r="U9">
-        <v>100</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9">
         <v>4</v>
       </c>
-      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
-    <row r="10" ht="16.8" spans="3:25">
+    <row r="10" ht="16.8" spans="3:26">
       <c r="C10" s="6">
         <v>100005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G10" s="6">
         <v>6</v>
@@ -1909,68 +1934,69 @@
       <c r="H10" s="6">
         <v>5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
         <v>300</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>3</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>50</v>
       </c>
-      <c r="M10" s="6">
-        <v>100</v>
-      </c>
       <c r="N10" s="6">
         <v>100</v>
       </c>
       <c r="O10" s="6">
         <v>100</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>100</v>
       </c>
       <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
         <v>1.2</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1</v>
       </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
       <c r="T10">
         <v>10</v>
       </c>
       <c r="U10">
-        <v>100</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>100</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10">
         <v>1</v>
       </c>
-      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
     </row>
-    <row r="11" ht="16.8" spans="3:25">
+    <row r="11" ht="16.8" spans="3:26">
       <c r="C11" s="6">
         <v>100006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G11" s="6">
         <v>6</v>
@@ -1978,68 +2004,69 @@
       <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
         <v>300</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>2</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>50</v>
       </c>
-      <c r="M11" s="6">
-        <v>100</v>
-      </c>
       <c r="N11" s="6">
         <v>100</v>
       </c>
       <c r="O11" s="6">
         <v>100</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="6">
         <v>100</v>
       </c>
       <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
         <v>1.2</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1</v>
       </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
       <c r="T11">
         <v>10</v>
       </c>
       <c r="U11">
-        <v>100</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>100</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y11">
         <v>2</v>
       </c>
-      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
-    <row r="12" ht="16.8" spans="3:25">
+    <row r="12" ht="16.8" spans="3:26">
       <c r="C12" s="6">
         <v>100013</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G12" s="6">
         <v>6</v>
@@ -2047,137 +2074,141 @@
       <c r="H12" s="6">
         <v>5</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
         <v>300</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>2</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>3</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>50</v>
       </c>
-      <c r="M12" s="6">
-        <v>100</v>
-      </c>
       <c r="N12" s="6">
         <v>100</v>
       </c>
       <c r="O12" s="6">
         <v>100</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="6">
         <v>100</v>
       </c>
       <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
         <v>1.2</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1</v>
       </c>
-      <c r="S12">
-        <v>10</v>
-      </c>
       <c r="T12">
         <v>10</v>
       </c>
       <c r="U12">
-        <v>100</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>100</v>
+      </c>
+      <c r="W12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12">
         <v>2</v>
       </c>
-      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
-    <row r="13" ht="16.8" spans="3:25">
+    <row r="13" ht="16.8" spans="3:26">
       <c r="C13" s="6">
         <v>100014</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="6">
         <v>6</v>
       </c>
       <c r="H13" s="6">
-        <v>5</v>
-      </c>
-      <c r="I13" s="6">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="6">
         <v>300</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>3</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>50</v>
       </c>
-      <c r="M13" s="6">
-        <v>100</v>
-      </c>
       <c r="N13" s="6">
         <v>100</v>
       </c>
       <c r="O13" s="6">
         <v>100</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <v>100</v>
       </c>
       <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="R13">
         <v>1.2</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="S13">
-        <v>10</v>
-      </c>
       <c r="T13">
         <v>10</v>
       </c>
       <c r="U13">
-        <v>100</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>100</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13">
         <v>2</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
-    <row r="14" ht="16.8" spans="3:24">
+    <row r="14" ht="16.8" spans="3:25">
       <c r="C14" s="6">
         <v>100015</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G14" s="6">
         <v>6</v>
@@ -2185,67 +2216,68 @@
       <c r="H14" s="6">
         <v>5</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
         <v>300</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>50</v>
       </c>
-      <c r="M14" s="6">
-        <v>100</v>
-      </c>
       <c r="N14" s="6">
         <v>100</v>
       </c>
       <c r="O14" s="6">
         <v>100</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="6">
         <v>100</v>
       </c>
       <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
         <v>1.2</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1</v>
       </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
       <c r="T14">
         <v>10</v>
       </c>
       <c r="U14">
-        <v>100</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s">
-        <v>87</v>
-      </c>
-      <c r="X14" s="2">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>100</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="16.8" spans="3:24">
+    <row r="15" ht="16.8" spans="3:25">
       <c r="C15" s="6">
         <v>100016</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G15" s="6">
         <v>6</v>
@@ -2253,67 +2285,68 @@
       <c r="H15" s="6">
         <v>5</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
         <v>300</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>50</v>
       </c>
-      <c r="M15" s="6">
-        <v>100</v>
-      </c>
       <c r="N15" s="6">
         <v>100</v>
       </c>
       <c r="O15" s="6">
         <v>100</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>100</v>
       </c>
       <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
         <v>1.2</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1</v>
       </c>
-      <c r="S15">
-        <v>10</v>
-      </c>
       <c r="T15">
         <v>10</v>
       </c>
       <c r="U15">
-        <v>100</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W15" t="s">
-        <v>90</v>
-      </c>
-      <c r="X15" s="2">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>100</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="3:24">
+    <row r="16" ht="16.8" spans="3:25">
       <c r="C16" s="6">
         <v>100017</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G16" s="6">
         <v>6</v>
@@ -2321,67 +2354,68 @@
       <c r="H16" s="6">
         <v>5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
         <v>300</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>3</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>50</v>
       </c>
-      <c r="M16" s="6">
-        <v>100</v>
-      </c>
       <c r="N16" s="6">
         <v>100</v>
       </c>
       <c r="O16" s="6">
         <v>100</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>100</v>
       </c>
       <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="R16">
         <v>1.2</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1</v>
       </c>
-      <c r="S16">
-        <v>10</v>
-      </c>
       <c r="T16">
         <v>10</v>
       </c>
       <c r="U16">
-        <v>100</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W16" t="s">
-        <v>93</v>
-      </c>
-      <c r="X16" s="2">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>100</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="3:24">
+    <row r="17" ht="16.8" spans="3:25">
       <c r="C17" s="6">
         <v>100018</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G17" s="6">
         <v>6</v>
@@ -2389,67 +2423,68 @@
       <c r="H17" s="6">
         <v>5</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
         <v>300</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>2</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>3</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>50</v>
       </c>
-      <c r="M17" s="6">
-        <v>100</v>
-      </c>
       <c r="N17" s="6">
         <v>100</v>
       </c>
       <c r="O17" s="6">
         <v>100</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>100</v>
       </c>
       <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
         <v>1.2</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1</v>
       </c>
-      <c r="S17">
-        <v>10</v>
-      </c>
       <c r="T17">
         <v>10</v>
       </c>
       <c r="U17">
-        <v>100</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s">
-        <v>96</v>
-      </c>
-      <c r="X17" s="2">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>100</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="16.8" spans="3:24">
+    <row r="18" ht="16.8" spans="3:25">
       <c r="C18" s="6">
         <v>100019</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G18" s="6">
         <v>6</v>
@@ -2457,67 +2492,68 @@
       <c r="H18" s="6">
         <v>5</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
         <v>300</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>2</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>50</v>
       </c>
-      <c r="M18" s="6">
-        <v>100</v>
-      </c>
       <c r="N18" s="6">
         <v>100</v>
       </c>
       <c r="O18" s="6">
         <v>100</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="6">
         <v>100</v>
       </c>
       <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
         <v>1.2</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1</v>
       </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
       <c r="T18">
         <v>10</v>
       </c>
       <c r="U18">
-        <v>100</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s">
-        <v>99</v>
-      </c>
-      <c r="X18" s="2">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>100</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="3:24">
+    <row r="19" ht="16.8" spans="3:25">
       <c r="C19" s="6">
         <v>100020</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6">
         <v>6</v>
@@ -2525,56 +2561,57 @@
       <c r="H19" s="6">
         <v>5</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
         <v>300</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>2</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <v>50</v>
       </c>
-      <c r="M19" s="6">
-        <v>100</v>
-      </c>
       <c r="N19" s="6">
         <v>100</v>
       </c>
       <c r="O19" s="6">
         <v>100</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="6">
         <v>100</v>
       </c>
       <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
         <v>1.2</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1</v>
       </c>
-      <c r="S19">
-        <v>10</v>
-      </c>
       <c r="T19">
         <v>10</v>
       </c>
       <c r="U19">
-        <v>100</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W19" t="s">
-        <v>104</v>
-      </c>
-      <c r="X19" s="2">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>100</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:16">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="F20" s="6"/>
@@ -2584,10 +2621,11 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:16">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="F21" s="6"/>
@@ -2597,10 +2635,11 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="M21" s="6"/>
       <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:16">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="6"/>
@@ -2610,10 +2649,11 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="M22" s="6"/>
       <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:16">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
@@ -2623,8 +2663,9 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="6"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
   <si>
     <t>c</t>
   </si>
@@ -317,6 +317,12 @@
     <t>哈迪斯</t>
   </si>
   <si>
+    <t>暗，紫色</t>
+  </si>
+  <si>
+    <t>1000029,1000030,1000031,1000032</t>
+  </si>
+  <si>
     <t>Charon</t>
   </si>
   <si>
@@ -360,6 +366,15 @@
   </si>
   <si>
     <t>Argos</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>item_002</t>
+  </si>
+  <si>
+    <t>凤凰</t>
   </si>
 </sst>
 </file>
@@ -367,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -395,14 +410,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,10 +448,65 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,27 +524,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,39 +539,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,29 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="6"/>
       <name val="宋体"/>
@@ -545,7 +560,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,19 +569,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,13 +713,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,79 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,67 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +799,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -789,15 +834,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,197 +867,190 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1378,302 +1407,302 @@
   <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.6346153846154" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.0865384615385" style="2" customWidth="1"/>
-    <col min="6" max="12" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.7307692307692" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.3653846153846" style="3" customWidth="1"/>
-    <col min="15" max="16" width="13.0865384615385" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.5384615384615" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2"/>
-    <col min="19" max="21" width="15.0865384615385" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16" style="2" customWidth="1"/>
-    <col min="23" max="23" width="35.1826923076923" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.6346153846154" style="2" customWidth="1"/>
-    <col min="25" max="25" width="34.7307692307692" style="2" customWidth="1"/>
-    <col min="26" max="26" width="26.8173076923077" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="28.6346153846154" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.6346153846154" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.0865384615385" style="3" customWidth="1"/>
+    <col min="6" max="12" width="12.6346153846154" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.7307692307692" style="4" customWidth="1"/>
+    <col min="14" max="14" width="15.3653846153846" style="4" customWidth="1"/>
+    <col min="15" max="16" width="13.0865384615385" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.5384615384615" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9" style="3"/>
+    <col min="19" max="21" width="15.0865384615385" style="3" customWidth="1"/>
+    <col min="22" max="22" width="16" style="3" customWidth="1"/>
+    <col min="23" max="23" width="35.1826923076923" style="3" customWidth="1"/>
+    <col min="24" max="24" width="14.6346153846154" style="3" customWidth="1"/>
+    <col min="25" max="25" width="34.7307692307692" style="3" customWidth="1"/>
+    <col min="26" max="26" width="26.8173076923077" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:24">
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="3:26">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="17" spans="1:26">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>100001</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>6</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
         <v>300</v>
       </c>
-      <c r="K6" s="6">
-        <v>2</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
         <v>3</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>50</v>
       </c>
-      <c r="N6" s="6">
-        <v>100</v>
-      </c>
-      <c r="O6" s="6">
-        <v>100</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="7">
+        <v>100</v>
+      </c>
+      <c r="O6" s="7">
+        <v>100</v>
+      </c>
+      <c r="P6" s="7">
         <v>100</v>
       </c>
       <c r="Q6">
@@ -1694,56 +1723,56 @@
       <c r="V6">
         <v>100</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="6" t="s">
         <v>57</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Z6" s="10"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>100002</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>6</v>
       </c>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
         <v>300</v>
       </c>
-      <c r="K7" s="6">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7">
         <v>3</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>50</v>
       </c>
-      <c r="N7" s="6">
-        <v>100</v>
-      </c>
-      <c r="O7" s="6">
-        <v>100</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="7">
+        <v>100</v>
+      </c>
+      <c r="O7" s="7">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7">
         <v>100</v>
       </c>
       <c r="Q7">
@@ -1764,56 +1793,56 @@
       <c r="V7">
         <v>100</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
-      <c r="Z7" s="10"/>
+      <c r="Z7" s="14"/>
     </row>
     <row r="8" ht="16.8" spans="3:26">
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>100003</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>6</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
         <v>300</v>
       </c>
-      <c r="K8" s="6">
-        <v>2</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
         <v>3</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="7">
         <v>50</v>
       </c>
-      <c r="N8" s="6">
-        <v>100</v>
-      </c>
-      <c r="O8" s="6">
-        <v>100</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="7">
+        <v>100</v>
+      </c>
+      <c r="O8" s="7">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7">
         <v>100</v>
       </c>
       <c r="Q8">
@@ -1834,56 +1863,56 @@
       <c r="V8">
         <v>100</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Y8">
         <v>3</v>
       </c>
-      <c r="Z8" s="10"/>
+      <c r="Z8" s="14"/>
     </row>
     <row r="9" ht="16.8" spans="3:26">
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>100004</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
         <v>300</v>
       </c>
-      <c r="K9" s="6">
-        <v>2</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
         <v>3</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>50</v>
       </c>
-      <c r="N9" s="6">
-        <v>100</v>
-      </c>
-      <c r="O9" s="6">
-        <v>100</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="7">
+        <v>100</v>
+      </c>
+      <c r="O9" s="7">
+        <v>100</v>
+      </c>
+      <c r="P9" s="7">
         <v>100</v>
       </c>
       <c r="Q9">
@@ -1904,56 +1933,56 @@
       <c r="V9">
         <v>100</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="X9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Y9">
         <v>4</v>
       </c>
-      <c r="Z9" s="10"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10" ht="16.8" spans="3:26">
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>100005</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>6</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
         <v>300</v>
       </c>
-      <c r="K10" s="6">
-        <v>2</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="K10" s="7">
+        <v>2</v>
+      </c>
+      <c r="L10" s="7">
         <v>3</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <v>50</v>
       </c>
-      <c r="N10" s="6">
-        <v>100</v>
-      </c>
-      <c r="O10" s="6">
-        <v>100</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="7">
+        <v>100</v>
+      </c>
+      <c r="O10" s="7">
+        <v>100</v>
+      </c>
+      <c r="P10" s="7">
         <v>100</v>
       </c>
       <c r="Q10">
@@ -1974,56 +2003,56 @@
       <c r="V10">
         <v>100</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Y10">
         <v>1</v>
       </c>
-      <c r="Z10" s="10"/>
+      <c r="Z10" s="14"/>
     </row>
     <row r="11" ht="16.8" spans="3:26">
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>100006</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>6</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
         <v>300</v>
       </c>
-      <c r="K11" s="6">
-        <v>2</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="K11" s="7">
+        <v>2</v>
+      </c>
+      <c r="L11" s="7">
         <v>3</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="7">
         <v>50</v>
       </c>
-      <c r="N11" s="6">
-        <v>100</v>
-      </c>
-      <c r="O11" s="6">
-        <v>100</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="7">
+        <v>100</v>
+      </c>
+      <c r="O11" s="7">
+        <v>100</v>
+      </c>
+      <c r="P11" s="7">
         <v>100</v>
       </c>
       <c r="Q11">
@@ -2044,56 +2073,56 @@
       <c r="V11">
         <v>100</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Y11">
         <v>2</v>
       </c>
-      <c r="Z11" s="10"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12" ht="16.8" spans="3:26">
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>100013</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>6</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
         <v>300</v>
       </c>
-      <c r="K12" s="6">
-        <v>2</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="7">
         <v>3</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="7">
         <v>50</v>
       </c>
-      <c r="N12" s="6">
-        <v>100</v>
-      </c>
-      <c r="O12" s="6">
-        <v>100</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="7">
+        <v>100</v>
+      </c>
+      <c r="O12" s="7">
+        <v>100</v>
+      </c>
+      <c r="P12" s="7">
         <v>100</v>
       </c>
       <c r="Q12">
@@ -2114,58 +2143,58 @@
       <c r="V12">
         <v>100</v>
       </c>
-      <c r="W12" s="9" t="s">
+      <c r="W12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Y12">
         <v>2</v>
       </c>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="14"/>
     </row>
     <row r="13" ht="16.8" spans="3:26">
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>100014</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>6</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <v>300</v>
       </c>
-      <c r="K13" s="6">
-        <v>2</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7">
         <v>3</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>50</v>
       </c>
-      <c r="N13" s="6">
-        <v>100</v>
-      </c>
-      <c r="O13" s="6">
-        <v>100</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="7">
+        <v>100</v>
+      </c>
+      <c r="O13" s="7">
+        <v>100</v>
+      </c>
+      <c r="P13" s="7">
         <v>100</v>
       </c>
       <c r="Q13">
@@ -2186,80 +2215,82 @@
       <c r="V13">
         <v>100</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="X13" s="5" t="s">
+      <c r="X13" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Y13">
         <v>2</v>
       </c>
-      <c r="Z13" s="10"/>
+      <c r="Z13" s="14"/>
     </row>
-    <row r="14" ht="16.8" spans="3:25">
-      <c r="C14" s="6">
+    <row r="14" s="2" customFormat="1" ht="16.8" spans="3:25">
+      <c r="C14" s="8">
         <v>100015</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>6</v>
       </c>
-      <c r="H14" s="6">
-        <v>5</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="H14" s="8">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="8">
         <v>300</v>
       </c>
-      <c r="K14" s="6">
-        <v>2</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
         <v>3</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="8">
         <v>50</v>
       </c>
-      <c r="N14" s="6">
-        <v>100</v>
-      </c>
-      <c r="O14" s="6">
-        <v>100</v>
-      </c>
-      <c r="P14" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>100</v>
-      </c>
-      <c r="R14">
+      <c r="N14" s="8">
+        <v>100</v>
+      </c>
+      <c r="O14" s="8">
+        <v>100</v>
+      </c>
+      <c r="P14" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>100</v>
+      </c>
+      <c r="R14" s="11">
         <v>1.2</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="11">
         <v>1</v>
       </c>
-      <c r="T14">
-        <v>10</v>
-      </c>
-      <c r="U14">
-        <v>10</v>
-      </c>
-      <c r="V14">
-        <v>100</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="T14" s="11">
+        <v>10</v>
+      </c>
+      <c r="U14" s="11">
+        <v>10</v>
+      </c>
+      <c r="V14" s="11">
+        <v>100</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="11" t="s">
         <v>91</v>
       </c>
       <c r="Y14" s="2">
@@ -2267,44 +2298,44 @@
       </c>
     </row>
     <row r="15" ht="16.8" spans="3:25">
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>100016</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="6">
+      <c r="E15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="7">
         <v>6</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="7">
         <v>5</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7">
         <v>300</v>
       </c>
-      <c r="K15" s="6">
-        <v>2</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7">
         <v>3</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="7">
         <v>50</v>
       </c>
-      <c r="N15" s="6">
-        <v>100</v>
-      </c>
-      <c r="O15" s="6">
-        <v>100</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="7">
+        <v>100</v>
+      </c>
+      <c r="O15" s="7">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7">
         <v>100</v>
       </c>
       <c r="Q15">
@@ -2325,55 +2356,55 @@
       <c r="V15">
         <v>100</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="12" t="s">
         <v>81</v>
       </c>
       <c r="X15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y15" s="2">
+        <v>96</v>
+      </c>
+      <c r="Y15" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="16" ht="16.8" spans="3:25">
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>100017</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="6">
+      <c r="E16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="7">
         <v>6</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7">
         <v>300</v>
       </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
         <v>3</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="7">
         <v>50</v>
       </c>
-      <c r="N16" s="6">
-        <v>100</v>
-      </c>
-      <c r="O16" s="6">
-        <v>100</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="N16" s="7">
+        <v>100</v>
+      </c>
+      <c r="O16" s="7">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7">
         <v>100</v>
       </c>
       <c r="Q16">
@@ -2394,55 +2425,55 @@
       <c r="V16">
         <v>100</v>
       </c>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="X16" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y16" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="16.8" spans="3:25">
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>100018</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="6">
+      <c r="E17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7">
         <v>6</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="7">
         <v>5</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
         <v>300</v>
       </c>
-      <c r="K17" s="6">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
         <v>3</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="7">
         <v>50</v>
       </c>
-      <c r="N17" s="6">
-        <v>100</v>
-      </c>
-      <c r="O17" s="6">
-        <v>100</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="N17" s="7">
+        <v>100</v>
+      </c>
+      <c r="O17" s="7">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7">
         <v>100</v>
       </c>
       <c r="Q17">
@@ -2463,55 +2494,55 @@
       <c r="V17">
         <v>100</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="W17" s="12" t="s">
         <v>81</v>
       </c>
       <c r="X17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="18" ht="16.8" spans="3:25">
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>100019</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="6">
+      <c r="E18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
         <v>300</v>
       </c>
-      <c r="K18" s="6">
-        <v>2</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7">
         <v>3</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>50</v>
       </c>
-      <c r="N18" s="6">
-        <v>100</v>
-      </c>
-      <c r="O18" s="6">
-        <v>100</v>
-      </c>
-      <c r="P18" s="6">
+      <c r="N18" s="7">
+        <v>100</v>
+      </c>
+      <c r="O18" s="7">
+        <v>100</v>
+      </c>
+      <c r="P18" s="7">
         <v>100</v>
       </c>
       <c r="Q18">
@@ -2532,55 +2563,55 @@
       <c r="V18">
         <v>100</v>
       </c>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="12" t="s">
         <v>81</v>
       </c>
       <c r="X18" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y18" s="2">
+        <v>105</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="3:25">
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>100020</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="D19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="7">
         <v>6</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
         <v>300</v>
       </c>
-      <c r="K19" s="6">
-        <v>2</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="K19" s="7">
+        <v>2</v>
+      </c>
+      <c r="L19" s="7">
         <v>3</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>50</v>
       </c>
-      <c r="N19" s="6">
-        <v>100</v>
-      </c>
-      <c r="O19" s="6">
-        <v>100</v>
-      </c>
-      <c r="P19" s="6">
+      <c r="N19" s="7">
+        <v>100</v>
+      </c>
+      <c r="O19" s="7">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7">
         <v>100</v>
       </c>
       <c r="Q19">
@@ -2601,89 +2632,144 @@
       <c r="V19">
         <v>100</v>
       </c>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="12" t="s">
         <v>81</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y19" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:16">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+    <row r="20" ht="16.8" spans="3:25">
+      <c r="C20" s="7">
+        <v>100021</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
+        <v>300</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>3</v>
+      </c>
+      <c r="M20" s="7">
+        <v>50</v>
+      </c>
+      <c r="N20" s="7">
+        <v>100</v>
+      </c>
+      <c r="O20" s="7">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>100</v>
+      </c>
+      <c r="R20">
+        <v>1.2</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <v>100</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="X20" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="3:16">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="3:16">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="3:16">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>c</t>
   </si>
@@ -359,15 +359,18 @@
     <t>雅典娜</t>
   </si>
   <si>
+    <t>1000033,1000034,1000035,1000036</t>
+  </si>
+  <si>
+    <t>Argos</t>
+  </si>
+  <si>
     <t>item_001</t>
   </si>
   <si>
     <t>阿尔戈斯</t>
   </si>
   <si>
-    <t>Argos</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
@@ -375,6 +378,15 @@
   </si>
   <si>
     <t>凤凰</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>item_003</t>
+  </si>
+  <si>
+    <t>拉米亚</t>
   </si>
 </sst>
 </file>
@@ -384,10 +396,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,10 +421,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,7 +459,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -439,19 +474,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,24 +496,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,14 +520,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -511,14 +528,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,17 +564,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,7 +579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,187 +600,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDEBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,17 +800,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,11 +842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,164 +897,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,6 +1070,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1407,7 +1435,7 @@
   <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1723,7 +1751,7 @@
       <c r="V6">
         <v>100</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="13" t="s">
         <v>56</v>
       </c>
       <c r="X6" s="6" t="s">
@@ -1732,7 +1760,7 @@
       <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Z6" s="14"/>
+      <c r="Z6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
       <c r="C7" s="7">
@@ -1793,7 +1821,7 @@
       <c r="V7">
         <v>100</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="13" t="s">
         <v>61</v>
       </c>
       <c r="X7" s="6" t="s">
@@ -1802,7 +1830,7 @@
       <c r="Y7">
         <v>2</v>
       </c>
-      <c r="Z7" s="14"/>
+      <c r="Z7" s="15"/>
     </row>
     <row r="8" ht="16.8" spans="3:26">
       <c r="C8" s="7">
@@ -1863,7 +1891,7 @@
       <c r="V8">
         <v>100</v>
       </c>
-      <c r="W8" s="12" t="s">
+      <c r="W8" s="13" t="s">
         <v>66</v>
       </c>
       <c r="X8" s="6" t="s">
@@ -1872,7 +1900,7 @@
       <c r="Y8">
         <v>3</v>
       </c>
-      <c r="Z8" s="14"/>
+      <c r="Z8" s="15"/>
     </row>
     <row r="9" ht="16.8" spans="3:26">
       <c r="C9" s="7">
@@ -1933,7 +1961,7 @@
       <c r="V9">
         <v>100</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="13" t="s">
         <v>71</v>
       </c>
       <c r="X9" s="6" t="s">
@@ -1942,7 +1970,7 @@
       <c r="Y9">
         <v>4</v>
       </c>
-      <c r="Z9" s="14"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" ht="16.8" spans="3:26">
       <c r="C10" s="7">
@@ -2003,7 +2031,7 @@
       <c r="V10">
         <v>100</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="13" t="s">
         <v>76</v>
       </c>
       <c r="X10" s="6" t="s">
@@ -2012,7 +2040,7 @@
       <c r="Y10">
         <v>1</v>
       </c>
-      <c r="Z10" s="14"/>
+      <c r="Z10" s="15"/>
     </row>
     <row r="11" ht="16.8" spans="3:26">
       <c r="C11" s="7">
@@ -2073,7 +2101,7 @@
       <c r="V11">
         <v>100</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="W11" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X11" s="6" t="s">
@@ -2082,7 +2110,7 @@
       <c r="Y11">
         <v>2</v>
       </c>
-      <c r="Z11" s="14"/>
+      <c r="Z11" s="15"/>
     </row>
     <row r="12" ht="16.8" spans="3:26">
       <c r="C12" s="7">
@@ -2143,7 +2171,7 @@
       <c r="V12">
         <v>100</v>
       </c>
-      <c r="W12" s="12" t="s">
+      <c r="W12" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X12" s="6" t="s">
@@ -2152,7 +2180,7 @@
       <c r="Y12">
         <v>2</v>
       </c>
-      <c r="Z12" s="14"/>
+      <c r="Z12" s="15"/>
     </row>
     <row r="13" ht="16.8" spans="3:26">
       <c r="C13" s="7">
@@ -2215,7 +2243,7 @@
       <c r="V13">
         <v>100</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="W13" s="13" t="s">
         <v>90</v>
       </c>
       <c r="X13" s="6" t="s">
@@ -2224,7 +2252,7 @@
       <c r="Y13">
         <v>2</v>
       </c>
-      <c r="Z13" s="14"/>
+      <c r="Z13" s="15"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="16.8" spans="3:25">
       <c r="C14" s="8">
@@ -2269,28 +2297,28 @@
       <c r="P14" s="8">
         <v>100</v>
       </c>
-      <c r="Q14" s="11">
-        <v>100</v>
-      </c>
-      <c r="R14" s="11">
+      <c r="Q14" s="12">
+        <v>100</v>
+      </c>
+      <c r="R14" s="12">
         <v>1.2</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="12">
         <v>1</v>
       </c>
-      <c r="T14" s="11">
-        <v>10</v>
-      </c>
-      <c r="U14" s="11">
-        <v>10</v>
-      </c>
-      <c r="V14" s="11">
-        <v>100</v>
-      </c>
-      <c r="W14" s="13" t="s">
+      <c r="T14" s="12">
+        <v>10</v>
+      </c>
+      <c r="U14" s="12">
+        <v>10</v>
+      </c>
+      <c r="V14" s="12">
+        <v>100</v>
+      </c>
+      <c r="W14" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="X14" s="12" t="s">
         <v>91</v>
       </c>
       <c r="Y14" s="2">
@@ -2356,7 +2384,7 @@
       <c r="V15">
         <v>100</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="W15" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X15" t="s">
@@ -2425,7 +2453,7 @@
       <c r="V16">
         <v>100</v>
       </c>
-      <c r="W16" s="12" t="s">
+      <c r="W16" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X16" t="s">
@@ -2494,7 +2522,7 @@
       <c r="V17">
         <v>100</v>
       </c>
-      <c r="W17" s="12" t="s">
+      <c r="W17" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X17" t="s">
@@ -2563,8 +2591,8 @@
       <c r="V18">
         <v>100</v>
       </c>
-      <c r="W18" s="12" t="s">
-        <v>81</v>
+      <c r="W18" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="X18" t="s">
         <v>105</v>
@@ -2578,13 +2606,13 @@
         <v>100020</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G19" s="7">
         <v>6</v>
@@ -2632,11 +2660,11 @@
       <c r="V19">
         <v>100</v>
       </c>
-      <c r="W19" s="12" t="s">
+      <c r="W19" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y19" s="3">
         <v>2</v>
@@ -2647,13 +2675,13 @@
         <v>100021</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7">
         <v>6</v>
@@ -2701,29 +2729,84 @@
       <c r="V20">
         <v>100</v>
       </c>
-      <c r="W20" s="12" t="s">
+      <c r="W20" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:16">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+    <row r="21" ht="16.8" spans="3:25">
+      <c r="C21" s="7">
+        <v>100022</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6</v>
+      </c>
+      <c r="H21" s="7">
+        <v>5</v>
+      </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="J21" s="7">
+        <v>300</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>3</v>
+      </c>
+      <c r="M21" s="7">
+        <v>50</v>
+      </c>
+      <c r="N21" s="7">
+        <v>100</v>
+      </c>
+      <c r="O21" s="7">
+        <v>100</v>
+      </c>
+      <c r="P21" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>1.2</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <v>100</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="7"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>c</t>
   </si>
@@ -341,6 +341,12 @@
     <t>赫斯缇雅</t>
   </si>
   <si>
+    <t>火，红色</t>
+  </si>
+  <si>
+    <t>1000037,1000038,1000039,1000040</t>
+  </si>
+  <si>
     <t>Lykaon</t>
   </si>
   <si>
@@ -394,12 +400,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +416,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -429,7 +441,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="5" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,31 +507,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,16 +538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,7 +547,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,54 +585,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,12 +607,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,187 +649,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,11 +831,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,15 +860,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,17 +879,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,191 +928,170 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1065,23 +1101,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1435,302 +1524,302 @@
   <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="$A18:$XFD18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.6346153846154" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.7307692307692" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.6346153846154" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.0865384615385" style="3" customWidth="1"/>
-    <col min="6" max="12" width="12.6346153846154" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.7307692307692" style="4" customWidth="1"/>
-    <col min="14" max="14" width="15.3653846153846" style="4" customWidth="1"/>
-    <col min="15" max="16" width="13.0865384615385" style="4" customWidth="1"/>
-    <col min="17" max="17" width="17.5384615384615" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9" style="3"/>
-    <col min="19" max="21" width="15.0865384615385" style="3" customWidth="1"/>
-    <col min="22" max="22" width="16" style="3" customWidth="1"/>
-    <col min="23" max="23" width="35.1826923076923" style="3" customWidth="1"/>
-    <col min="24" max="24" width="14.6346153846154" style="3" customWidth="1"/>
-    <col min="25" max="25" width="34.7307692307692" style="3" customWidth="1"/>
-    <col min="26" max="26" width="26.8173076923077" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="28.6346153846154" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="8" customWidth="1"/>
+    <col min="3" max="4" width="12.6346153846154" style="9" customWidth="1"/>
+    <col min="5" max="5" width="33.0865384615385" style="8" customWidth="1"/>
+    <col min="6" max="12" width="12.6346153846154" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.7307692307692" style="9" customWidth="1"/>
+    <col min="14" max="14" width="15.3653846153846" style="9" customWidth="1"/>
+    <col min="15" max="16" width="13.0865384615385" style="9" customWidth="1"/>
+    <col min="17" max="17" width="17.5384615384615" style="8" customWidth="1"/>
+    <col min="18" max="18" width="9" style="8"/>
+    <col min="19" max="21" width="15.0865384615385" style="8" customWidth="1"/>
+    <col min="22" max="22" width="16" style="8" customWidth="1"/>
+    <col min="23" max="23" width="35.1826923076923" style="8" customWidth="1"/>
+    <col min="24" max="24" width="14.6346153846154" style="8" customWidth="1"/>
+    <col min="25" max="25" width="34.7307692307692" style="8" customWidth="1"/>
+    <col min="26" max="26" width="26.8173076923077" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:24">
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="3:26">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="17" spans="1:26">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="12">
         <v>100001</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="12">
         <v>6</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
         <v>300</v>
       </c>
-      <c r="K6" s="7">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="K6" s="12">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12">
         <v>3</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="12">
         <v>50</v>
       </c>
-      <c r="N6" s="7">
-        <v>100</v>
-      </c>
-      <c r="O6" s="7">
-        <v>100</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="12">
+        <v>100</v>
+      </c>
+      <c r="O6" s="12">
+        <v>100</v>
+      </c>
+      <c r="P6" s="12">
         <v>100</v>
       </c>
       <c r="Q6">
@@ -1751,56 +1840,56 @@
       <c r="V6">
         <v>100</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="11" t="s">
         <v>57</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Z6" s="15"/>
+      <c r="Z6" s="40"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C7" s="7">
+      <c r="C7" s="12">
         <v>100002</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="12">
         <v>6</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12">
         <v>300</v>
       </c>
-      <c r="K7" s="7">
-        <v>2</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="K7" s="12">
+        <v>2</v>
+      </c>
+      <c r="L7" s="12">
         <v>3</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="12">
         <v>50</v>
       </c>
-      <c r="N7" s="7">
-        <v>100</v>
-      </c>
-      <c r="O7" s="7">
-        <v>100</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="12">
+        <v>100</v>
+      </c>
+      <c r="O7" s="12">
+        <v>100</v>
+      </c>
+      <c r="P7" s="12">
         <v>100</v>
       </c>
       <c r="Q7">
@@ -1821,56 +1910,56 @@
       <c r="V7">
         <v>100</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="11" t="s">
         <v>62</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
-      <c r="Z7" s="15"/>
+      <c r="Z7" s="40"/>
     </row>
     <row r="8" ht="16.8" spans="3:26">
-      <c r="C8" s="7">
+      <c r="C8" s="12">
         <v>100003</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="12">
         <v>6</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="12">
         <v>3</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
         <v>300</v>
       </c>
-      <c r="K8" s="7">
-        <v>2</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="K8" s="12">
+        <v>2</v>
+      </c>
+      <c r="L8" s="12">
         <v>3</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="12">
         <v>50</v>
       </c>
-      <c r="N8" s="7">
-        <v>100</v>
-      </c>
-      <c r="O8" s="7">
-        <v>100</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="12">
+        <v>100</v>
+      </c>
+      <c r="O8" s="12">
+        <v>100</v>
+      </c>
+      <c r="P8" s="12">
         <v>100</v>
       </c>
       <c r="Q8">
@@ -1891,56 +1980,56 @@
       <c r="V8">
         <v>100</v>
       </c>
-      <c r="W8" s="13" t="s">
+      <c r="W8" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="11" t="s">
         <v>67</v>
       </c>
       <c r="Y8">
         <v>3</v>
       </c>
-      <c r="Z8" s="15"/>
+      <c r="Z8" s="40"/>
     </row>
     <row r="9" ht="16.8" spans="3:26">
-      <c r="C9" s="7">
+      <c r="C9" s="12">
         <v>100004</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="12">
         <v>6</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="12">
         <v>4</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12">
         <v>300</v>
       </c>
-      <c r="K9" s="7">
-        <v>2</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="K9" s="12">
+        <v>2</v>
+      </c>
+      <c r="L9" s="12">
         <v>3</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="12">
         <v>50</v>
       </c>
-      <c r="N9" s="7">
-        <v>100</v>
-      </c>
-      <c r="O9" s="7">
-        <v>100</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="12">
+        <v>100</v>
+      </c>
+      <c r="O9" s="12">
+        <v>100</v>
+      </c>
+      <c r="P9" s="12">
         <v>100</v>
       </c>
       <c r="Q9">
@@ -1961,126 +2050,126 @@
       <c r="V9">
         <v>100</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="X9" s="11" t="s">
         <v>72</v>
       </c>
       <c r="Y9">
         <v>4</v>
       </c>
-      <c r="Z9" s="15"/>
+      <c r="Z9" s="40"/>
     </row>
-    <row r="10" ht="16.8" spans="3:26">
-      <c r="C10" s="7">
+    <row r="10" s="2" customFormat="1" ht="16.8" spans="3:26">
+      <c r="C10" s="13">
         <v>100005</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="13">
         <v>6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="13">
         <v>5</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13">
         <v>300</v>
       </c>
-      <c r="K10" s="7">
-        <v>2</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K10" s="13">
+        <v>2</v>
+      </c>
+      <c r="L10" s="13">
         <v>3</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="13">
         <v>50</v>
       </c>
-      <c r="N10" s="7">
-        <v>100</v>
-      </c>
-      <c r="O10" s="7">
-        <v>100</v>
-      </c>
-      <c r="P10" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q10">
-        <v>100</v>
-      </c>
-      <c r="R10">
+      <c r="N10" s="13">
+        <v>100</v>
+      </c>
+      <c r="O10" s="13">
+        <v>100</v>
+      </c>
+      <c r="P10" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>100</v>
+      </c>
+      <c r="R10" s="24">
         <v>1.2</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="24">
         <v>1</v>
       </c>
-      <c r="T10">
-        <v>10</v>
-      </c>
-      <c r="U10">
-        <v>10</v>
-      </c>
-      <c r="V10">
-        <v>100</v>
-      </c>
-      <c r="W10" s="13" t="s">
+      <c r="T10" s="24">
+        <v>10</v>
+      </c>
+      <c r="U10" s="24">
+        <v>10</v>
+      </c>
+      <c r="V10" s="24">
+        <v>100</v>
+      </c>
+      <c r="W10" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="X10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="24">
         <v>1</v>
       </c>
-      <c r="Z10" s="15"/>
+      <c r="Z10" s="41"/>
     </row>
     <row r="11" ht="16.8" spans="3:26">
-      <c r="C11" s="7">
+      <c r="C11" s="12">
         <v>100006</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="12">
         <v>6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
         <v>300</v>
       </c>
-      <c r="K11" s="7">
-        <v>2</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="K11" s="12">
+        <v>2</v>
+      </c>
+      <c r="L11" s="12">
         <v>3</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="12">
         <v>50</v>
       </c>
-      <c r="N11" s="7">
-        <v>100</v>
-      </c>
-      <c r="O11" s="7">
-        <v>100</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="12">
+        <v>100</v>
+      </c>
+      <c r="O11" s="12">
+        <v>100</v>
+      </c>
+      <c r="P11" s="12">
         <v>100</v>
       </c>
       <c r="Q11">
@@ -2101,269 +2190,269 @@
       <c r="V11">
         <v>100</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="X11" s="11" t="s">
         <v>82</v>
       </c>
       <c r="Y11">
         <v>2</v>
       </c>
-      <c r="Z11" s="15"/>
+      <c r="Z11" s="40"/>
     </row>
-    <row r="12" ht="16.8" spans="3:26">
-      <c r="C12" s="7">
+    <row r="12" s="3" customFormat="1" ht="16.8" spans="3:26">
+      <c r="C12" s="14">
         <v>100013</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="14">
         <v>6</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="14">
         <v>5</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14">
         <v>300</v>
       </c>
-      <c r="K12" s="7">
-        <v>2</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="K12" s="14">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14">
         <v>3</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="14">
         <v>50</v>
       </c>
-      <c r="N12" s="7">
-        <v>100</v>
-      </c>
-      <c r="O12" s="7">
-        <v>100</v>
-      </c>
-      <c r="P12" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q12">
-        <v>100</v>
-      </c>
-      <c r="R12">
+      <c r="N12" s="14">
+        <v>100</v>
+      </c>
+      <c r="O12" s="14">
+        <v>100</v>
+      </c>
+      <c r="P12" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>100</v>
+      </c>
+      <c r="R12" s="25">
         <v>1.2</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="25">
         <v>1</v>
       </c>
-      <c r="T12">
-        <v>10</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
-        <v>100</v>
-      </c>
-      <c r="W12" s="13" t="s">
+      <c r="T12" s="25">
+        <v>10</v>
+      </c>
+      <c r="U12" s="25">
+        <v>10</v>
+      </c>
+      <c r="V12" s="25">
+        <v>100</v>
+      </c>
+      <c r="W12" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="X12" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="Y12">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="15"/>
+      <c r="Y12" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="42"/>
     </row>
-    <row r="13" ht="16.8" spans="3:26">
-      <c r="C13" s="7">
+    <row r="13" s="4" customFormat="1" ht="16.8" spans="3:26">
+      <c r="C13" s="15">
         <v>100014</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="15">
         <v>6</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="15">
         <v>3</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="15">
         <v>300</v>
       </c>
-      <c r="K13" s="7">
-        <v>2</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="K13" s="15">
+        <v>2</v>
+      </c>
+      <c r="L13" s="15">
         <v>3</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="15">
         <v>50</v>
       </c>
-      <c r="N13" s="7">
-        <v>100</v>
-      </c>
-      <c r="O13" s="7">
-        <v>100</v>
-      </c>
-      <c r="P13" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q13">
-        <v>100</v>
-      </c>
-      <c r="R13">
+      <c r="N13" s="15">
+        <v>100</v>
+      </c>
+      <c r="O13" s="15">
+        <v>100</v>
+      </c>
+      <c r="P13" s="15">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>100</v>
+      </c>
+      <c r="R13" s="26">
         <v>1.2</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="26">
         <v>1</v>
       </c>
-      <c r="T13">
-        <v>10</v>
-      </c>
-      <c r="U13">
-        <v>10</v>
-      </c>
-      <c r="V13">
-        <v>100</v>
-      </c>
-      <c r="W13" s="13" t="s">
+      <c r="T13" s="26">
+        <v>10</v>
+      </c>
+      <c r="U13" s="26">
+        <v>10</v>
+      </c>
+      <c r="V13" s="26">
+        <v>100</v>
+      </c>
+      <c r="W13" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="15"/>
+      <c r="Y13" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="43"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="16.8" spans="3:25">
-      <c r="C14" s="8">
+    <row r="14" s="5" customFormat="1" ht="16.8" spans="3:25">
+      <c r="C14" s="16">
         <v>100015</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="16">
         <v>6</v>
       </c>
-      <c r="H14" s="8">
-        <v>2</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="16">
+        <v>2</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="16">
         <v>300</v>
       </c>
-      <c r="K14" s="8">
-        <v>2</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="K14" s="16">
+        <v>2</v>
+      </c>
+      <c r="L14" s="16">
         <v>3</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="16">
         <v>50</v>
       </c>
-      <c r="N14" s="8">
-        <v>100</v>
-      </c>
-      <c r="O14" s="8">
-        <v>100</v>
-      </c>
-      <c r="P14" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>100</v>
-      </c>
-      <c r="R14" s="12">
+      <c r="N14" s="16">
+        <v>100</v>
+      </c>
+      <c r="O14" s="16">
+        <v>100</v>
+      </c>
+      <c r="P14" s="16">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>100</v>
+      </c>
+      <c r="R14" s="27">
         <v>1.2</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="27">
         <v>1</v>
       </c>
-      <c r="T14" s="12">
-        <v>10</v>
-      </c>
-      <c r="U14" s="12">
-        <v>10</v>
-      </c>
-      <c r="V14" s="12">
-        <v>100</v>
-      </c>
-      <c r="W14" s="14" t="s">
+      <c r="T14" s="27">
+        <v>10</v>
+      </c>
+      <c r="U14" s="27">
+        <v>10</v>
+      </c>
+      <c r="V14" s="27">
+        <v>100</v>
+      </c>
+      <c r="W14" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="X14" s="12" t="s">
+      <c r="X14" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="16.8" spans="3:25">
-      <c r="C15" s="7">
+      <c r="C15" s="12">
         <v>100016</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="12">
         <v>6</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="12">
         <v>5</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
         <v>300</v>
       </c>
-      <c r="K15" s="7">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="K15" s="12">
+        <v>2</v>
+      </c>
+      <c r="L15" s="12">
         <v>3</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="12">
         <v>50</v>
       </c>
-      <c r="N15" s="7">
-        <v>100</v>
-      </c>
-      <c r="O15" s="7">
-        <v>100</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="12">
+        <v>100</v>
+      </c>
+      <c r="O15" s="12">
+        <v>100</v>
+      </c>
+      <c r="P15" s="12">
         <v>100</v>
       </c>
       <c r="Q15">
@@ -2384,124 +2473,126 @@
       <c r="V15">
         <v>100</v>
       </c>
-      <c r="W15" s="13" t="s">
+      <c r="W15" s="30" t="s">
         <v>81</v>
       </c>
       <c r="X15" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="3:25">
-      <c r="C16" s="7">
+    <row r="16" s="6" customFormat="1" ht="16.8" spans="3:25">
+      <c r="C16" s="17">
         <v>100017</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="17">
         <v>6</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7">
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="17">
         <v>300</v>
       </c>
-      <c r="K16" s="7">
-        <v>2</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="K16" s="17">
+        <v>2</v>
+      </c>
+      <c r="L16" s="17">
         <v>3</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="17">
         <v>50</v>
       </c>
-      <c r="N16" s="7">
-        <v>100</v>
-      </c>
-      <c r="O16" s="7">
-        <v>100</v>
-      </c>
-      <c r="P16" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q16">
-        <v>100</v>
-      </c>
-      <c r="R16">
+      <c r="N16" s="17">
+        <v>100</v>
+      </c>
+      <c r="O16" s="17">
+        <v>100</v>
+      </c>
+      <c r="P16" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>100</v>
+      </c>
+      <c r="R16" s="28">
         <v>1.2</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="28">
         <v>1</v>
       </c>
-      <c r="T16">
-        <v>10</v>
-      </c>
-      <c r="U16">
-        <v>10</v>
-      </c>
-      <c r="V16">
-        <v>100</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="T16" s="28">
+        <v>10</v>
+      </c>
+      <c r="U16" s="28">
+        <v>10</v>
+      </c>
+      <c r="V16" s="28">
+        <v>100</v>
+      </c>
+      <c r="W16" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="X16" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="16.8" spans="3:25">
-      <c r="C17" s="7">
+      <c r="C17" s="12">
         <v>100018</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="7">
+      <c r="E17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="12">
         <v>6</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="12">
         <v>5</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
         <v>300</v>
       </c>
-      <c r="K17" s="7">
-        <v>2</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="12">
         <v>3</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="12">
         <v>50</v>
       </c>
-      <c r="N17" s="7">
-        <v>100</v>
-      </c>
-      <c r="O17" s="7">
-        <v>100</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="N17" s="12">
+        <v>100</v>
+      </c>
+      <c r="O17" s="12">
+        <v>100</v>
+      </c>
+      <c r="P17" s="12">
         <v>100</v>
       </c>
       <c r="Q17">
@@ -2522,124 +2613,124 @@
       <c r="V17">
         <v>100</v>
       </c>
-      <c r="W17" s="13" t="s">
+      <c r="W17" s="30" t="s">
         <v>81</v>
       </c>
       <c r="X17" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y17" s="3">
+        <v>104</v>
+      </c>
+      <c r="Y17" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="16.8" spans="3:25">
-      <c r="C18" s="7">
+    <row r="18" s="7" customFormat="1" ht="16.8" spans="3:25">
+      <c r="C18" s="18">
         <v>100019</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="D18" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="7">
+      <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="18">
         <v>6</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="18">
         <v>5</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
         <v>300</v>
       </c>
-      <c r="K18" s="7">
-        <v>2</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="K18" s="18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="18">
         <v>3</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="18">
         <v>50</v>
       </c>
-      <c r="N18" s="7">
-        <v>100</v>
-      </c>
-      <c r="O18" s="7">
-        <v>100</v>
-      </c>
-      <c r="P18" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q18">
-        <v>100</v>
-      </c>
-      <c r="R18">
+      <c r="N18" s="18">
+        <v>100</v>
+      </c>
+      <c r="O18" s="18">
+        <v>100</v>
+      </c>
+      <c r="P18" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>100</v>
+      </c>
+      <c r="R18" s="29">
         <v>1.2</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="29">
         <v>1</v>
       </c>
-      <c r="T18">
-        <v>10</v>
-      </c>
-      <c r="U18">
-        <v>10</v>
-      </c>
-      <c r="V18">
-        <v>100</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="X18" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="T18" s="29">
+        <v>10</v>
+      </c>
+      <c r="U18" s="29">
+        <v>10</v>
+      </c>
+      <c r="V18" s="29">
+        <v>100</v>
+      </c>
+      <c r="W18" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="X18" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y18" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="3:25">
-      <c r="C19" s="7">
+      <c r="C19" s="12">
         <v>100020</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="7">
+      <c r="E19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="12">
         <v>6</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="12">
         <v>5</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12">
         <v>300</v>
       </c>
-      <c r="K19" s="7">
-        <v>2</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="K19" s="12">
+        <v>2</v>
+      </c>
+      <c r="L19" s="12">
         <v>3</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="12">
         <v>50</v>
       </c>
-      <c r="N19" s="7">
-        <v>100</v>
-      </c>
-      <c r="O19" s="7">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="N19" s="12">
+        <v>100</v>
+      </c>
+      <c r="O19" s="12">
+        <v>100</v>
+      </c>
+      <c r="P19" s="12">
         <v>100</v>
       </c>
       <c r="Q19">
@@ -2660,55 +2751,55 @@
       <c r="V19">
         <v>100</v>
       </c>
-      <c r="W19" s="13" t="s">
+      <c r="W19" s="30" t="s">
         <v>81</v>
       </c>
       <c r="X19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y19" s="3">
+        <v>111</v>
+      </c>
+      <c r="Y19" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="20" ht="16.8" spans="3:25">
-      <c r="C20" s="7">
+      <c r="C20" s="12">
         <v>100021</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="D20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="7">
+      <c r="E20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="12">
         <v>6</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="12">
         <v>5</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12">
         <v>300</v>
       </c>
-      <c r="K20" s="7">
-        <v>2</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="K20" s="12">
+        <v>2</v>
+      </c>
+      <c r="L20" s="12">
         <v>3</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="12">
         <v>50</v>
       </c>
-      <c r="N20" s="7">
-        <v>100</v>
-      </c>
-      <c r="O20" s="7">
-        <v>100</v>
-      </c>
-      <c r="P20" s="7">
+      <c r="N20" s="12">
+        <v>100</v>
+      </c>
+      <c r="O20" s="12">
+        <v>100</v>
+      </c>
+      <c r="P20" s="12">
         <v>100</v>
       </c>
       <c r="Q20">
@@ -2729,55 +2820,55 @@
       <c r="V20">
         <v>100</v>
       </c>
-      <c r="W20" s="13" t="s">
+      <c r="W20" s="30" t="s">
         <v>81</v>
       </c>
       <c r="X20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y20" s="3">
+        <v>114</v>
+      </c>
+      <c r="Y20" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="16.8" spans="3:25">
-      <c r="C21" s="7">
+      <c r="C21" s="12">
         <v>100022</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="7">
+      <c r="E21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="12">
         <v>6</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="12">
         <v>5</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12">
         <v>300</v>
       </c>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="K21" s="12">
+        <v>2</v>
+      </c>
+      <c r="L21" s="12">
         <v>3</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="12">
         <v>50</v>
       </c>
-      <c r="N21" s="7">
-        <v>100</v>
-      </c>
-      <c r="O21" s="7">
-        <v>100</v>
-      </c>
-      <c r="P21" s="7">
+      <c r="N21" s="12">
+        <v>100</v>
+      </c>
+      <c r="O21" s="12">
+        <v>100</v>
+      </c>
+      <c r="P21" s="12">
         <v>100</v>
       </c>
       <c r="Q21">
@@ -2798,61 +2889,61 @@
       <c r="V21">
         <v>100</v>
       </c>
-      <c r="W21" s="13" t="s">
+      <c r="W21" s="30" t="s">
         <v>81</v>
       </c>
       <c r="X21" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y21" s="3">
+        <v>117</v>
+      </c>
+      <c r="Y21" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="3:16">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="3:16">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t>c</t>
   </si>
@@ -356,6 +356,9 @@
     <t>莱卡翁</t>
   </si>
   <si>
+    <t>1000041,1000042,1000043,1000044</t>
+  </si>
+  <si>
     <t>Athena</t>
   </si>
   <si>
@@ -400,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -455,37 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,6 +477,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,6 +542,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -545,14 +564,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -569,23 +588,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +640,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -649,25 +658,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,145 +784,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,17 +840,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,8 +861,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,22 +908,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,170 +937,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,12 +1095,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1113,6 +1123,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1128,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1136,6 +1149,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1156,6 +1170,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1524,302 +1541,302 @@
   <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.6346153846154" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.7307692307692" style="8" customWidth="1"/>
-    <col min="3" max="4" width="12.6346153846154" style="9" customWidth="1"/>
-    <col min="5" max="5" width="33.0865384615385" style="8" customWidth="1"/>
-    <col min="6" max="12" width="12.6346153846154" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.7307692307692" style="9" customWidth="1"/>
-    <col min="14" max="14" width="15.3653846153846" style="9" customWidth="1"/>
-    <col min="15" max="16" width="13.0865384615385" style="9" customWidth="1"/>
-    <col min="17" max="17" width="17.5384615384615" style="8" customWidth="1"/>
-    <col min="18" max="18" width="9" style="8"/>
-    <col min="19" max="21" width="15.0865384615385" style="8" customWidth="1"/>
-    <col min="22" max="22" width="16" style="8" customWidth="1"/>
-    <col min="23" max="23" width="35.1826923076923" style="8" customWidth="1"/>
-    <col min="24" max="24" width="14.6346153846154" style="8" customWidth="1"/>
-    <col min="25" max="25" width="34.7307692307692" style="8" customWidth="1"/>
-    <col min="26" max="26" width="26.8173076923077" style="8" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="28.6346153846154" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="9" customWidth="1"/>
+    <col min="3" max="4" width="12.6346153846154" style="10" customWidth="1"/>
+    <col min="5" max="5" width="33.0865384615385" style="9" customWidth="1"/>
+    <col min="6" max="12" width="12.6346153846154" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.7307692307692" style="10" customWidth="1"/>
+    <col min="14" max="14" width="15.3653846153846" style="10" customWidth="1"/>
+    <col min="15" max="16" width="13.0865384615385" style="10" customWidth="1"/>
+    <col min="17" max="17" width="17.5384615384615" style="9" customWidth="1"/>
+    <col min="18" max="18" width="9" style="9"/>
+    <col min="19" max="21" width="15.0865384615385" style="9" customWidth="1"/>
+    <col min="22" max="22" width="16" style="9" customWidth="1"/>
+    <col min="23" max="23" width="35.1826923076923" style="9" customWidth="1"/>
+    <col min="24" max="24" width="14.6346153846154" style="9" customWidth="1"/>
+    <col min="25" max="25" width="34.7307692307692" style="9" customWidth="1"/>
+    <col min="26" max="26" width="26.8173076923077" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:24">
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="3:26">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="17" spans="1:26">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>100001</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <v>6</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
         <v>300</v>
       </c>
-      <c r="K6" s="12">
-        <v>2</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="K6" s="13">
+        <v>2</v>
+      </c>
+      <c r="L6" s="13">
         <v>3</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="13">
         <v>50</v>
       </c>
-      <c r="N6" s="12">
-        <v>100</v>
-      </c>
-      <c r="O6" s="12">
-        <v>100</v>
-      </c>
-      <c r="P6" s="12">
+      <c r="N6" s="13">
+        <v>100</v>
+      </c>
+      <c r="O6" s="13">
+        <v>100</v>
+      </c>
+      <c r="P6" s="13">
         <v>100</v>
       </c>
       <c r="Q6">
@@ -1840,56 +1857,56 @@
       <c r="V6">
         <v>100</v>
       </c>
-      <c r="W6" s="30" t="s">
+      <c r="W6" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="12" t="s">
         <v>57</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Z6" s="40"/>
+      <c r="Z6" s="44"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>100002</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>6</v>
       </c>
-      <c r="H7" s="12">
-        <v>2</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12">
+      <c r="H7" s="13">
+        <v>2</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13">
         <v>300</v>
       </c>
-      <c r="K7" s="12">
-        <v>2</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="K7" s="13">
+        <v>2</v>
+      </c>
+      <c r="L7" s="13">
         <v>3</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="13">
         <v>50</v>
       </c>
-      <c r="N7" s="12">
-        <v>100</v>
-      </c>
-      <c r="O7" s="12">
-        <v>100</v>
-      </c>
-      <c r="P7" s="12">
+      <c r="N7" s="13">
+        <v>100</v>
+      </c>
+      <c r="O7" s="13">
+        <v>100</v>
+      </c>
+      <c r="P7" s="13">
         <v>100</v>
       </c>
       <c r="Q7">
@@ -1910,56 +1927,56 @@
       <c r="V7">
         <v>100</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="12" t="s">
         <v>62</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
-      <c r="Z7" s="40"/>
+      <c r="Z7" s="44"/>
     </row>
     <row r="8" ht="16.8" spans="3:26">
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>100003</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>6</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>3</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
         <v>300</v>
       </c>
-      <c r="K8" s="12">
-        <v>2</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="K8" s="13">
+        <v>2</v>
+      </c>
+      <c r="L8" s="13">
         <v>3</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="13">
         <v>50</v>
       </c>
-      <c r="N8" s="12">
-        <v>100</v>
-      </c>
-      <c r="O8" s="12">
-        <v>100</v>
-      </c>
-      <c r="P8" s="12">
+      <c r="N8" s="13">
+        <v>100</v>
+      </c>
+      <c r="O8" s="13">
+        <v>100</v>
+      </c>
+      <c r="P8" s="13">
         <v>100</v>
       </c>
       <c r="Q8">
@@ -1980,56 +1997,56 @@
       <c r="V8">
         <v>100</v>
       </c>
-      <c r="W8" s="30" t="s">
+      <c r="W8" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" s="12" t="s">
         <v>67</v>
       </c>
       <c r="Y8">
         <v>3</v>
       </c>
-      <c r="Z8" s="40"/>
+      <c r="Z8" s="44"/>
     </row>
     <row r="9" ht="16.8" spans="3:26">
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>100004</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>6</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>4</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
         <v>300</v>
       </c>
-      <c r="K9" s="12">
-        <v>2</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="13">
+        <v>2</v>
+      </c>
+      <c r="L9" s="13">
         <v>3</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <v>50</v>
       </c>
-      <c r="N9" s="12">
-        <v>100</v>
-      </c>
-      <c r="O9" s="12">
-        <v>100</v>
-      </c>
-      <c r="P9" s="12">
+      <c r="N9" s="13">
+        <v>100</v>
+      </c>
+      <c r="O9" s="13">
+        <v>100</v>
+      </c>
+      <c r="P9" s="13">
         <v>100</v>
       </c>
       <c r="Q9">
@@ -2050,126 +2067,126 @@
       <c r="V9">
         <v>100</v>
       </c>
-      <c r="W9" s="30" t="s">
+      <c r="W9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="12" t="s">
         <v>72</v>
       </c>
       <c r="Y9">
         <v>4</v>
       </c>
-      <c r="Z9" s="40"/>
+      <c r="Z9" s="44"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>100005</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <v>6</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <v>5</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14">
         <v>300</v>
       </c>
-      <c r="K10" s="13">
-        <v>2</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="K10" s="14">
+        <v>2</v>
+      </c>
+      <c r="L10" s="14">
         <v>3</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="14">
         <v>50</v>
       </c>
-      <c r="N10" s="13">
-        <v>100</v>
-      </c>
-      <c r="O10" s="13">
-        <v>100</v>
-      </c>
-      <c r="P10" s="13">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>100</v>
-      </c>
-      <c r="R10" s="24">
+      <c r="N10" s="14">
+        <v>100</v>
+      </c>
+      <c r="O10" s="14">
+        <v>100</v>
+      </c>
+      <c r="P10" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>100</v>
+      </c>
+      <c r="R10" s="26">
         <v>1.2</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="26">
         <v>1</v>
       </c>
-      <c r="T10" s="24">
-        <v>10</v>
-      </c>
-      <c r="U10" s="24">
-        <v>10</v>
-      </c>
-      <c r="V10" s="24">
-        <v>100</v>
-      </c>
-      <c r="W10" s="31" t="s">
+      <c r="T10" s="26">
+        <v>10</v>
+      </c>
+      <c r="U10" s="26">
+        <v>10</v>
+      </c>
+      <c r="V10" s="26">
+        <v>100</v>
+      </c>
+      <c r="W10" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="32" t="s">
+      <c r="X10" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="Y10" s="24">
+      <c r="Y10" s="26">
         <v>1</v>
       </c>
-      <c r="Z10" s="41"/>
+      <c r="Z10" s="45"/>
     </row>
     <row r="11" ht="16.8" spans="3:26">
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>100006</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <v>6</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
         <v>300</v>
       </c>
-      <c r="K11" s="12">
-        <v>2</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="K11" s="13">
+        <v>2</v>
+      </c>
+      <c r="L11" s="13">
         <v>3</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="13">
         <v>50</v>
       </c>
-      <c r="N11" s="12">
-        <v>100</v>
-      </c>
-      <c r="O11" s="12">
-        <v>100</v>
-      </c>
-      <c r="P11" s="12">
+      <c r="N11" s="13">
+        <v>100</v>
+      </c>
+      <c r="O11" s="13">
+        <v>100</v>
+      </c>
+      <c r="P11" s="13">
         <v>100</v>
       </c>
       <c r="Q11">
@@ -2190,224 +2207,224 @@
       <c r="V11">
         <v>100</v>
       </c>
-      <c r="W11" s="30" t="s">
+      <c r="W11" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X11" s="12" t="s">
         <v>82</v>
       </c>
       <c r="Y11">
         <v>2</v>
       </c>
-      <c r="Z11" s="40"/>
+      <c r="Z11" s="44"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C12" s="14">
+      <c r="C12" s="15">
         <v>100013</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="15">
         <v>6</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="15">
         <v>5</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
         <v>300</v>
       </c>
-      <c r="K12" s="14">
-        <v>2</v>
-      </c>
-      <c r="L12" s="14">
+      <c r="K12" s="15">
+        <v>2</v>
+      </c>
+      <c r="L12" s="15">
         <v>3</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="15">
         <v>50</v>
       </c>
-      <c r="N12" s="14">
-        <v>100</v>
-      </c>
-      <c r="O12" s="14">
-        <v>100</v>
-      </c>
-      <c r="P12" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>100</v>
-      </c>
-      <c r="R12" s="25">
+      <c r="N12" s="15">
+        <v>100</v>
+      </c>
+      <c r="O12" s="15">
+        <v>100</v>
+      </c>
+      <c r="P12" s="15">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>100</v>
+      </c>
+      <c r="R12" s="27">
         <v>1.2</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="27">
         <v>1</v>
       </c>
-      <c r="T12" s="25">
-        <v>10</v>
-      </c>
-      <c r="U12" s="25">
-        <v>10</v>
-      </c>
-      <c r="V12" s="25">
-        <v>100</v>
-      </c>
-      <c r="W12" s="33" t="s">
+      <c r="T12" s="27">
+        <v>10</v>
+      </c>
+      <c r="U12" s="27">
+        <v>10</v>
+      </c>
+      <c r="V12" s="27">
+        <v>100</v>
+      </c>
+      <c r="W12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="X12" s="34" t="s">
+      <c r="X12" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="42"/>
+      <c r="Y12" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="46"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C13" s="15">
+      <c r="C13" s="16">
         <v>100014</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="16">
         <v>6</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="16">
         <v>3</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="16">
         <v>300</v>
       </c>
-      <c r="K13" s="15">
-        <v>2</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="K13" s="16">
+        <v>2</v>
+      </c>
+      <c r="L13" s="16">
         <v>3</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="16">
         <v>50</v>
       </c>
-      <c r="N13" s="15">
-        <v>100</v>
-      </c>
-      <c r="O13" s="15">
-        <v>100</v>
-      </c>
-      <c r="P13" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>100</v>
-      </c>
-      <c r="R13" s="26">
+      <c r="N13" s="16">
+        <v>100</v>
+      </c>
+      <c r="O13" s="16">
+        <v>100</v>
+      </c>
+      <c r="P13" s="16">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>100</v>
+      </c>
+      <c r="R13" s="28">
         <v>1.2</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="28">
         <v>1</v>
       </c>
-      <c r="T13" s="26">
-        <v>10</v>
-      </c>
-      <c r="U13" s="26">
-        <v>10</v>
-      </c>
-      <c r="V13" s="26">
-        <v>100</v>
-      </c>
-      <c r="W13" s="35" t="s">
+      <c r="T13" s="28">
+        <v>10</v>
+      </c>
+      <c r="U13" s="28">
+        <v>10</v>
+      </c>
+      <c r="V13" s="28">
+        <v>100</v>
+      </c>
+      <c r="W13" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="X13" s="36" t="s">
+      <c r="X13" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="Y13" s="26">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="43"/>
+      <c r="Y13" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="47"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="16.8" spans="3:25">
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>100015</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="17">
         <v>6</v>
       </c>
-      <c r="H14" s="16">
-        <v>2</v>
-      </c>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="17">
+        <v>2</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="17">
         <v>300</v>
       </c>
-      <c r="K14" s="16">
-        <v>2</v>
-      </c>
-      <c r="L14" s="16">
+      <c r="K14" s="17">
+        <v>2</v>
+      </c>
+      <c r="L14" s="17">
         <v>3</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="17">
         <v>50</v>
       </c>
-      <c r="N14" s="16">
-        <v>100</v>
-      </c>
-      <c r="O14" s="16">
-        <v>100</v>
-      </c>
-      <c r="P14" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>100</v>
-      </c>
-      <c r="R14" s="27">
+      <c r="N14" s="17">
+        <v>100</v>
+      </c>
+      <c r="O14" s="17">
+        <v>100</v>
+      </c>
+      <c r="P14" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>100</v>
+      </c>
+      <c r="R14" s="29">
         <v>1.2</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="29">
         <v>1</v>
       </c>
-      <c r="T14" s="27">
-        <v>10</v>
-      </c>
-      <c r="U14" s="27">
-        <v>10</v>
-      </c>
-      <c r="V14" s="27">
-        <v>100</v>
-      </c>
-      <c r="W14" s="37" t="s">
+      <c r="T14" s="29">
+        <v>10</v>
+      </c>
+      <c r="U14" s="29">
+        <v>10</v>
+      </c>
+      <c r="V14" s="29">
+        <v>100</v>
+      </c>
+      <c r="W14" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="X14" s="27" t="s">
+      <c r="X14" s="29" t="s">
         <v>91</v>
       </c>
       <c r="Y14" s="5">
@@ -2415,44 +2432,44 @@
       </c>
     </row>
     <row r="15" ht="16.8" spans="3:25">
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>100016</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="13">
         <v>6</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="13">
         <v>5</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
         <v>300</v>
       </c>
-      <c r="K15" s="12">
-        <v>2</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="K15" s="13">
+        <v>2</v>
+      </c>
+      <c r="L15" s="13">
         <v>3</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="13">
         <v>50</v>
       </c>
-      <c r="N15" s="12">
-        <v>100</v>
-      </c>
-      <c r="O15" s="12">
-        <v>100</v>
-      </c>
-      <c r="P15" s="12">
+      <c r="N15" s="13">
+        <v>100</v>
+      </c>
+      <c r="O15" s="13">
+        <v>100</v>
+      </c>
+      <c r="P15" s="13">
         <v>100</v>
       </c>
       <c r="Q15">
@@ -2473,264 +2490,266 @@
       <c r="V15">
         <v>100</v>
       </c>
-      <c r="W15" s="30" t="s">
+      <c r="W15" s="33" t="s">
         <v>81</v>
       </c>
       <c r="X15" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="16.8" spans="3:25">
-      <c r="C16" s="17">
+      <c r="C16" s="18">
         <v>100017</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="18">
         <v>6</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="18">
         <v>1</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="18">
         <v>300</v>
       </c>
-      <c r="K16" s="17">
-        <v>2</v>
-      </c>
-      <c r="L16" s="17">
+      <c r="K16" s="18">
+        <v>2</v>
+      </c>
+      <c r="L16" s="18">
         <v>3</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="18">
         <v>50</v>
       </c>
-      <c r="N16" s="17">
-        <v>100</v>
-      </c>
-      <c r="O16" s="17">
-        <v>100</v>
-      </c>
-      <c r="P16" s="17">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="28">
-        <v>100</v>
-      </c>
-      <c r="R16" s="28">
+      <c r="N16" s="18">
+        <v>100</v>
+      </c>
+      <c r="O16" s="18">
+        <v>100</v>
+      </c>
+      <c r="P16" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>100</v>
+      </c>
+      <c r="R16" s="30">
         <v>1.2</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="30">
         <v>1</v>
       </c>
-      <c r="T16" s="28">
-        <v>10</v>
-      </c>
-      <c r="U16" s="28">
-        <v>10</v>
-      </c>
-      <c r="V16" s="28">
-        <v>100</v>
-      </c>
-      <c r="W16" s="38" t="s">
+      <c r="T16" s="30">
+        <v>10</v>
+      </c>
+      <c r="U16" s="30">
+        <v>10</v>
+      </c>
+      <c r="V16" s="30">
+        <v>100</v>
+      </c>
+      <c r="W16" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="X16" s="28" t="s">
+      <c r="X16" s="30" t="s">
         <v>99</v>
       </c>
       <c r="Y16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="3:25">
-      <c r="C17" s="12">
+    <row r="17" s="7" customFormat="1" ht="16.8" spans="3:25">
+      <c r="C17" s="19">
         <v>100018</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="19">
         <v>6</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="19">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="19">
+        <v>300</v>
+      </c>
+      <c r="K17" s="19">
+        <v>2</v>
+      </c>
+      <c r="L17" s="19">
+        <v>3</v>
+      </c>
+      <c r="M17" s="19">
+        <v>50</v>
+      </c>
+      <c r="N17" s="19">
+        <v>100</v>
+      </c>
+      <c r="O17" s="19">
+        <v>100</v>
+      </c>
+      <c r="P17" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>100</v>
+      </c>
+      <c r="R17" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="S17" s="31">
+        <v>1</v>
+      </c>
+      <c r="T17" s="31">
+        <v>10</v>
+      </c>
+      <c r="U17" s="31">
+        <v>10</v>
+      </c>
+      <c r="V17" s="31">
+        <v>100</v>
+      </c>
+      <c r="W17" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="X17" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" ht="16.8" spans="3:25">
+      <c r="C18" s="20">
+        <v>100019</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="20">
+        <v>6</v>
+      </c>
+      <c r="H18" s="20">
         <v>5</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
         <v>300</v>
       </c>
-      <c r="K17" s="12">
-        <v>2</v>
-      </c>
-      <c r="L17" s="12">
+      <c r="K18" s="20">
+        <v>2</v>
+      </c>
+      <c r="L18" s="20">
         <v>3</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M18" s="20">
         <v>50</v>
       </c>
-      <c r="N17" s="12">
-        <v>100</v>
-      </c>
-      <c r="O17" s="12">
-        <v>100</v>
-      </c>
-      <c r="P17" s="12">
-        <v>100</v>
-      </c>
-      <c r="Q17">
-        <v>100</v>
-      </c>
-      <c r="R17">
+      <c r="N18" s="20">
+        <v>100</v>
+      </c>
+      <c r="O18" s="20">
+        <v>100</v>
+      </c>
+      <c r="P18" s="20">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>100</v>
+      </c>
+      <c r="R18" s="32">
         <v>1.2</v>
       </c>
-      <c r="S17">
+      <c r="S18" s="32">
         <v>1</v>
       </c>
-      <c r="T17">
-        <v>10</v>
-      </c>
-      <c r="U17">
-        <v>10</v>
-      </c>
-      <c r="V17">
-        <v>100</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="1" ht="16.8" spans="3:25">
-      <c r="C18" s="18">
-        <v>100019</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="T18" s="32">
+        <v>10</v>
+      </c>
+      <c r="U18" s="32">
+        <v>10</v>
+      </c>
+      <c r="V18" s="32">
+        <v>100</v>
+      </c>
+      <c r="W18" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="X18" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="18">
-        <v>6</v>
-      </c>
-      <c r="H18" s="18">
-        <v>5</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18">
-        <v>300</v>
-      </c>
-      <c r="K18" s="18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="18">
-        <v>3</v>
-      </c>
-      <c r="M18" s="18">
-        <v>50</v>
-      </c>
-      <c r="N18" s="18">
-        <v>100</v>
-      </c>
-      <c r="O18" s="18">
-        <v>100</v>
-      </c>
-      <c r="P18" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>100</v>
-      </c>
-      <c r="R18" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="S18" s="29">
-        <v>1</v>
-      </c>
-      <c r="T18" s="29">
-        <v>10</v>
-      </c>
-      <c r="U18" s="29">
-        <v>10</v>
-      </c>
-      <c r="V18" s="29">
-        <v>100</v>
-      </c>
-      <c r="W18" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="X18" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="3:25">
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>100020</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="12">
+      <c r="F19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="13">
         <v>6</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="13">
         <v>5</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13">
         <v>300</v>
       </c>
-      <c r="K19" s="12">
-        <v>2</v>
-      </c>
-      <c r="L19" s="12">
+      <c r="K19" s="13">
+        <v>2</v>
+      </c>
+      <c r="L19" s="13">
         <v>3</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="13">
         <v>50</v>
       </c>
-      <c r="N19" s="12">
-        <v>100</v>
-      </c>
-      <c r="O19" s="12">
-        <v>100</v>
-      </c>
-      <c r="P19" s="12">
+      <c r="N19" s="13">
+        <v>100</v>
+      </c>
+      <c r="O19" s="13">
+        <v>100</v>
+      </c>
+      <c r="P19" s="13">
         <v>100</v>
       </c>
       <c r="Q19">
@@ -2751,55 +2770,55 @@
       <c r="V19">
         <v>100</v>
       </c>
-      <c r="W19" s="30" t="s">
+      <c r="W19" s="33" t="s">
         <v>81</v>
       </c>
       <c r="X19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y19" s="8">
+        <v>112</v>
+      </c>
+      <c r="Y19" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="20" ht="16.8" spans="3:25">
-      <c r="C20" s="12">
+      <c r="C20" s="13">
         <v>100021</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="12">
+      <c r="F20" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="13">
         <v>6</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="13">
         <v>5</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13">
         <v>300</v>
       </c>
-      <c r="K20" s="12">
-        <v>2</v>
-      </c>
-      <c r="L20" s="12">
+      <c r="K20" s="13">
+        <v>2</v>
+      </c>
+      <c r="L20" s="13">
         <v>3</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="13">
         <v>50</v>
       </c>
-      <c r="N20" s="12">
-        <v>100</v>
-      </c>
-      <c r="O20" s="12">
-        <v>100</v>
-      </c>
-      <c r="P20" s="12">
+      <c r="N20" s="13">
+        <v>100</v>
+      </c>
+      <c r="O20" s="13">
+        <v>100</v>
+      </c>
+      <c r="P20" s="13">
         <v>100</v>
       </c>
       <c r="Q20">
@@ -2820,55 +2839,55 @@
       <c r="V20">
         <v>100</v>
       </c>
-      <c r="W20" s="30" t="s">
+      <c r="W20" s="33" t="s">
         <v>81</v>
       </c>
       <c r="X20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y20" s="8">
+        <v>115</v>
+      </c>
+      <c r="Y20" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="16.8" spans="3:25">
-      <c r="C21" s="12">
+      <c r="C21" s="13">
         <v>100022</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="E21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="12">
+      <c r="F21" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="13">
         <v>6</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="13">
         <v>5</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13">
         <v>300</v>
       </c>
-      <c r="K21" s="12">
-        <v>2</v>
-      </c>
-      <c r="L21" s="12">
+      <c r="K21" s="13">
+        <v>2</v>
+      </c>
+      <c r="L21" s="13">
         <v>3</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="13">
         <v>50</v>
       </c>
-      <c r="N21" s="12">
-        <v>100</v>
-      </c>
-      <c r="O21" s="12">
-        <v>100</v>
-      </c>
-      <c r="P21" s="12">
+      <c r="N21" s="13">
+        <v>100</v>
+      </c>
+      <c r="O21" s="13">
+        <v>100</v>
+      </c>
+      <c r="P21" s="13">
         <v>100</v>
       </c>
       <c r="Q21">
@@ -2889,61 +2908,61 @@
       <c r="V21">
         <v>100</v>
       </c>
-      <c r="W21" s="30" t="s">
+      <c r="W21" s="33" t="s">
         <v>81</v>
       </c>
       <c r="X21" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y21" s="8">
+        <v>118</v>
+      </c>
+      <c r="Y21" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="3:16">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="3:16">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22400"/>
+    <workbookView windowHeight="22320"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
   <si>
     <t>c</t>
   </si>
@@ -73,6 +73,9 @@
     <t>每回合增加的怒气值</t>
   </si>
   <si>
+    <t>受击时增加的怒气值</t>
+  </si>
+  <si>
     <t>怒气值初始值</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>RoundAddAngry</t>
+  </si>
+  <si>
+    <t>BeAttackAddAngry</t>
   </si>
   <si>
     <t>InitAngry</t>
@@ -405,8 +411,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -465,14 +471,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -480,8 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,11 +509,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,6 +542,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -551,14 +565,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,9 +585,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,14 +595,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,91 +670,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,73 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,15 +850,32 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -869,26 +892,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,157 +943,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,7 +1087,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,15 +1163,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1181,12 +1184,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1538,10 +1544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Z26"/>
+  <dimension ref="A2:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1556,24 +1562,24 @@
     <col min="15" max="16" width="13.0865384615385" style="10" customWidth="1"/>
     <col min="17" max="17" width="17.5384615384615" style="9" customWidth="1"/>
     <col min="18" max="18" width="9" style="9"/>
-    <col min="19" max="21" width="15.0865384615385" style="9" customWidth="1"/>
-    <col min="22" max="22" width="16" style="9" customWidth="1"/>
-    <col min="23" max="23" width="35.1826923076923" style="9" customWidth="1"/>
-    <col min="24" max="24" width="14.6346153846154" style="9" customWidth="1"/>
-    <col min="25" max="25" width="34.7307692307692" style="9" customWidth="1"/>
-    <col min="26" max="26" width="26.8173076923077" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="9"/>
+    <col min="19" max="22" width="15.0865384615385" style="9" customWidth="1"/>
+    <col min="23" max="23" width="16" style="9" customWidth="1"/>
+    <col min="24" max="24" width="35.1826923076923" style="9" customWidth="1"/>
+    <col min="25" max="25" width="14.6346153846154" style="9" customWidth="1"/>
+    <col min="26" max="26" width="34.7307692307692" style="9" customWidth="1"/>
+    <col min="27" max="27" width="26.8173076923077" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:24">
+    <row r="2" spans="5:25">
       <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:26">
+    <row r="3" spans="3:27">
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1646,170 +1652,179 @@
       <c r="Z3" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="AA3" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="3:26">
+    <row r="4" spans="3:27">
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:26">
+    <row r="5" spans="3:27">
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="17" spans="1:26">
+    <row r="6" customFormat="1" ht="17" spans="1:27">
       <c r="A6" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="13">
         <v>100001</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="13">
         <v>6</v>
@@ -1852,34 +1867,37 @@
         <v>10</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>100</v>
-      </c>
-      <c r="W6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>100</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6">
         <v>1</v>
       </c>
-      <c r="Z6" s="44"/>
+      <c r="AA6" s="41"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
+    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:27">
       <c r="C7" s="13">
         <v>100002</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7" s="13">
         <v>6</v>
@@ -1922,34 +1940,37 @@
         <v>10</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>100</v>
-      </c>
-      <c r="W7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="44"/>
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>100</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="41"/>
     </row>
-    <row r="8" ht="16.8" spans="3:26">
+    <row r="8" ht="16.8" spans="3:27">
       <c r="C8" s="13">
         <v>100003</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" s="13">
         <v>6</v>
@@ -1992,34 +2013,37 @@
         <v>10</v>
       </c>
       <c r="U8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V8">
-        <v>100</v>
-      </c>
-      <c r="W8" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z8">
         <v>3</v>
       </c>
-      <c r="Z8" s="44"/>
+      <c r="AA8" s="41"/>
     </row>
-    <row r="9" ht="16.8" spans="3:26">
+    <row r="9" ht="16.8" spans="3:27">
       <c r="C9" s="13">
         <v>100004</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" s="13">
         <v>6</v>
@@ -2062,34 +2086,37 @@
         <v>10</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>100</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9">
         <v>4</v>
       </c>
-      <c r="Z9" s="44"/>
+      <c r="AA9" s="41"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.8" spans="3:26">
+    <row r="10" s="2" customFormat="1" ht="16.8" spans="3:27">
       <c r="C10" s="14">
         <v>100005</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" s="14">
         <v>6</v>
@@ -2131,35 +2158,38 @@
       <c r="T10" s="26">
         <v>10</v>
       </c>
-      <c r="U10" s="26">
-        <v>10</v>
+      <c r="U10">
+        <v>5</v>
       </c>
       <c r="V10" s="26">
-        <v>100</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="X10" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y10" s="26">
+        <v>10</v>
+      </c>
+      <c r="W10" s="26">
+        <v>100</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="26">
         <v>1</v>
       </c>
-      <c r="Z10" s="45"/>
+      <c r="AA10" s="43"/>
     </row>
-    <row r="11" ht="16.8" spans="3:26">
+    <row r="11" ht="16.8" spans="3:27">
       <c r="C11" s="13">
         <v>100006</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G11" s="13">
         <v>6</v>
@@ -2202,34 +2232,37 @@
         <v>10</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>100</v>
-      </c>
-      <c r="W11" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y11">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="44"/>
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="41"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="16.8" spans="3:26">
+    <row r="12" s="3" customFormat="1" ht="16.8" spans="3:27">
       <c r="C12" s="15">
         <v>100013</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G12" s="15">
         <v>6</v>
@@ -2271,35 +2304,38 @@
       <c r="T12" s="27">
         <v>10</v>
       </c>
-      <c r="U12" s="27">
-        <v>10</v>
+      <c r="U12">
+        <v>5</v>
       </c>
       <c r="V12" s="27">
-        <v>100</v>
-      </c>
-      <c r="W12" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="X12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="27">
+        <v>100</v>
+      </c>
+      <c r="X12" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="27">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="46"/>
+      <c r="Y12" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z12" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="45"/>
     </row>
-    <row r="13" s="4" customFormat="1" ht="16.8" spans="3:26">
+    <row r="13" s="4" customFormat="1" ht="16.8" spans="3:27">
       <c r="C13" s="16">
         <v>100014</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="16">
         <v>6</v>
@@ -2308,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J13" s="16">
         <v>300</v>
@@ -2343,35 +2379,38 @@
       <c r="T13" s="28">
         <v>10</v>
       </c>
-      <c r="U13" s="28">
-        <v>10</v>
+      <c r="U13">
+        <v>5</v>
       </c>
       <c r="V13" s="28">
-        <v>100</v>
-      </c>
-      <c r="W13" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y13" s="28">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="47"/>
+        <v>10</v>
+      </c>
+      <c r="W13" s="28">
+        <v>100</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y13" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="47"/>
     </row>
-    <row r="14" s="5" customFormat="1" ht="16.8" spans="3:25">
+    <row r="14" s="5" customFormat="1" ht="16.8" spans="3:26">
       <c r="C14" s="17">
         <v>100015</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="17">
         <v>6</v>
@@ -2380,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J14" s="17">
         <v>300</v>
@@ -2415,34 +2454,37 @@
       <c r="T14" s="29">
         <v>10</v>
       </c>
-      <c r="U14" s="29">
-        <v>10</v>
+      <c r="U14">
+        <v>5</v>
       </c>
       <c r="V14" s="29">
-        <v>100</v>
-      </c>
-      <c r="W14" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="X14" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y14" s="5">
+        <v>10</v>
+      </c>
+      <c r="W14" s="29">
+        <v>100</v>
+      </c>
+      <c r="X14" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z14" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="16.8" spans="3:25">
+    <row r="15" ht="16.8" spans="3:26">
       <c r="C15" s="13">
         <v>100016</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G15" s="13">
         <v>6</v>
@@ -2485,33 +2527,36 @@
         <v>10</v>
       </c>
       <c r="U15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V15">
-        <v>100</v>
-      </c>
-      <c r="W15" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="X15" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y15" s="9">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="16.8" spans="3:25">
+    <row r="16" s="6" customFormat="1" ht="16.8" spans="3:26">
       <c r="C16" s="18">
         <v>100017</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G16" s="18">
         <v>6</v>
@@ -2520,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J16" s="18">
         <v>300</v>
@@ -2555,34 +2600,37 @@
       <c r="T16" s="30">
         <v>10</v>
       </c>
-      <c r="U16" s="30">
-        <v>10</v>
+      <c r="U16">
+        <v>5</v>
       </c>
       <c r="V16" s="30">
-        <v>100</v>
-      </c>
-      <c r="W16" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="X16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y16" s="6">
+        <v>10</v>
+      </c>
+      <c r="W16" s="30">
+        <v>100</v>
+      </c>
+      <c r="X16" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" ht="16.8" spans="3:25">
+    <row r="17" s="7" customFormat="1" ht="16.8" spans="3:26">
       <c r="C17" s="19">
         <v>100018</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="19">
         <v>6</v>
@@ -2591,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J17" s="19">
         <v>300</v>
@@ -2626,34 +2674,37 @@
       <c r="T17" s="31">
         <v>10</v>
       </c>
-      <c r="U17" s="31">
-        <v>10</v>
+      <c r="U17">
+        <v>5</v>
       </c>
       <c r="V17" s="31">
-        <v>100</v>
-      </c>
-      <c r="W17" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="X17" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y17" s="7">
+        <v>10</v>
+      </c>
+      <c r="W17" s="31">
+        <v>100</v>
+      </c>
+      <c r="X17" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y17" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z17" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" ht="16.8" spans="3:25">
+    <row r="18" s="8" customFormat="1" ht="16.8" spans="3:26">
       <c r="C18" s="20">
         <v>100019</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G18" s="20">
         <v>6</v>
@@ -2695,34 +2746,37 @@
       <c r="T18" s="32">
         <v>10</v>
       </c>
-      <c r="U18" s="32">
-        <v>10</v>
+      <c r="U18">
+        <v>5</v>
       </c>
       <c r="V18" s="32">
-        <v>100</v>
-      </c>
-      <c r="W18" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="X18" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y18" s="8">
+        <v>10</v>
+      </c>
+      <c r="W18" s="32">
+        <v>100</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y18" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z18" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="3:25">
+    <row r="19" ht="16.8" spans="3:26">
       <c r="C19" s="13">
         <v>100020</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G19" s="13">
         <v>6</v>
@@ -2765,33 +2819,36 @@
         <v>10</v>
       </c>
       <c r="U19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>100</v>
-      </c>
-      <c r="W19" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y19" s="9">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>100</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z19" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="16.8" spans="3:25">
+    <row r="20" ht="16.8" spans="3:26">
       <c r="C20" s="13">
         <v>100021</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G20" s="13">
         <v>6</v>
@@ -2834,33 +2891,36 @@
         <v>10</v>
       </c>
       <c r="U20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>100</v>
-      </c>
-      <c r="W20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="X20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y20" s="9">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+      <c r="X20" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z20" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="3:25">
+    <row r="21" ht="16.8" spans="3:26">
       <c r="C21" s="13">
         <v>100022</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G21" s="13">
         <v>6</v>
@@ -2903,18 +2963,21 @@
         <v>10</v>
       </c>
       <c r="U21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>100</v>
-      </c>
-      <c r="W21" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="X21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y21" s="9">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>100</v>
+      </c>
+      <c r="X21" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z21" s="9">
         <v>2</v>
       </c>
     </row>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
   <si>
     <t>c</t>
   </si>
@@ -338,6 +338,9 @@
     <t>卡戎</t>
   </si>
   <si>
+    <t>1000045,1000046,1000047,1000048</t>
+  </si>
+  <si>
     <t>Hestia</t>
   </si>
   <si>
@@ -410,9 +413,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -463,54 +466,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,25 +489,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,14 +513,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,16 +588,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +643,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -670,169 +679,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,66 +859,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,155 +893,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,12 +1111,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1132,6 +1142,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1147,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1156,6 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1176,6 +1190,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1546,312 +1563,312 @@
   <sheetPr/>
   <dimension ref="A2:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.6346153846154" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.7307692307692" style="9" customWidth="1"/>
-    <col min="3" max="4" width="12.6346153846154" style="10" customWidth="1"/>
-    <col min="5" max="5" width="33.0865384615385" style="9" customWidth="1"/>
-    <col min="6" max="12" width="12.6346153846154" style="10" customWidth="1"/>
-    <col min="13" max="13" width="18.7307692307692" style="10" customWidth="1"/>
-    <col min="14" max="14" width="15.3653846153846" style="10" customWidth="1"/>
-    <col min="15" max="16" width="13.0865384615385" style="10" customWidth="1"/>
-    <col min="17" max="17" width="17.5384615384615" style="9" customWidth="1"/>
-    <col min="18" max="18" width="9" style="9"/>
-    <col min="19" max="22" width="15.0865384615385" style="9" customWidth="1"/>
-    <col min="23" max="23" width="16" style="9" customWidth="1"/>
-    <col min="24" max="24" width="35.1826923076923" style="9" customWidth="1"/>
-    <col min="25" max="25" width="14.6346153846154" style="9" customWidth="1"/>
-    <col min="26" max="26" width="34.7307692307692" style="9" customWidth="1"/>
-    <col min="27" max="27" width="26.8173076923077" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="28.6346153846154" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="10" customWidth="1"/>
+    <col min="3" max="4" width="12.6346153846154" style="11" customWidth="1"/>
+    <col min="5" max="5" width="33.0865384615385" style="10" customWidth="1"/>
+    <col min="6" max="12" width="12.6346153846154" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.7307692307692" style="11" customWidth="1"/>
+    <col min="14" max="14" width="15.3653846153846" style="11" customWidth="1"/>
+    <col min="15" max="16" width="13.0865384615385" style="11" customWidth="1"/>
+    <col min="17" max="17" width="17.5384615384615" style="10" customWidth="1"/>
+    <col min="18" max="18" width="9" style="10"/>
+    <col min="19" max="22" width="15.0865384615385" style="10" customWidth="1"/>
+    <col min="23" max="23" width="16" style="10" customWidth="1"/>
+    <col min="24" max="24" width="35.1826923076923" style="10" customWidth="1"/>
+    <col min="25" max="25" width="14.6346153846154" style="10" customWidth="1"/>
+    <col min="26" max="26" width="34.7307692307692" style="10" customWidth="1"/>
+    <col min="27" max="27" width="26.8173076923077" style="10" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:25">
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:27">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="11" t="s">
+      <c r="L3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="3:27">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AA5" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="17" spans="1:27">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>100001</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <v>6</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14">
         <v>300</v>
       </c>
-      <c r="K6" s="13">
-        <v>2</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="K6" s="14">
+        <v>2</v>
+      </c>
+      <c r="L6" s="14">
         <v>3</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="14">
         <v>50</v>
       </c>
-      <c r="N6" s="13">
-        <v>100</v>
-      </c>
-      <c r="O6" s="13">
-        <v>100</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="N6" s="14">
+        <v>100</v>
+      </c>
+      <c r="O6" s="14">
+        <v>100</v>
+      </c>
+      <c r="P6" s="14">
         <v>100</v>
       </c>
       <c r="Q6">
@@ -1875,56 +1892,56 @@
       <c r="W6">
         <v>100</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="X6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="13" t="s">
         <v>59</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
-      <c r="AA6" s="41"/>
+      <c r="AA6" s="45"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.8" spans="3:27">
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>100002</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>6</v>
       </c>
-      <c r="H7" s="13">
-        <v>2</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13">
+      <c r="H7" s="14">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14">
         <v>300</v>
       </c>
-      <c r="K7" s="13">
-        <v>2</v>
-      </c>
-      <c r="L7" s="13">
+      <c r="K7" s="14">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14">
         <v>3</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="14">
         <v>50</v>
       </c>
-      <c r="N7" s="13">
-        <v>100</v>
-      </c>
-      <c r="O7" s="13">
-        <v>100</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="N7" s="14">
+        <v>100</v>
+      </c>
+      <c r="O7" s="14">
+        <v>100</v>
+      </c>
+      <c r="P7" s="14">
         <v>100</v>
       </c>
       <c r="Q7">
@@ -1948,56 +1965,56 @@
       <c r="W7">
         <v>100</v>
       </c>
-      <c r="X7" s="33" t="s">
+      <c r="X7" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="Y7" s="13" t="s">
         <v>64</v>
       </c>
       <c r="Z7">
         <v>2</v>
       </c>
-      <c r="AA7" s="41"/>
+      <c r="AA7" s="45"/>
     </row>
     <row r="8" ht="16.8" spans="3:27">
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>100003</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>6</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>3</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14">
         <v>300</v>
       </c>
-      <c r="K8" s="13">
-        <v>2</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="K8" s="14">
+        <v>2</v>
+      </c>
+      <c r="L8" s="14">
         <v>3</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="14">
         <v>50</v>
       </c>
-      <c r="N8" s="13">
-        <v>100</v>
-      </c>
-      <c r="O8" s="13">
-        <v>100</v>
-      </c>
-      <c r="P8" s="13">
+      <c r="N8" s="14">
+        <v>100</v>
+      </c>
+      <c r="O8" s="14">
+        <v>100</v>
+      </c>
+      <c r="P8" s="14">
         <v>100</v>
       </c>
       <c r="Q8">
@@ -2021,56 +2038,56 @@
       <c r="W8">
         <v>100</v>
       </c>
-      <c r="X8" s="33" t="s">
+      <c r="X8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="13" t="s">
         <v>69</v>
       </c>
       <c r="Z8">
         <v>3</v>
       </c>
-      <c r="AA8" s="41"/>
+      <c r="AA8" s="45"/>
     </row>
     <row r="9" ht="16.8" spans="3:27">
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>100004</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>6</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <v>4</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14">
         <v>300</v>
       </c>
-      <c r="K9" s="13">
-        <v>2</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="K9" s="14">
+        <v>2</v>
+      </c>
+      <c r="L9" s="14">
         <v>3</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="14">
         <v>50</v>
       </c>
-      <c r="N9" s="13">
-        <v>100</v>
-      </c>
-      <c r="O9" s="13">
-        <v>100</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="N9" s="14">
+        <v>100</v>
+      </c>
+      <c r="O9" s="14">
+        <v>100</v>
+      </c>
+      <c r="P9" s="14">
         <v>100</v>
       </c>
       <c r="Q9">
@@ -2094,129 +2111,129 @@
       <c r="W9">
         <v>100</v>
       </c>
-      <c r="X9" s="33" t="s">
+      <c r="X9" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="Y9" s="13" t="s">
         <v>74</v>
       </c>
       <c r="Z9">
         <v>4</v>
       </c>
-      <c r="AA9" s="41"/>
+      <c r="AA9" s="45"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.8" spans="3:27">
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>100005</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="15">
         <v>6</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="15">
         <v>5</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
         <v>300</v>
       </c>
-      <c r="K10" s="14">
-        <v>2</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="K10" s="15">
+        <v>2</v>
+      </c>
+      <c r="L10" s="15">
         <v>3</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="15">
         <v>50</v>
       </c>
-      <c r="N10" s="14">
-        <v>100</v>
-      </c>
-      <c r="O10" s="14">
-        <v>100</v>
-      </c>
-      <c r="P10" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>100</v>
-      </c>
-      <c r="R10" s="26">
+      <c r="N10" s="15">
+        <v>100</v>
+      </c>
+      <c r="O10" s="15">
+        <v>100</v>
+      </c>
+      <c r="P10" s="15">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>100</v>
+      </c>
+      <c r="R10" s="28">
         <v>1.2</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="28">
         <v>1</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="28">
         <v>10</v>
       </c>
       <c r="U10">
         <v>5</v>
       </c>
-      <c r="V10" s="26">
-        <v>10</v>
-      </c>
-      <c r="W10" s="26">
-        <v>100</v>
-      </c>
-      <c r="X10" s="34" t="s">
+      <c r="V10" s="28">
+        <v>10</v>
+      </c>
+      <c r="W10" s="28">
+        <v>100</v>
+      </c>
+      <c r="X10" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="Y10" s="42" t="s">
+      <c r="Y10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="Z10" s="26">
+      <c r="Z10" s="28">
         <v>1</v>
       </c>
-      <c r="AA10" s="43"/>
+      <c r="AA10" s="47"/>
     </row>
     <row r="11" ht="16.8" spans="3:27">
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>100006</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <v>6</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <v>1</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14">
         <v>300</v>
       </c>
-      <c r="K11" s="13">
-        <v>2</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="K11" s="14">
+        <v>2</v>
+      </c>
+      <c r="L11" s="14">
         <v>3</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="14">
         <v>50</v>
       </c>
-      <c r="N11" s="13">
-        <v>100</v>
-      </c>
-      <c r="O11" s="13">
-        <v>100</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="N11" s="14">
+        <v>100</v>
+      </c>
+      <c r="O11" s="14">
+        <v>100</v>
+      </c>
+      <c r="P11" s="14">
         <v>100</v>
       </c>
       <c r="Q11">
@@ -2240,570 +2257,572 @@
       <c r="W11">
         <v>100</v>
       </c>
-      <c r="X11" s="33" t="s">
+      <c r="X11" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="Y11" s="12" t="s">
+      <c r="Y11" s="13" t="s">
         <v>84</v>
       </c>
       <c r="Z11">
         <v>2</v>
       </c>
-      <c r="AA11" s="41"/>
+      <c r="AA11" s="45"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="16.8" spans="3:27">
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>100013</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>6</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="16">
         <v>5</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15">
+      <c r="I12" s="16"/>
+      <c r="J12" s="16">
         <v>300</v>
       </c>
-      <c r="K12" s="15">
-        <v>2</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
+      <c r="L12" s="16">
         <v>3</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="16">
         <v>50</v>
       </c>
-      <c r="N12" s="15">
-        <v>100</v>
-      </c>
-      <c r="O12" s="15">
-        <v>100</v>
-      </c>
-      <c r="P12" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>100</v>
-      </c>
-      <c r="R12" s="27">
+      <c r="N12" s="16">
+        <v>100</v>
+      </c>
+      <c r="O12" s="16">
+        <v>100</v>
+      </c>
+      <c r="P12" s="16">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>100</v>
+      </c>
+      <c r="R12" s="29">
         <v>1.2</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12" s="29">
         <v>1</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="29">
         <v>10</v>
       </c>
       <c r="U12">
         <v>5</v>
       </c>
-      <c r="V12" s="27">
-        <v>10</v>
-      </c>
-      <c r="W12" s="27">
-        <v>100</v>
-      </c>
-      <c r="X12" s="35" t="s">
+      <c r="V12" s="29">
+        <v>10</v>
+      </c>
+      <c r="W12" s="29">
+        <v>100</v>
+      </c>
+      <c r="X12" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="44" t="s">
+      <c r="Y12" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="Z12" s="27">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="45"/>
+      <c r="Z12" s="29">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="49"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="16.8" spans="3:27">
-      <c r="C13" s="16">
+      <c r="C13" s="17">
         <v>100014</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="17">
         <v>6</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="17">
         <v>3</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="17">
         <v>300</v>
       </c>
-      <c r="K13" s="16">
-        <v>2</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="K13" s="17">
+        <v>2</v>
+      </c>
+      <c r="L13" s="17">
         <v>3</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="17">
         <v>50</v>
       </c>
-      <c r="N13" s="16">
-        <v>100</v>
-      </c>
-      <c r="O13" s="16">
-        <v>100</v>
-      </c>
-      <c r="P13" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>100</v>
-      </c>
-      <c r="R13" s="28">
+      <c r="N13" s="17">
+        <v>100</v>
+      </c>
+      <c r="O13" s="17">
+        <v>100</v>
+      </c>
+      <c r="P13" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>100</v>
+      </c>
+      <c r="R13" s="30">
         <v>1.2</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="30">
         <v>1</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="30">
         <v>10</v>
       </c>
       <c r="U13">
         <v>5</v>
       </c>
-      <c r="V13" s="28">
-        <v>10</v>
-      </c>
-      <c r="W13" s="28">
-        <v>100</v>
-      </c>
-      <c r="X13" s="36" t="s">
+      <c r="V13" s="30">
+        <v>10</v>
+      </c>
+      <c r="W13" s="30">
+        <v>100</v>
+      </c>
+      <c r="X13" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="Y13" s="46" t="s">
+      <c r="Y13" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="Z13" s="28">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="47"/>
+      <c r="Z13" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="51"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C14" s="17">
+      <c r="C14" s="18">
         <v>100015</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="18">
         <v>6</v>
       </c>
-      <c r="H14" s="17">
-        <v>2</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="18">
+        <v>2</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="18">
         <v>300</v>
       </c>
-      <c r="K14" s="17">
-        <v>2</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14" s="18">
+        <v>2</v>
+      </c>
+      <c r="L14" s="18">
         <v>3</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="18">
         <v>50</v>
       </c>
-      <c r="N14" s="17">
-        <v>100</v>
-      </c>
-      <c r="O14" s="17">
-        <v>100</v>
-      </c>
-      <c r="P14" s="17">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="29">
-        <v>100</v>
-      </c>
-      <c r="R14" s="29">
+      <c r="N14" s="18">
+        <v>100</v>
+      </c>
+      <c r="O14" s="18">
+        <v>100</v>
+      </c>
+      <c r="P14" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>100</v>
+      </c>
+      <c r="R14" s="31">
         <v>1.2</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="31">
         <v>1</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="31">
         <v>10</v>
       </c>
       <c r="U14">
         <v>5</v>
       </c>
-      <c r="V14" s="29">
-        <v>10</v>
-      </c>
-      <c r="W14" s="29">
-        <v>100</v>
-      </c>
-      <c r="X14" s="37" t="s">
+      <c r="V14" s="31">
+        <v>10</v>
+      </c>
+      <c r="W14" s="31">
+        <v>100</v>
+      </c>
+      <c r="X14" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="Y14" s="29" t="s">
+      <c r="Y14" s="31" t="s">
         <v>93</v>
       </c>
       <c r="Z14" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="16.8" spans="3:26">
-      <c r="C15" s="13">
+    <row r="15" s="6" customFormat="1" ht="16.8" spans="3:26">
+      <c r="C15" s="19">
         <v>100016</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19">
         <v>6</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="19">
+        <v>3</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="19">
+        <v>300</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2</v>
+      </c>
+      <c r="L15" s="19">
+        <v>3</v>
+      </c>
+      <c r="M15" s="19">
+        <v>50</v>
+      </c>
+      <c r="N15" s="19">
+        <v>100</v>
+      </c>
+      <c r="O15" s="19">
+        <v>100</v>
+      </c>
+      <c r="P15" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>100</v>
+      </c>
+      <c r="R15" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="S15" s="32">
+        <v>1</v>
+      </c>
+      <c r="T15" s="32">
+        <v>10</v>
+      </c>
+      <c r="U15" s="32">
         <v>5</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
+      <c r="V15" s="32">
+        <v>10</v>
+      </c>
+      <c r="W15" s="32">
+        <v>100</v>
+      </c>
+      <c r="X15" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="1" ht="16.8" spans="3:26">
+      <c r="C16" s="20">
+        <v>100017</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="20">
+        <v>6</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="20">
         <v>300</v>
       </c>
-      <c r="K15" s="13">
-        <v>2</v>
-      </c>
-      <c r="L15" s="13">
+      <c r="K16" s="20">
+        <v>2</v>
+      </c>
+      <c r="L16" s="20">
         <v>3</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M16" s="20">
         <v>50</v>
       </c>
-      <c r="N15" s="13">
-        <v>100</v>
-      </c>
-      <c r="O15" s="13">
-        <v>100</v>
-      </c>
-      <c r="P15" s="13">
-        <v>100</v>
-      </c>
-      <c r="Q15">
-        <v>100</v>
-      </c>
-      <c r="R15">
+      <c r="N16" s="20">
+        <v>100</v>
+      </c>
+      <c r="O16" s="20">
+        <v>100</v>
+      </c>
+      <c r="P16" s="20">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>100</v>
+      </c>
+      <c r="R16" s="33">
         <v>1.2</v>
       </c>
-      <c r="S15">
+      <c r="S16" s="33">
         <v>1</v>
       </c>
-      <c r="T15">
-        <v>10</v>
-      </c>
-      <c r="U15">
-        <v>5</v>
-      </c>
-      <c r="V15">
-        <v>10</v>
-      </c>
-      <c r="W15">
-        <v>100</v>
-      </c>
-      <c r="X15" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C16" s="18">
-        <v>100017</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="18">
-        <v>6</v>
-      </c>
-      <c r="H16" s="18">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="18">
-        <v>300</v>
-      </c>
-      <c r="K16" s="18">
-        <v>2</v>
-      </c>
-      <c r="L16" s="18">
-        <v>3</v>
-      </c>
-      <c r="M16" s="18">
-        <v>50</v>
-      </c>
-      <c r="N16" s="18">
-        <v>100</v>
-      </c>
-      <c r="O16" s="18">
-        <v>100</v>
-      </c>
-      <c r="P16" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="30">
-        <v>100</v>
-      </c>
-      <c r="R16" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="S16" s="30">
-        <v>1</v>
-      </c>
-      <c r="T16" s="30">
+      <c r="T16" s="33">
         <v>10</v>
       </c>
       <c r="U16">
         <v>5</v>
       </c>
-      <c r="V16" s="30">
-        <v>10</v>
-      </c>
-      <c r="W16" s="30">
-        <v>100</v>
-      </c>
-      <c r="X16" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y16" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z16" s="6">
+      <c r="V16" s="33">
+        <v>10</v>
+      </c>
+      <c r="W16" s="33">
+        <v>100</v>
+      </c>
+      <c r="X16" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y16" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z16" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C17" s="19">
+    <row r="17" s="8" customFormat="1" ht="16.8" spans="3:26">
+      <c r="C17" s="21">
         <v>100018</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="19">
+      <c r="F17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="21">
         <v>6</v>
       </c>
-      <c r="H17" s="19">
-        <v>2</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="21">
+        <v>2</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="21">
         <v>300</v>
       </c>
-      <c r="K17" s="19">
-        <v>2</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="K17" s="21">
+        <v>2</v>
+      </c>
+      <c r="L17" s="21">
         <v>3</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="21">
         <v>50</v>
       </c>
-      <c r="N17" s="19">
-        <v>100</v>
-      </c>
-      <c r="O17" s="19">
-        <v>100</v>
-      </c>
-      <c r="P17" s="19">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>100</v>
-      </c>
-      <c r="R17" s="31">
+      <c r="N17" s="21">
+        <v>100</v>
+      </c>
+      <c r="O17" s="21">
+        <v>100</v>
+      </c>
+      <c r="P17" s="21">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>100</v>
+      </c>
+      <c r="R17" s="34">
         <v>1.2</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="34">
         <v>1</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="34">
         <v>10</v>
       </c>
       <c r="U17">
         <v>5</v>
       </c>
-      <c r="V17" s="31">
-        <v>10</v>
-      </c>
-      <c r="W17" s="31">
-        <v>100</v>
-      </c>
-      <c r="X17" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y17" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z17" s="7">
+      <c r="V17" s="34">
+        <v>10</v>
+      </c>
+      <c r="W17" s="34">
+        <v>100</v>
+      </c>
+      <c r="X17" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z17" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" ht="16.8" spans="3:26">
-      <c r="C18" s="20">
+    <row r="18" s="9" customFormat="1" ht="16.8" spans="3:26">
+      <c r="C18" s="22">
         <v>100019</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="20">
+      <c r="F18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="22">
         <v>6</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="22">
         <v>5</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22">
         <v>300</v>
       </c>
-      <c r="K18" s="20">
-        <v>2</v>
-      </c>
-      <c r="L18" s="20">
+      <c r="K18" s="22">
+        <v>2</v>
+      </c>
+      <c r="L18" s="22">
         <v>3</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="22">
         <v>50</v>
       </c>
-      <c r="N18" s="20">
-        <v>100</v>
-      </c>
-      <c r="O18" s="20">
-        <v>100</v>
-      </c>
-      <c r="P18" s="20">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>100</v>
-      </c>
-      <c r="R18" s="32">
+      <c r="N18" s="22">
+        <v>100</v>
+      </c>
+      <c r="O18" s="22">
+        <v>100</v>
+      </c>
+      <c r="P18" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>100</v>
+      </c>
+      <c r="R18" s="35">
         <v>1.2</v>
       </c>
-      <c r="S18" s="32">
+      <c r="S18" s="35">
         <v>1</v>
       </c>
-      <c r="T18" s="32">
+      <c r="T18" s="35">
         <v>10</v>
       </c>
       <c r="U18">
         <v>5</v>
       </c>
-      <c r="V18" s="32">
-        <v>10</v>
-      </c>
-      <c r="W18" s="32">
-        <v>100</v>
-      </c>
-      <c r="X18" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y18" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z18" s="8">
+      <c r="V18" s="35">
+        <v>10</v>
+      </c>
+      <c r="W18" s="35">
+        <v>100</v>
+      </c>
+      <c r="X18" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y18" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z18" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="3:26">
-      <c r="C19" s="13">
+      <c r="C19" s="14">
         <v>100020</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="13">
+      <c r="F19" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="14">
         <v>6</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="14">
         <v>5</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14">
         <v>300</v>
       </c>
-      <c r="K19" s="13">
-        <v>2</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="K19" s="14">
+        <v>2</v>
+      </c>
+      <c r="L19" s="14">
         <v>3</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="14">
         <v>50</v>
       </c>
-      <c r="N19" s="13">
-        <v>100</v>
-      </c>
-      <c r="O19" s="13">
-        <v>100</v>
-      </c>
-      <c r="P19" s="13">
+      <c r="N19" s="14">
+        <v>100</v>
+      </c>
+      <c r="O19" s="14">
+        <v>100</v>
+      </c>
+      <c r="P19" s="14">
         <v>100</v>
       </c>
       <c r="Q19">
@@ -2827,55 +2846,55 @@
       <c r="W19">
         <v>100</v>
       </c>
-      <c r="X19" s="33" t="s">
+      <c r="X19" s="36" t="s">
         <v>83</v>
       </c>
       <c r="Y19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z19" s="9">
+        <v>115</v>
+      </c>
+      <c r="Z19" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="20" ht="16.8" spans="3:26">
-      <c r="C20" s="13">
+      <c r="C20" s="14">
         <v>100021</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="13">
+      <c r="F20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="14">
         <v>6</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="14">
         <v>5</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
         <v>300</v>
       </c>
-      <c r="K20" s="13">
-        <v>2</v>
-      </c>
-      <c r="L20" s="13">
+      <c r="K20" s="14">
+        <v>2</v>
+      </c>
+      <c r="L20" s="14">
         <v>3</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="14">
         <v>50</v>
       </c>
-      <c r="N20" s="13">
-        <v>100</v>
-      </c>
-      <c r="O20" s="13">
-        <v>100</v>
-      </c>
-      <c r="P20" s="13">
+      <c r="N20" s="14">
+        <v>100</v>
+      </c>
+      <c r="O20" s="14">
+        <v>100</v>
+      </c>
+      <c r="P20" s="14">
         <v>100</v>
       </c>
       <c r="Q20">
@@ -2899,55 +2918,55 @@
       <c r="W20">
         <v>100</v>
       </c>
-      <c r="X20" s="33" t="s">
+      <c r="X20" s="36" t="s">
         <v>83</v>
       </c>
       <c r="Y20" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z20" s="9">
+        <v>118</v>
+      </c>
+      <c r="Z20" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="16.8" spans="3:26">
-      <c r="C21" s="13">
+      <c r="C21" s="14">
         <v>100022</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="13">
+      <c r="F21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="14">
         <v>6</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="14">
         <v>5</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14">
         <v>300</v>
       </c>
-      <c r="K21" s="13">
-        <v>2</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="K21" s="14">
+        <v>2</v>
+      </c>
+      <c r="L21" s="14">
         <v>3</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="14">
         <v>50</v>
       </c>
-      <c r="N21" s="13">
-        <v>100</v>
-      </c>
-      <c r="O21" s="13">
-        <v>100</v>
-      </c>
-      <c r="P21" s="13">
+      <c r="N21" s="14">
+        <v>100</v>
+      </c>
+      <c r="O21" s="14">
+        <v>100</v>
+      </c>
+      <c r="P21" s="14">
         <v>100</v>
       </c>
       <c r="Q21">
@@ -2971,61 +2990,61 @@
       <c r="W21">
         <v>100</v>
       </c>
-      <c r="X21" s="33" t="s">
+      <c r="X21" s="36" t="s">
         <v>83</v>
       </c>
       <c r="Y21" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z21" s="9">
+        <v>121</v>
+      </c>
+      <c r="Z21" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="3:16">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="3:16">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
   <si>
     <t>c</t>
   </si>
@@ -389,13 +389,19 @@
     <t>阿尔戈斯</t>
   </si>
   <si>
+    <t>1000053,1000054,1000055,1000056</t>
+  </si>
+  <si>
     <t>Phoenix</t>
   </si>
   <si>
     <t>item_002</t>
   </si>
   <si>
-    <t>凤凰</t>
+    <t>菲尼克斯</t>
+  </si>
+  <si>
+    <t>1000057,1000058,1000059,1000060</t>
   </si>
   <si>
     <t>Lamia</t>
@@ -405,6 +411,9 @@
   </si>
   <si>
     <t>拉米亚</t>
+  </si>
+  <si>
+    <t>1000049,1000050,1000051,1000052</t>
   </si>
 </sst>
 </file>
@@ -412,8 +421,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -460,22 +469,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,8 +490,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,49 +560,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,9 +590,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,15 +606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,19 +682,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,151 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,36 +869,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,13 +897,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,168 +922,194 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1159,6 +1168,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1564,7 +1576,7 @@
   <dimension ref="A2:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1573,7 +1585,8 @@
     <col min="2" max="2" width="12.7307692307692" style="10" customWidth="1"/>
     <col min="3" max="4" width="12.6346153846154" style="11" customWidth="1"/>
     <col min="5" max="5" width="33.0865384615385" style="10" customWidth="1"/>
-    <col min="6" max="12" width="12.6346153846154" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.0576923076923" style="11" customWidth="1"/>
+    <col min="7" max="12" width="12.6346153846154" style="11" customWidth="1"/>
     <col min="13" max="13" width="18.7307692307692" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.3653846153846" style="11" customWidth="1"/>
     <col min="15" max="16" width="13.0865384615385" style="11" customWidth="1"/>
@@ -1892,7 +1905,7 @@
       <c r="W6">
         <v>100</v>
       </c>
-      <c r="X6" s="36" t="s">
+      <c r="X6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="Y6" s="13" t="s">
@@ -1901,7 +1914,7 @@
       <c r="Z6">
         <v>1</v>
       </c>
-      <c r="AA6" s="45"/>
+      <c r="AA6" s="46"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.8" spans="3:27">
       <c r="C7" s="14">
@@ -1965,7 +1978,7 @@
       <c r="W7">
         <v>100</v>
       </c>
-      <c r="X7" s="36" t="s">
+      <c r="X7" s="37" t="s">
         <v>63</v>
       </c>
       <c r="Y7" s="13" t="s">
@@ -1974,7 +1987,7 @@
       <c r="Z7">
         <v>2</v>
       </c>
-      <c r="AA7" s="45"/>
+      <c r="AA7" s="46"/>
     </row>
     <row r="8" ht="16.8" spans="3:27">
       <c r="C8" s="14">
@@ -2038,7 +2051,7 @@
       <c r="W8">
         <v>100</v>
       </c>
-      <c r="X8" s="36" t="s">
+      <c r="X8" s="37" t="s">
         <v>68</v>
       </c>
       <c r="Y8" s="13" t="s">
@@ -2047,7 +2060,7 @@
       <c r="Z8">
         <v>3</v>
       </c>
-      <c r="AA8" s="45"/>
+      <c r="AA8" s="46"/>
     </row>
     <row r="9" ht="16.8" spans="3:27">
       <c r="C9" s="14">
@@ -2111,7 +2124,7 @@
       <c r="W9">
         <v>100</v>
       </c>
-      <c r="X9" s="36" t="s">
+      <c r="X9" s="37" t="s">
         <v>73</v>
       </c>
       <c r="Y9" s="13" t="s">
@@ -2120,7 +2133,7 @@
       <c r="Z9">
         <v>4</v>
       </c>
-      <c r="AA9" s="45"/>
+      <c r="AA9" s="46"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.8" spans="3:27">
       <c r="C10" s="15">
@@ -2163,37 +2176,37 @@
       <c r="P10" s="15">
         <v>100</v>
       </c>
-      <c r="Q10" s="28">
-        <v>100</v>
-      </c>
-      <c r="R10" s="28">
+      <c r="Q10" s="29">
+        <v>100</v>
+      </c>
+      <c r="R10" s="29">
         <v>1.2</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="29">
         <v>1</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="29">
         <v>10</v>
       </c>
       <c r="U10">
         <v>5</v>
       </c>
-      <c r="V10" s="28">
-        <v>10</v>
-      </c>
-      <c r="W10" s="28">
-        <v>100</v>
-      </c>
-      <c r="X10" s="37" t="s">
+      <c r="V10" s="29">
+        <v>10</v>
+      </c>
+      <c r="W10" s="29">
+        <v>100</v>
+      </c>
+      <c r="X10" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="Y10" s="46" t="s">
+      <c r="Y10" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="Z10" s="28">
+      <c r="Z10" s="29">
         <v>1</v>
       </c>
-      <c r="AA10" s="47"/>
+      <c r="AA10" s="48"/>
     </row>
     <row r="11" ht="16.8" spans="3:27">
       <c r="C11" s="14">
@@ -2257,7 +2270,7 @@
       <c r="W11">
         <v>100</v>
       </c>
-      <c r="X11" s="36" t="s">
+      <c r="X11" s="37" t="s">
         <v>83</v>
       </c>
       <c r="Y11" s="13" t="s">
@@ -2266,7 +2279,7 @@
       <c r="Z11">
         <v>2</v>
       </c>
-      <c r="AA11" s="45"/>
+      <c r="AA11" s="46"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="16.8" spans="3:27">
       <c r="C12" s="16">
@@ -2309,37 +2322,37 @@
       <c r="P12" s="16">
         <v>100</v>
       </c>
-      <c r="Q12" s="29">
-        <v>100</v>
-      </c>
-      <c r="R12" s="29">
+      <c r="Q12" s="30">
+        <v>100</v>
+      </c>
+      <c r="R12" s="30">
         <v>1.2</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="30">
         <v>1</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="30">
         <v>10</v>
       </c>
       <c r="U12">
         <v>5</v>
       </c>
-      <c r="V12" s="29">
-        <v>10</v>
-      </c>
-      <c r="W12" s="29">
-        <v>100</v>
-      </c>
-      <c r="X12" s="38" t="s">
+      <c r="V12" s="30">
+        <v>10</v>
+      </c>
+      <c r="W12" s="30">
+        <v>100</v>
+      </c>
+      <c r="X12" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="48" t="s">
+      <c r="Y12" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="Z12" s="29">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="49"/>
+      <c r="Z12" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="50"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="16.8" spans="3:27">
       <c r="C13" s="17">
@@ -2384,37 +2397,37 @@
       <c r="P13" s="17">
         <v>100</v>
       </c>
-      <c r="Q13" s="30">
-        <v>100</v>
-      </c>
-      <c r="R13" s="30">
+      <c r="Q13" s="31">
+        <v>100</v>
+      </c>
+      <c r="R13" s="31">
         <v>1.2</v>
       </c>
-      <c r="S13" s="30">
+      <c r="S13" s="31">
         <v>1</v>
       </c>
-      <c r="T13" s="30">
+      <c r="T13" s="31">
         <v>10</v>
       </c>
       <c r="U13">
         <v>5</v>
       </c>
-      <c r="V13" s="30">
-        <v>10</v>
-      </c>
-      <c r="W13" s="30">
-        <v>100</v>
-      </c>
-      <c r="X13" s="39" t="s">
+      <c r="V13" s="31">
+        <v>10</v>
+      </c>
+      <c r="W13" s="31">
+        <v>100</v>
+      </c>
+      <c r="X13" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="Y13" s="50" t="s">
+      <c r="Y13" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="Z13" s="30">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="51"/>
+      <c r="Z13" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="52"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="16.8" spans="3:26">
       <c r="C14" s="18">
@@ -2459,31 +2472,31 @@
       <c r="P14" s="18">
         <v>100</v>
       </c>
-      <c r="Q14" s="31">
-        <v>100</v>
-      </c>
-      <c r="R14" s="31">
+      <c r="Q14" s="32">
+        <v>100</v>
+      </c>
+      <c r="R14" s="32">
         <v>1.2</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="32">
         <v>1</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="32">
         <v>10</v>
       </c>
       <c r="U14">
         <v>5</v>
       </c>
-      <c r="V14" s="31">
-        <v>10</v>
-      </c>
-      <c r="W14" s="31">
-        <v>100</v>
-      </c>
-      <c r="X14" s="40" t="s">
+      <c r="V14" s="32">
+        <v>10</v>
+      </c>
+      <c r="W14" s="32">
+        <v>100</v>
+      </c>
+      <c r="X14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="Y14" s="31" t="s">
+      <c r="Y14" s="32" t="s">
         <v>93</v>
       </c>
       <c r="Z14" s="5">
@@ -2533,31 +2546,31 @@
       <c r="P15" s="19">
         <v>100</v>
       </c>
-      <c r="Q15" s="32">
-        <v>100</v>
-      </c>
-      <c r="R15" s="32">
+      <c r="Q15" s="33">
+        <v>100</v>
+      </c>
+      <c r="R15" s="33">
         <v>1.2</v>
       </c>
-      <c r="S15" s="32">
+      <c r="S15" s="33">
         <v>1</v>
       </c>
-      <c r="T15" s="32">
-        <v>10</v>
-      </c>
-      <c r="U15" s="32">
+      <c r="T15" s="33">
+        <v>10</v>
+      </c>
+      <c r="U15" s="33">
         <v>5</v>
       </c>
-      <c r="V15" s="32">
-        <v>10</v>
-      </c>
-      <c r="W15" s="32">
-        <v>100</v>
-      </c>
-      <c r="X15" s="41" t="s">
+      <c r="V15" s="33">
+        <v>10</v>
+      </c>
+      <c r="W15" s="33">
+        <v>100</v>
+      </c>
+      <c r="X15" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="Y15" s="32" t="s">
+      <c r="Y15" s="33" t="s">
         <v>98</v>
       </c>
       <c r="Z15" s="6">
@@ -2607,31 +2620,31 @@
       <c r="P16" s="20">
         <v>100</v>
       </c>
-      <c r="Q16" s="33">
-        <v>100</v>
-      </c>
-      <c r="R16" s="33">
+      <c r="Q16" s="34">
+        <v>100</v>
+      </c>
+      <c r="R16" s="34">
         <v>1.2</v>
       </c>
-      <c r="S16" s="33">
+      <c r="S16" s="34">
         <v>1</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="34">
         <v>10</v>
       </c>
       <c r="U16">
         <v>5</v>
       </c>
-      <c r="V16" s="33">
-        <v>10</v>
-      </c>
-      <c r="W16" s="33">
-        <v>100</v>
-      </c>
-      <c r="X16" s="42" t="s">
+      <c r="V16" s="34">
+        <v>10</v>
+      </c>
+      <c r="W16" s="34">
+        <v>100</v>
+      </c>
+      <c r="X16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Y16" s="34" t="s">
         <v>102</v>
       </c>
       <c r="Z16" s="7">
@@ -2681,31 +2694,31 @@
       <c r="P17" s="21">
         <v>100</v>
       </c>
-      <c r="Q17" s="34">
-        <v>100</v>
-      </c>
-      <c r="R17" s="34">
+      <c r="Q17" s="35">
+        <v>100</v>
+      </c>
+      <c r="R17" s="35">
         <v>1.2</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="35">
         <v>1</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17" s="35">
         <v>10</v>
       </c>
       <c r="U17">
         <v>5</v>
       </c>
-      <c r="V17" s="34">
-        <v>10</v>
-      </c>
-      <c r="W17" s="34">
-        <v>100</v>
-      </c>
-      <c r="X17" s="43" t="s">
+      <c r="V17" s="35">
+        <v>10</v>
+      </c>
+      <c r="W17" s="35">
+        <v>100</v>
+      </c>
+      <c r="X17" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="Y17" s="34" t="s">
+      <c r="Y17" s="35" t="s">
         <v>107</v>
       </c>
       <c r="Z17" s="8">
@@ -2753,31 +2766,31 @@
       <c r="P18" s="22">
         <v>100</v>
       </c>
-      <c r="Q18" s="35">
-        <v>100</v>
-      </c>
-      <c r="R18" s="35">
+      <c r="Q18" s="36">
+        <v>100</v>
+      </c>
+      <c r="R18" s="36">
         <v>1.2</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18" s="36">
         <v>1</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="36">
         <v>10</v>
       </c>
       <c r="U18">
         <v>5</v>
       </c>
-      <c r="V18" s="35">
-        <v>10</v>
-      </c>
-      <c r="W18" s="35">
-        <v>100</v>
-      </c>
-      <c r="X18" s="44" t="s">
+      <c r="V18" s="36">
+        <v>10</v>
+      </c>
+      <c r="W18" s="36">
+        <v>100</v>
+      </c>
+      <c r="X18" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Y18" s="35" t="s">
+      <c r="Y18" s="36" t="s">
         <v>111</v>
       </c>
       <c r="Z18" s="9">
@@ -2846,8 +2859,8 @@
       <c r="W19">
         <v>100</v>
       </c>
-      <c r="X19" s="36" t="s">
-        <v>83</v>
+      <c r="X19" s="37" t="s">
+        <v>118</v>
       </c>
       <c r="Y19" t="s">
         <v>115</v>
@@ -2861,13 +2874,13 @@
         <v>100021</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="14" t="s">
         <v>120</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="G20" s="14">
         <v>6</v>
@@ -2918,11 +2931,11 @@
       <c r="W20">
         <v>100</v>
       </c>
-      <c r="X20" s="36" t="s">
-        <v>83</v>
+      <c r="X20" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="Y20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z20" s="10">
         <v>2</v>
@@ -2933,13 +2946,13 @@
         <v>100022</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="G21" s="14">
         <v>6</v>
@@ -2990,11 +3003,11 @@
       <c r="W21">
         <v>100</v>
       </c>
-      <c r="X21" s="36" t="s">
-        <v>83</v>
+      <c r="X21" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="Y21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z21" s="10">
         <v>2</v>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>c</t>
   </si>
@@ -61,9 +61,6 @@
     <t>防御值</t>
   </si>
   <si>
-    <t>怒气值增加倍率</t>
-  </si>
-  <si>
     <t>基础暴击率</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>BaseDefence</t>
-  </si>
-  <si>
-    <t>AddAngryRate</t>
   </si>
   <si>
     <t>CritRate</t>
@@ -377,6 +371,9 @@
     <t>雅典娜</t>
   </si>
   <si>
+    <t>光，黄色</t>
+  </si>
+  <si>
     <t>1000033,1000034,1000035,1000036</t>
   </si>
   <si>
@@ -421,10 +418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -476,15 +473,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -498,15 +487,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,33 +518,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,8 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,7 +542,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,21 +558,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,169 +679,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,31 +865,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,11 +885,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,26 +928,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,149 +964,149 @@
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,9 +1169,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1189,12 +1183,15 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1213,15 +1210,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1573,10 +1567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AA26"/>
+  <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1590,26 +1584,25 @@
     <col min="13" max="13" width="18.7307692307692" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.3653846153846" style="11" customWidth="1"/>
     <col min="15" max="16" width="13.0865384615385" style="11" customWidth="1"/>
-    <col min="17" max="17" width="17.5384615384615" style="10" customWidth="1"/>
-    <col min="18" max="18" width="9" style="10"/>
-    <col min="19" max="22" width="15.0865384615385" style="10" customWidth="1"/>
-    <col min="23" max="23" width="16" style="10" customWidth="1"/>
-    <col min="24" max="24" width="35.1826923076923" style="10" customWidth="1"/>
-    <col min="25" max="25" width="14.6346153846154" style="10" customWidth="1"/>
-    <col min="26" max="26" width="34.7307692307692" style="10" customWidth="1"/>
-    <col min="27" max="27" width="26.8173076923077" style="10" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="10"/>
+    <col min="17" max="17" width="9" style="10"/>
+    <col min="18" max="21" width="15.0865384615385" style="10" customWidth="1"/>
+    <col min="22" max="22" width="16" style="10" customWidth="1"/>
+    <col min="23" max="23" width="35.1826923076923" style="10" customWidth="1"/>
+    <col min="24" max="24" width="14.6346153846154" style="10" customWidth="1"/>
+    <col min="25" max="25" width="34.7307692307692" style="10" customWidth="1"/>
+    <col min="26" max="26" width="26.8173076923077" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:25">
+    <row r="2" spans="5:24">
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:27">
+    <row r="3" spans="3:26">
       <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1682,179 +1675,170 @@
       <c r="Z3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="12" t="s">
+    </row>
+    <row r="4" spans="3:26">
+      <c r="C4" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="3:27">
-      <c r="C4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="12" t="s">
+    <row r="5" spans="3:26">
+      <c r="C5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="3:27">
-      <c r="C5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="17" spans="1:26">
+      <c r="A6" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="17" spans="1:27">
-      <c r="A6" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="C6" s="14">
         <v>100001</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="G6" s="14">
         <v>6</v>
@@ -1885,49 +1869,46 @@
         <v>100</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="R6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6">
         <v>1</v>
       </c>
-      <c r="T6">
-        <v>10</v>
-      </c>
-      <c r="U6">
-        <v>5</v>
-      </c>
-      <c r="V6">
-        <v>10</v>
-      </c>
-      <c r="W6">
-        <v>100</v>
-      </c>
-      <c r="X6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="46"/>
+      <c r="Z6" s="48"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:27">
+    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:26">
       <c r="C7" s="14">
         <v>100002</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="G7" s="14">
         <v>6</v>
@@ -1958,49 +1939,46 @@
         <v>100</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="R7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
         <v>10</v>
       </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
       <c r="V7">
-        <v>10</v>
-      </c>
-      <c r="W7">
-        <v>100</v>
-      </c>
-      <c r="X7" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="46"/>
+        <v>100</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="48"/>
     </row>
-    <row r="8" ht="16.8" spans="3:27">
+    <row r="8" ht="16.8" spans="3:26">
       <c r="C8" s="14">
         <v>100003</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="G8" s="14">
         <v>6</v>
@@ -2031,49 +2009,46 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="R8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
         <v>10</v>
       </c>
-      <c r="U8">
-        <v>5</v>
-      </c>
       <c r="V8">
-        <v>10</v>
-      </c>
-      <c r="W8">
-        <v>100</v>
-      </c>
-      <c r="X8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z8">
+        <v>100</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8">
         <v>3</v>
       </c>
-      <c r="AA8" s="46"/>
+      <c r="Z8" s="48"/>
     </row>
-    <row r="9" ht="16.8" spans="3:27">
+    <row r="9" ht="16.8" spans="3:26">
       <c r="C9" s="14">
         <v>100004</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="G9" s="14">
         <v>6</v>
@@ -2104,49 +2079,46 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="R9">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
         <v>10</v>
       </c>
-      <c r="U9">
-        <v>5</v>
-      </c>
       <c r="V9">
-        <v>10</v>
-      </c>
-      <c r="W9">
-        <v>100</v>
-      </c>
-      <c r="X9" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9">
+        <v>100</v>
+      </c>
+      <c r="W9" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9">
         <v>4</v>
       </c>
-      <c r="AA9" s="46"/>
+      <c r="Z9" s="48"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.8" spans="3:27">
+    <row r="10" s="2" customFormat="1" ht="16.8" spans="3:26">
       <c r="C10" s="15">
         <v>100005</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="G10" s="15">
         <v>6</v>
@@ -2176,50 +2148,47 @@
       <c r="P10" s="15">
         <v>100</v>
       </c>
-      <c r="Q10" s="29">
-        <v>100</v>
-      </c>
-      <c r="R10" s="29">
+      <c r="Q10" s="28">
         <v>1.2</v>
       </c>
-      <c r="S10" s="29">
+      <c r="R10" s="28">
         <v>1</v>
       </c>
-      <c r="T10" s="29">
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10" s="28">
         <v>10</v>
       </c>
-      <c r="U10">
-        <v>5</v>
-      </c>
-      <c r="V10" s="29">
-        <v>10</v>
-      </c>
-      <c r="W10" s="29">
-        <v>100</v>
+      <c r="V10" s="28">
+        <v>100</v>
+      </c>
+      <c r="W10" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="X10" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="29">
+        <v>77</v>
+      </c>
+      <c r="Y10" s="28">
         <v>1</v>
       </c>
-      <c r="AA10" s="48"/>
+      <c r="Z10" s="49"/>
     </row>
-    <row r="11" ht="16.8" spans="3:27">
+    <row r="11" ht="16.8" spans="3:26">
       <c r="C11" s="14">
         <v>100006</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="G11" s="14">
         <v>6</v>
@@ -2250,49 +2219,46 @@
         <v>100</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="R11">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
         <v>10</v>
       </c>
-      <c r="U11">
-        <v>5</v>
-      </c>
       <c r="V11">
-        <v>10</v>
-      </c>
-      <c r="W11">
-        <v>100</v>
-      </c>
-      <c r="X11" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="46"/>
+        <v>100</v>
+      </c>
+      <c r="W11" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="48"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="16.8" spans="3:27">
+    <row r="12" s="3" customFormat="1" ht="16.8" spans="3:26">
       <c r="C12" s="16">
         <v>100013</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="G12" s="16">
         <v>6</v>
@@ -2322,50 +2288,47 @@
       <c r="P12" s="16">
         <v>100</v>
       </c>
-      <c r="Q12" s="30">
-        <v>100</v>
-      </c>
-      <c r="R12" s="30">
+      <c r="Q12" s="29">
         <v>1.2</v>
       </c>
-      <c r="S12" s="30">
+      <c r="R12" s="29">
         <v>1</v>
       </c>
-      <c r="T12" s="30">
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12" s="29">
         <v>10</v>
       </c>
-      <c r="U12">
-        <v>5</v>
-      </c>
-      <c r="V12" s="30">
-        <v>10</v>
-      </c>
-      <c r="W12" s="30">
-        <v>100</v>
-      </c>
-      <c r="X12" s="39" t="s">
+      <c r="V12" s="29">
+        <v>100</v>
+      </c>
+      <c r="W12" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="X12" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z12" s="30">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="50"/>
+      <c r="Y12" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="50"/>
     </row>
-    <row r="13" s="4" customFormat="1" ht="16.8" spans="3:27">
+    <row r="13" s="4" customFormat="1" ht="16.8" spans="3:26">
       <c r="C13" s="17">
         <v>100014</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="G13" s="17">
         <v>6</v>
@@ -2374,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J13" s="17">
         <v>300</v>
@@ -2397,50 +2360,47 @@
       <c r="P13" s="17">
         <v>100</v>
       </c>
-      <c r="Q13" s="31">
-        <v>100</v>
-      </c>
-      <c r="R13" s="31">
+      <c r="Q13" s="30">
         <v>1.2</v>
       </c>
-      <c r="S13" s="31">
+      <c r="R13" s="30">
         <v>1</v>
       </c>
-      <c r="T13" s="31">
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13" s="30">
         <v>10</v>
       </c>
-      <c r="U13">
-        <v>5</v>
-      </c>
-      <c r="V13" s="31">
-        <v>10</v>
-      </c>
-      <c r="W13" s="31">
-        <v>100</v>
-      </c>
-      <c r="X13" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y13" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z13" s="31">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="52"/>
+      <c r="V13" s="30">
+        <v>100</v>
+      </c>
+      <c r="W13" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="X13" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="30">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="51"/>
     </row>
-    <row r="14" s="5" customFormat="1" ht="16.8" spans="3:26">
+    <row r="14" s="5" customFormat="1" ht="16.8" spans="3:25">
       <c r="C14" s="18">
         <v>100015</v>
       </c>
       <c r="D14" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="G14" s="18">
         <v>6</v>
@@ -2449,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J14" s="18">
         <v>300</v>
@@ -2472,49 +2432,46 @@
       <c r="P14" s="18">
         <v>100</v>
       </c>
-      <c r="Q14" s="32">
-        <v>100</v>
-      </c>
-      <c r="R14" s="32">
+      <c r="Q14" s="31">
         <v>1.2</v>
       </c>
-      <c r="S14" s="32">
+      <c r="R14" s="31">
         <v>1</v>
       </c>
-      <c r="T14" s="32">
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14" s="31">
         <v>10</v>
       </c>
-      <c r="U14">
-        <v>5</v>
-      </c>
-      <c r="V14" s="32">
-        <v>10</v>
-      </c>
-      <c r="W14" s="32">
-        <v>100</v>
-      </c>
-      <c r="X14" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y14" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z14" s="5">
+      <c r="V14" s="31">
+        <v>100</v>
+      </c>
+      <c r="W14" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y14" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="16.8" spans="3:26">
+    <row r="15" s="6" customFormat="1" ht="16.8" spans="3:25">
       <c r="C15" s="19">
         <v>100016</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="G15" s="19">
         <v>6</v>
@@ -2523,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J15" s="19">
         <v>300</v>
@@ -2546,49 +2503,46 @@
       <c r="P15" s="19">
         <v>100</v>
       </c>
-      <c r="Q15" s="33">
-        <v>100</v>
-      </c>
-      <c r="R15" s="33">
+      <c r="Q15" s="32">
         <v>1.2</v>
       </c>
-      <c r="S15" s="33">
+      <c r="R15" s="32">
         <v>1</v>
       </c>
-      <c r="T15" s="33">
+      <c r="S15">
+        <v>100</v>
+      </c>
+      <c r="T15" s="32">
+        <v>5</v>
+      </c>
+      <c r="U15" s="32">
         <v>10</v>
       </c>
-      <c r="U15" s="33">
-        <v>5</v>
-      </c>
-      <c r="V15" s="33">
-        <v>10</v>
-      </c>
-      <c r="W15" s="33">
-        <v>100</v>
-      </c>
-      <c r="X15" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y15" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z15" s="6">
+      <c r="V15" s="32">
+        <v>100</v>
+      </c>
+      <c r="W15" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="X15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y15" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" ht="16.8" spans="3:26">
+    <row r="16" s="7" customFormat="1" ht="16.8" spans="3:25">
       <c r="C16" s="20">
         <v>100017</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="G16" s="20">
         <v>6</v>
@@ -2597,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J16" s="20">
         <v>300</v>
@@ -2620,49 +2574,46 @@
       <c r="P16" s="20">
         <v>100</v>
       </c>
-      <c r="Q16" s="34">
-        <v>100</v>
-      </c>
-      <c r="R16" s="34">
+      <c r="Q16" s="33">
         <v>1.2</v>
       </c>
-      <c r="S16" s="34">
+      <c r="R16" s="33">
         <v>1</v>
       </c>
-      <c r="T16" s="34">
+      <c r="S16">
+        <v>100</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16" s="33">
         <v>10</v>
       </c>
-      <c r="U16">
-        <v>5</v>
-      </c>
-      <c r="V16" s="34">
-        <v>10</v>
-      </c>
-      <c r="W16" s="34">
-        <v>100</v>
-      </c>
-      <c r="X16" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y16" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z16" s="7">
+      <c r="V16" s="33">
+        <v>100</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" ht="16.8" spans="3:26">
+    <row r="17" s="8" customFormat="1" ht="16.8" spans="3:25">
       <c r="C17" s="21">
         <v>100018</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="G17" s="21">
         <v>6</v>
@@ -2671,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J17" s="21">
         <v>300</v>
@@ -2694,49 +2645,46 @@
       <c r="P17" s="21">
         <v>100</v>
       </c>
-      <c r="Q17" s="35">
-        <v>100</v>
-      </c>
-      <c r="R17" s="35">
+      <c r="Q17" s="34">
         <v>1.2</v>
       </c>
-      <c r="S17" s="35">
+      <c r="R17" s="34">
         <v>1</v>
       </c>
-      <c r="T17" s="35">
+      <c r="S17">
+        <v>100</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17" s="34">
         <v>10</v>
       </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="V17" s="35">
-        <v>10</v>
-      </c>
-      <c r="W17" s="35">
-        <v>100</v>
-      </c>
-      <c r="X17" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y17" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z17" s="8">
+      <c r="V17" s="34">
+        <v>100</v>
+      </c>
+      <c r="W17" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X17" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y17" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" ht="16.8" spans="3:26">
+    <row r="18" s="9" customFormat="1" ht="16.8" spans="3:25">
       <c r="C18" s="22">
         <v>100019</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>113</v>
       </c>
       <c r="G18" s="22">
         <v>6</v>
@@ -2744,7 +2692,9 @@
       <c r="H18" s="22">
         <v>5</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="J18" s="22">
         <v>300</v>
       </c>
@@ -2766,49 +2716,46 @@
       <c r="P18" s="22">
         <v>100</v>
       </c>
-      <c r="Q18" s="36">
-        <v>100</v>
-      </c>
-      <c r="R18" s="36">
+      <c r="Q18" s="35">
         <v>1.2</v>
       </c>
-      <c r="S18" s="36">
+      <c r="R18" s="35">
         <v>1</v>
       </c>
-      <c r="T18" s="36">
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18" s="35">
         <v>10</v>
       </c>
-      <c r="U18">
-        <v>5</v>
-      </c>
-      <c r="V18" s="36">
-        <v>10</v>
-      </c>
-      <c r="W18" s="36">
-        <v>100</v>
-      </c>
-      <c r="X18" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y18" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z18" s="9">
+      <c r="V18" s="35">
+        <v>100</v>
+      </c>
+      <c r="W18" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="X18" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y18" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="3:26">
+    <row r="19" ht="16.8" spans="3:25">
       <c r="C19" s="14">
         <v>100020</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="G19" s="14">
         <v>6</v>
@@ -2839,48 +2786,45 @@
         <v>100</v>
       </c>
       <c r="Q19">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="R19">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
         <v>10</v>
       </c>
-      <c r="U19">
-        <v>5</v>
-      </c>
       <c r="V19">
-        <v>10</v>
-      </c>
-      <c r="W19">
-        <v>100</v>
-      </c>
-      <c r="X19" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z19" s="10">
+        <v>100</v>
+      </c>
+      <c r="W19" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y19" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="16.8" spans="3:26">
+    <row r="20" ht="16.8" spans="3:25">
       <c r="C20" s="14">
         <v>100021</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="G20" s="14">
         <v>6</v>
@@ -2911,48 +2855,45 @@
         <v>100</v>
       </c>
       <c r="Q20">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="R20">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
         <v>10</v>
       </c>
-      <c r="U20">
-        <v>5</v>
-      </c>
       <c r="V20">
-        <v>10</v>
-      </c>
-      <c r="W20">
-        <v>100</v>
-      </c>
-      <c r="X20" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z20" s="10">
+        <v>100</v>
+      </c>
+      <c r="W20" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="X20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y20" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="3:26">
+    <row r="21" ht="16.8" spans="3:25">
       <c r="C21" s="14">
         <v>100022</v>
       </c>
       <c r="D21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>125</v>
       </c>
       <c r="G21" s="14">
         <v>6</v>
@@ -2983,33 +2924,30 @@
         <v>100</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="R21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
         <v>10</v>
       </c>
-      <c r="U21">
-        <v>5</v>
-      </c>
       <c r="V21">
-        <v>10</v>
-      </c>
-      <c r="W21">
-        <v>100</v>
-      </c>
-      <c r="X21" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z21" s="10">
+        <v>100</v>
+      </c>
+      <c r="W21" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="X21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y21" s="10">
         <v>2</v>
       </c>
     </row>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
   <si>
     <t>c</t>
   </si>
@@ -248,6 +248,9 @@
     <t>桑纳托斯（死神）</t>
   </si>
   <si>
+    <t>暗，紫色</t>
+  </si>
+  <si>
     <t>1000013,1000014,1000015,1000016</t>
   </si>
   <si>
@@ -317,9 +320,6 @@
     <t>哈迪斯</t>
   </si>
   <si>
-    <t>暗，紫色</t>
-  </si>
-  <si>
     <t>1000029,1000030,1000031,1000032</t>
   </si>
   <si>
@@ -410,7 +410,22 @@
     <t>拉米亚</t>
   </si>
   <si>
+    <t>绿色</t>
+  </si>
+  <si>
     <t>1000049,1000050,1000051,1000052</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>item_A</t>
+  </si>
+  <si>
+    <t>地狱三头犬刻尔伯洛斯</t>
+  </si>
+  <si>
+    <t>1000061,1000062,1000063,1000064</t>
   </si>
 </sst>
 </file>
@@ -419,9 +434,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -466,35 +481,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -510,31 +578,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,15 +602,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,51 +625,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="6"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -679,19 +694,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,25 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,121 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,8 +879,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +905,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,30 +945,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -950,159 +959,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,7 +1585,7 @@
   <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2053,10 +2068,12 @@
       <c r="G9" s="14">
         <v>6</v>
       </c>
-      <c r="H9" s="14">
-        <v>4</v>
-      </c>
-      <c r="I9" s="14"/>
+      <c r="H9" s="18">
+        <v>2</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="J9" s="14">
         <v>300</v>
       </c>
@@ -2097,10 +2114,10 @@
         <v>100</v>
       </c>
       <c r="W9" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9">
         <v>4</v>
@@ -2112,13 +2129,13 @@
         <v>100005</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" s="15">
         <v>6</v>
@@ -2167,10 +2184,10 @@
         <v>100</v>
       </c>
       <c r="W10" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" s="28">
         <v>1</v>
@@ -2182,13 +2199,13 @@
         <v>100006</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="14">
         <v>6</v>
@@ -2237,10 +2254,10 @@
         <v>100</v>
       </c>
       <c r="W11" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11">
         <v>2</v>
@@ -2252,13 +2269,13 @@
         <v>100013</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="16">
         <v>6</v>
@@ -2307,10 +2324,10 @@
         <v>100</v>
       </c>
       <c r="W12" s="39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X12" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y12" s="29">
         <v>2</v>
@@ -2322,13 +2339,13 @@
         <v>100014</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="17">
         <v>6</v>
@@ -2337,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" s="17">
         <v>300</v>
@@ -2379,10 +2396,10 @@
         <v>100</v>
       </c>
       <c r="W13" s="41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X13" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="30">
         <v>2</v>
@@ -2394,13 +2411,13 @@
         <v>100015</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="18">
         <v>6</v>
@@ -2409,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="J14" s="18">
         <v>300</v>
@@ -2454,7 +2471,7 @@
         <v>95</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y14" s="5">
         <v>2</v>
@@ -2480,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J15" s="19">
         <v>300</v>
@@ -2622,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="J17" s="21">
         <v>300</v>
@@ -2760,10 +2777,12 @@
       <c r="G19" s="14">
         <v>6</v>
       </c>
-      <c r="H19" s="14">
-        <v>5</v>
-      </c>
-      <c r="I19" s="14"/>
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="J19" s="14">
         <v>300</v>
       </c>
@@ -2829,10 +2848,12 @@
       <c r="G20" s="14">
         <v>6</v>
       </c>
-      <c r="H20" s="14">
-        <v>5</v>
-      </c>
-      <c r="I20" s="14"/>
+      <c r="H20" s="20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="J20" s="14">
         <v>300</v>
       </c>
@@ -2899,9 +2920,11 @@
         <v>6</v>
       </c>
       <c r="H21" s="14">
-        <v>5</v>
-      </c>
-      <c r="I21" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="J21" s="14">
         <v>300</v>
       </c>
@@ -2942,7 +2965,7 @@
         <v>100</v>
       </c>
       <c r="W21" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X21" t="s">
         <v>122</v>
@@ -2951,19 +2974,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:16">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+    <row r="22" ht="16.8" spans="3:25">
+      <c r="C22" s="14">
+        <v>100023</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="14">
+        <v>6</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="14">
+        <v>300</v>
+      </c>
+      <c r="K22" s="14">
+        <v>2</v>
+      </c>
+      <c r="L22" s="14">
+        <v>3</v>
+      </c>
+      <c r="M22" s="14">
+        <v>50</v>
+      </c>
+      <c r="N22" s="14">
+        <v>100</v>
+      </c>
+      <c r="O22" s="14">
+        <v>100</v>
+      </c>
+      <c r="P22" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>1.2</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>100</v>
+      </c>
+      <c r="W22" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="14"/>
